--- a/data/hotels_by_city/Houston/Houston_shard_550.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_550.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="493">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56764-d258818-Reviews-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
   </si>
   <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Residence-Inn-By-Marriott-Houston-The-WoodlandsMarket-Street.h894677.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1403 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r558147802-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>56764</t>
+  </si>
+  <si>
+    <t>258818</t>
+  </si>
+  <si>
+    <t>558147802</t>
+  </si>
+  <si>
+    <t>02/03/2018</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Very nice hotel Clean rooms Outstanding support from the whole staff who helped me in couple of issues during my stay that had nothing to do with the hotel but the showed superior performance and help Their manager assistant takes shifts and backup his receptionist team mates which is a very professional manner that I highly appreciated The breakfast is very good and delicious with different varieties The house keeping us doing a great job The fitness center needs attention It is very basicMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>angie h, General Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded February 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2018</t>
+  </si>
+  <si>
+    <t>Very nice hotel Clean rooms Outstanding support from the whole staff who helped me in couple of issues during my stay that had nothing to do with the hotel but the showed superior performance and help Their manager assistant takes shifts and backup his receptionist team mates which is a very professional manner that I highly appreciated The breakfast is very good and delicious with different varieties The house keeping us doing a great job The fitness center needs attention It is very basicMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r549059380-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>549059380</t>
+  </si>
+  <si>
+    <t>12/24/2017</t>
+  </si>
+  <si>
+    <t>Close to mall</t>
+  </si>
+  <si>
+    <t>Good location across from some shops and 2 blocks to The Woodlands Mall and Shops at Market Street (leave you car at the hotel and walk during Christmas time). Also a HEB grocery store 3 blocks away.  Front desk staff is friendly and even called me when a friend of mine showed up at the front desk.  I got the studio apartment which was fine.  Very clean and housekeeping came early.  Went out for breakfast with friends each morning so didn't try the hotel breakfast.  They do have a pool and a fire pit.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>angie h, General Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded December 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 25, 2017</t>
+  </si>
+  <si>
+    <t>Good location across from some shops and 2 blocks to The Woodlands Mall and Shops at Market Street (leave you car at the hotel and walk during Christmas time). Also a HEB grocery store 3 blocks away.  Front desk staff is friendly and even called me when a friend of mine showed up at the front desk.  I got the studio apartment which was fine.  Very clean and housekeeping came early.  Went out for breakfast with friends each morning so didn't try the hotel breakfast.  They do have a pool and a fire pit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r547412868-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>547412868</t>
+  </si>
+  <si>
+    <t>12/15/2017</t>
+  </si>
+  <si>
+    <t>4 night stay with family and dog</t>
+  </si>
+  <si>
+    <t>We recently stayed at this hotel while we were having work done on our house. They gave me a tour of available rooms. And we ended up staying in the 2 bedroom suite. (Family of 4 with large dog). I feel like the space was adequate and the room had a full size stove oven fridge and microwave. The buffet breakfast was very good every morning and my kids enjoyed it. We didn't have housekeeping clean every day since we had the dog but the one day we did ask to have it cleaned while we were out and they did. But the room waa not vacuumed which I thought was odd. And the room felt a little damp. In all fairness it faced the woods and the weather has been cold. The lobby was nice and bright but the rooms could have used brighter light and a ceiling fan. We were on the 1st floor 3 rooms in from the stairs and I am not sure if it was the people above us or the stairs but there was so much banging and "stomping " sounds at night and early morning. (Nothing the hotel could really change just keep in mind when picking your room location) overall the hotel had lots of amenities and was a very fair price. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>angie h, General Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded December 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 17, 2017</t>
+  </si>
+  <si>
+    <t>We recently stayed at this hotel while we were having work done on our house. They gave me a tour of available rooms. And we ended up staying in the 2 bedroom suite. (Family of 4 with large dog). I feel like the space was adequate and the room had a full size stove oven fridge and microwave. The buffet breakfast was very good every morning and my kids enjoyed it. We didn't have housekeeping clean every day since we had the dog but the one day we did ask to have it cleaned while we were out and they did. But the room waa not vacuumed which I thought was odd. And the room felt a little damp. In all fairness it faced the woods and the weather has been cold. The lobby was nice and bright but the rooms could have used brighter light and a ceiling fan. We were on the 1st floor 3 rooms in from the stairs and I am not sure if it was the people above us or the stairs but there was so much banging and "stomping " sounds at night and early morning. (Nothing the hotel could really change just keep in mind when picking your room location) overall the hotel had lots of amenities and was a very fair price. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r529248332-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>529248332</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dependable </t>
+  </si>
+  <si>
+    <t>Good as expected Residence Inn with friendly staff. Was upgraded to two bedroom suite which was overkill for a one night stay. Clean efficient and spacious with comfortable bed. Breakfast is free and adequate. All in all very good.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>angie h, General Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded October 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2017</t>
+  </si>
+  <si>
+    <t>Good as expected Residence Inn with friendly staff. Was upgraded to two bedroom suite which was overkill for a one night stay. Clean efficient and spacious with comfortable bed. Breakfast is free and adequate. All in all very good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r525467619-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>525467619</t>
+  </si>
+  <si>
+    <t>09/18/2017</t>
+  </si>
+  <si>
+    <t>Mismanaged, dated and unclean property</t>
+  </si>
+  <si>
+    <t>Very disappointed in this property on many levels.  We were recently displaced by hurricane Harvey.  This property provided a room to us but that is the only positive of our stay.  The room was very dirty and dingy and just uncomfortable in every way.  From musty &amp; moldy smells to stains on the carpet &amp; uncomfortable furniture.  The excuse for all of this from the front desk?  "Well it's a dated property." Management of this dated property however felt it perfectly reasonable to charge rates well beyond the class of hotel it is.  Our rate went up without notice from the rate on our reservation.  Throughout our stay we could never get a consistent story on if the hotel would accept FEMA vouchers or not.  Beyond the bait and switch tactics for room rates.  The most disappointing aspect of this property was the sheer lack of sympathy or empathy from the desk staff for people who's lives were turned upside down in an instant and are displaced indefinitely. The disingenuous saccharin sweet attitudes were poorer than the condition of the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>angie h, General Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded September 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2017</t>
+  </si>
+  <si>
+    <t>Very disappointed in this property on many levels.  We were recently displaced by hurricane Harvey.  This property provided a room to us but that is the only positive of our stay.  The room was very dirty and dingy and just uncomfortable in every way.  From musty &amp; moldy smells to stains on the carpet &amp; uncomfortable furniture.  The excuse for all of this from the front desk?  "Well it's a dated property." Management of this dated property however felt it perfectly reasonable to charge rates well beyond the class of hotel it is.  Our rate went up without notice from the rate on our reservation.  Throughout our stay we could never get a consistent story on if the hotel would accept FEMA vouchers or not.  Beyond the bait and switch tactics for room rates.  The most disappointing aspect of this property was the sheer lack of sympathy or empathy from the desk staff for people who's lives were turned upside down in an instant and are displaced indefinitely. The disingenuous saccharin sweet attitudes were poorer than the condition of the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r524653833-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>524653833</t>
+  </si>
+  <si>
+    <t>09/15/2017</t>
+  </si>
+  <si>
+    <t>Displaced due to Harvey</t>
+  </si>
+  <si>
+    <t>Under normal circumstances, I would say this hotel is a C- only because of location. Run down, uncaring staff and unkept rooms (stained carpet, dated, stinky sofa, terrible beds). 
+I am a business traveler and do all of my business at Marriott properties. our loyalty also stays with Residence Inns for pleasure travel because they accept dogs, with a smile.  
+Our lives have recently changed as our home was flooded due to Hurricane Harvey. Although we have FEMA vouchers, this hotel will not accept them. The first day we checked in, our rate was $132/night, it is now $299/night. It was explained to me that they aren't price gouging, but adhering to their normal price ladder, because it's "high season." There is no distressed rate, unless you have a government ID, but they won't give that to displaced victims. Governor Abbot has said all taxes for hotels should be waived, this place will only do it after the standard 30 days.  I was challenged by the front desk agent when I asked for it. "I'm not sure we're doing that," I was told. 
+The manager, Angie Hernandez, needs sensitivity training and perhaps a lesson on empathy. This community is sinking and she explained to me, "they are running a business." There is no inventory for rooms, especially for those who have animals. It is disgusting that this place would profit off of this disaster, not try to offer a low...Under normal circumstances, I would say this hotel is a C- only because of location. Run down, uncaring staff and unkept rooms (stained carpet, dated, stinky sofa, terrible beds). I am a business traveler and do all of my business at Marriott properties. our loyalty also stays with Residence Inns for pleasure travel because they accept dogs, with a smile.  Our lives have recently changed as our home was flooded due to Hurricane Harvey. Although we have FEMA vouchers, this hotel will not accept them. The first day we checked in, our rate was $132/night, it is now $299/night. It was explained to me that they aren't price gouging, but adhering to their normal price ladder, because it's "high season." There is no distressed rate, unless you have a government ID, but they won't give that to displaced victims. Governor Abbot has said all taxes for hotels should be waived, this place will only do it after the standard 30 days.  I was challenged by the front desk agent when I asked for it. "I'm not sure we're doing that," I was told. The manager, Angie Hernandez, needs sensitivity training and perhaps a lesson on empathy. This community is sinking and she explained to me, "they are running a business." There is no inventory for rooms, especially for those who have animals. It is disgusting that this place would profit off of this disaster, not try to offer a low rate and refuses to accept FEMA vouchers. These practices have changed my mind on how I feel about Marriott, and specifically this property.  I ask you Angie to go sleep a night in room 102 and write a review. As a platinum member, who has spent more nights in Marriott properties than my own during the last 18 months, I am waiting for them to do the right thing for this community. We are not on vacation, we are homeless. This property, is managed by Pillar Hotels. I have written to their corporate, as well as Marriott, and have gotten no response. If you're ok supporting a business that doesn't support their community in a time of uncertainty and disaster and chose to stay here, get ready for a disappointing stay.  I assure you, there are plenty of hotels in The Woodlands that are in close proximity to attractions, cleaner, more comfortable and concerned with doing the right thing for their community. I am so disappointed in this property, the management company  and the staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>angie h, General Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded September 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2017</t>
+  </si>
+  <si>
+    <t>Under normal circumstances, I would say this hotel is a C- only because of location. Run down, uncaring staff and unkept rooms (stained carpet, dated, stinky sofa, terrible beds). 
+I am a business traveler and do all of my business at Marriott properties. our loyalty also stays with Residence Inns for pleasure travel because they accept dogs, with a smile.  
+Our lives have recently changed as our home was flooded due to Hurricane Harvey. Although we have FEMA vouchers, this hotel will not accept them. The first day we checked in, our rate was $132/night, it is now $299/night. It was explained to me that they aren't price gouging, but adhering to their normal price ladder, because it's "high season." There is no distressed rate, unless you have a government ID, but they won't give that to displaced victims. Governor Abbot has said all taxes for hotels should be waived, this place will only do it after the standard 30 days.  I was challenged by the front desk agent when I asked for it. "I'm not sure we're doing that," I was told. 
+The manager, Angie Hernandez, needs sensitivity training and perhaps a lesson on empathy. This community is sinking and she explained to me, "they are running a business." There is no inventory for rooms, especially for those who have animals. It is disgusting that this place would profit off of this disaster, not try to offer a low...Under normal circumstances, I would say this hotel is a C- only because of location. Run down, uncaring staff and unkept rooms (stained carpet, dated, stinky sofa, terrible beds). I am a business traveler and do all of my business at Marriott properties. our loyalty also stays with Residence Inns for pleasure travel because they accept dogs, with a smile.  Our lives have recently changed as our home was flooded due to Hurricane Harvey. Although we have FEMA vouchers, this hotel will not accept them. The first day we checked in, our rate was $132/night, it is now $299/night. It was explained to me that they aren't price gouging, but adhering to their normal price ladder, because it's "high season." There is no distressed rate, unless you have a government ID, but they won't give that to displaced victims. Governor Abbot has said all taxes for hotels should be waived, this place will only do it after the standard 30 days.  I was challenged by the front desk agent when I asked for it. "I'm not sure we're doing that," I was told. The manager, Angie Hernandez, needs sensitivity training and perhaps a lesson on empathy. This community is sinking and she explained to me, "they are running a business." There is no inventory for rooms, especially for those who have animals. It is disgusting that this place would profit off of this disaster, not try to offer a low rate and refuses to accept FEMA vouchers. These practices have changed my mind on how I feel about Marriott, and specifically this property.  I ask you Angie to go sleep a night in room 102 and write a review. As a platinum member, who has spent more nights in Marriott properties than my own during the last 18 months, I am waiting for them to do the right thing for this community. We are not on vacation, we are homeless. This property, is managed by Pillar Hotels. I have written to their corporate, as well as Marriott, and have gotten no response. If you're ok supporting a business that doesn't support their community in a time of uncertainty and disaster and chose to stay here, get ready for a disappointing stay.  I assure you, there are plenty of hotels in The Woodlands that are in close proximity to attractions, cleaner, more comfortable and concerned with doing the right thing for their community. I am so disappointed in this property, the management company  and the staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r489685488-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>489685488</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t>Excellent choice! Excellent location!</t>
+  </si>
+  <si>
+    <t>My family and I stayed at the Residence Inn Market Street for 4 nights. This beautiful property in The Woodlands offers competitive prices and is conveniently located close to many local attractions.Service was outstanding throughout our stay. All employees made us feel at home and were very professional. Breakfast (included) consisted of a well presented moderate buffet with scrambled eggs, grits, bacon, sausage, waffles (nice set of toppings), fruit, yogurts and bagels. Nice variety of juices and coffee. The hotel offers social gathering several nights a week (I believe from Mon -Wed) with free appetizers and drinks. Our room was a 2 bedroom, 2 bathroom suite, with a nice family room area, fireplace, small dining table and a well equipped kitchen. The room was clean, but the furniture could be upgraded and was mildly worn down.The hotel is a short walk from Market Street, The Woodlands Mall, and many restaurants, and about a 10-15 minute walk to The Waterway. Easy access to I-45 and ample parking area.Overall, great choice to consider when you want to stay near Town Center in The Woodlands. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>angie h, Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded June 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2017</t>
+  </si>
+  <si>
+    <t>My family and I stayed at the Residence Inn Market Street for 4 nights. This beautiful property in The Woodlands offers competitive prices and is conveniently located close to many local attractions.Service was outstanding throughout our stay. All employees made us feel at home and were very professional. Breakfast (included) consisted of a well presented moderate buffet with scrambled eggs, grits, bacon, sausage, waffles (nice set of toppings), fruit, yogurts and bagels. Nice variety of juices and coffee. The hotel offers social gathering several nights a week (I believe from Mon -Wed) with free appetizers and drinks. Our room was a 2 bedroom, 2 bathroom suite, with a nice family room area, fireplace, small dining table and a well equipped kitchen. The room was clean, but the furniture could be upgraded and was mildly worn down.The hotel is a short walk from Market Street, The Woodlands Mall, and many restaurants, and about a 10-15 minute walk to The Waterway. Easy access to I-45 and ample parking area.Overall, great choice to consider when you want to stay near Town Center in The Woodlands. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r481403407-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>481403407</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>Great place &amp; Great staff</t>
+  </si>
+  <si>
+    <t>I was in this hotel already three times, always at least one week... simply it is great place. Staff there is also very nice and always helpful. Just one thing needs to be better - i'm missing more fruits and vegetable in breakfasts.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>angie h, General Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded May 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2017</t>
+  </si>
+  <si>
+    <t>I was in this hotel already three times, always at least one week... simply it is great place. Staff there is also very nice and always helpful. Just one thing needs to be better - i'm missing more fruits and vegetable in breakfasts.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r464625638-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>464625638</t>
+  </si>
+  <si>
+    <t>03/04/2017</t>
+  </si>
+  <si>
+    <t>Moderate Price for Moderate Accommodations</t>
+  </si>
+  <si>
+    <t>Overall this is a good value for the location and proximity to the starting line for the annual Woodland’s Marathon. I would rate these accommodations a 6.5 on a scale of 1 to 10.   
+Pros:  It’s a quick 10-minute walk to Town Green Park and HEB.  There is a full size refrigerator and dishwasher in the King Studio.  There’s ample parking located in close proximity to the entrance of the hotel.  I could not hear my next door or upstairs neighbors.  
+Cons:  I specifically requested a quiet room and was reassured by the front desk associate that checked me in that the room was located in a quiet location; wrong.  The room that I was given was located on the first floor directly behind the Sport Court where guests bounce balls, many of which hit the window or wall located where my room was.  The electric range in the kitchenette left much to be desired as you have to almost have the dial on high heat for even moderate cooking.  The bed sheets need replacing as they have become thin and started to have pills on them.  The TV is too small for the King Studio space as one TV has to be shared throughout the entire space from bed to kitchenette area.  The air conditioner unit is noisy and appears to be located in a locked closet in the room; I’m not sure if this is true for floors...Overall this is a good value for the location and proximity to the starting line for the annual Woodland’s Marathon. I would rate these accommodations a 6.5 on a scale of 1 to 10.   Pros:  It’s a quick 10-minute walk to Town Green Park and HEB.  There is a full size refrigerator and dishwasher in the King Studio.  There’s ample parking located in close proximity to the entrance of the hotel.  I could not hear my next door or upstairs neighbors.  Cons:  I specifically requested a quiet room and was reassured by the front desk associate that checked me in that the room was located in a quiet location; wrong.  The room that I was given was located on the first floor directly behind the Sport Court where guests bounce balls, many of which hit the window or wall located where my room was.  The electric range in the kitchenette left much to be desired as you have to almost have the dial on high heat for even moderate cooking.  The bed sheets need replacing as they have become thin and started to have pills on them.  The TV is too small for the King Studio space as one TV has to be shared throughout the entire space from bed to kitchenette area.  The air conditioner unit is noisy and appears to be located in a locked closet in the room; I’m not sure if this is true for floors 2 and 3.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>angie h, General Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded March 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2017</t>
+  </si>
+  <si>
+    <t>Overall this is a good value for the location and proximity to the starting line for the annual Woodland’s Marathon. I would rate these accommodations a 6.5 on a scale of 1 to 10.   
+Pros:  It’s a quick 10-minute walk to Town Green Park and HEB.  There is a full size refrigerator and dishwasher in the King Studio.  There’s ample parking located in close proximity to the entrance of the hotel.  I could not hear my next door or upstairs neighbors.  
+Cons:  I specifically requested a quiet room and was reassured by the front desk associate that checked me in that the room was located in a quiet location; wrong.  The room that I was given was located on the first floor directly behind the Sport Court where guests bounce balls, many of which hit the window or wall located where my room was.  The electric range in the kitchenette left much to be desired as you have to almost have the dial on high heat for even moderate cooking.  The bed sheets need replacing as they have become thin and started to have pills on them.  The TV is too small for the King Studio space as one TV has to be shared throughout the entire space from bed to kitchenette area.  The air conditioner unit is noisy and appears to be located in a locked closet in the room; I’m not sure if this is true for floors...Overall this is a good value for the location and proximity to the starting line for the annual Woodland’s Marathon. I would rate these accommodations a 6.5 on a scale of 1 to 10.   Pros:  It’s a quick 10-minute walk to Town Green Park and HEB.  There is a full size refrigerator and dishwasher in the King Studio.  There’s ample parking located in close proximity to the entrance of the hotel.  I could not hear my next door or upstairs neighbors.  Cons:  I specifically requested a quiet room and was reassured by the front desk associate that checked me in that the room was located in a quiet location; wrong.  The room that I was given was located on the first floor directly behind the Sport Court where guests bounce balls, many of which hit the window or wall located where my room was.  The electric range in the kitchenette left much to be desired as you have to almost have the dial on high heat for even moderate cooking.  The bed sheets need replacing as they have become thin and started to have pills on them.  The TV is too small for the King Studio space as one TV has to be shared throughout the entire space from bed to kitchenette area.  The air conditioner unit is noisy and appears to be located in a locked closet in the room; I’m not sure if this is true for floors 2 and 3.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r453336832-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>453336832</t>
+  </si>
+  <si>
+    <t>01/19/2017</t>
+  </si>
+  <si>
+    <t>Property and management needs rebooting</t>
+  </si>
+  <si>
+    <t>I've stayed over 1,100+ nights at various Marriott brands and ~1,000 nights at Hilton and Starwood properties.  I have personally stayed over 200+ nights at this location alone and I can confidently say that this property is in desperate need of renovation.  Rooms had stains in the carpet and the bed was sagging.  Also overall decor, furniture &amp; appliances are outdated and look tired.  Compared to this property, another Residence Inn less than a mile away has modern look and feel.However, the most troubling was management.  I don't know how they got to where they are, but it's the most unprofessionally run property I have ever seen.  Assistant GM can't keep from gossiping in front of guests.  I personally know she was bad-mouthing about one of the guests while this guest was on the phone with another staff and heard every word.  It's such as dysfunctional management.  The GM is very pleasant and cares about her staff, which is a saving grace, but at the cost of allowing some to get away with their behavior...for example the front desk manager.  They need to replace the front desk manager with someone who's qualified and knowledgeable.  The staff is what makes the place run despite the poor management.  They should replace the whole management who can act professionally and take care of their staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>angie h, General Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded January 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2017</t>
+  </si>
+  <si>
+    <t>I've stayed over 1,100+ nights at various Marriott brands and ~1,000 nights at Hilton and Starwood properties.  I have personally stayed over 200+ nights at this location alone and I can confidently say that this property is in desperate need of renovation.  Rooms had stains in the carpet and the bed was sagging.  Also overall decor, furniture &amp; appliances are outdated and look tired.  Compared to this property, another Residence Inn less than a mile away has modern look and feel.However, the most troubling was management.  I don't know how they got to where they are, but it's the most unprofessionally run property I have ever seen.  Assistant GM can't keep from gossiping in front of guests.  I personally know she was bad-mouthing about one of the guests while this guest was on the phone with another staff and heard every word.  It's such as dysfunctional management.  The GM is very pleasant and cares about her staff, which is a saving grace, but at the cost of allowing some to get away with their behavior...for example the front desk manager.  They need to replace the front desk manager with someone who's qualified and knowledgeable.  The staff is what makes the place run despite the poor management.  They should replace the whole management who can act professionally and take care of their staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r441577236-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>441577236</t>
+  </si>
+  <si>
+    <t>12/02/2016</t>
+  </si>
+  <si>
+    <t>Absolutely loved it!</t>
+  </si>
+  <si>
+    <t>We stayed here for Thanksgiving since it was close to the LSU game and the Renaissance Festival. We could not have made a better choice! Most of the staff was so sweet (there was one front desk clerk who was constantly on an obviously personal phone call or just not at the desk for long stretches of time but she was nice when she wasn't distracted). Another desk clerk (Hilton) couldn't have been nicer with recommendations and directions. The fire pit was lit every night, making the patio a really cool place to hang out. There's even a grill, and plenty of people took advantage of it. Breakfast was really good. Best of all, the hotel is an easy walk to the Waterway and even the mall. It's a great location and a great hotel - and like all Residence Inns, it's doggie friendly. The walls are a little thin but noisy neighbors only bothered us one night. One suggestion: Maybe install a few poop bag dispensers around the property with garbage cans to encourage people to dispose of their dogs' poop.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We stayed here for Thanksgiving since it was close to the LSU game and the Renaissance Festival. We could not have made a better choice! Most of the staff was so sweet (there was one front desk clerk who was constantly on an obviously personal phone call or just not at the desk for long stretches of time but she was nice when she wasn't distracted). Another desk clerk (Hilton) couldn't have been nicer with recommendations and directions. The fire pit was lit every night, making the patio a really cool place to hang out. There's even a grill, and plenty of people took advantage of it. Breakfast was really good. Best of all, the hotel is an easy walk to the Waterway and even the mall. It's a great location and a great hotel - and like all Residence Inns, it's doggie friendly. The walls are a little thin but noisy neighbors only bothered us one night. One suggestion: Maybe install a few poop bag dispensers around the property with garbage cans to encourage people to dispose of their dogs' poop.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r432189927-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>432189927</t>
+  </si>
+  <si>
+    <t>10/27/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>Came here on a business trip.  Hotel is very conveniently located, extremely close to office buildings, fast food restaurants, restaurants (such as The Cheesecake Factory), shopping malls (Market Place, The woodlands Mall) and major stores (Best Buy, Ross, Ulta).  All within a 1-2 minutes drive!  It is also 2 minutes away from I-45.Rooms are spacious, although a bit outdated.  But nothing to even worry about!Front desk personnel is pleasant and ready to help you!Breakfast is very nice with hot and cold items.  Hotel maintenance personnel and house-keepers are also very nice and a pleasure to talk to!On Mondays, Tuesday and Wednesdays, there are special treats from 6PM to 07:30PM.Overall, it was a very nice experience and I would definitely come back.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>angie h, Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded October 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2016</t>
+  </si>
+  <si>
+    <t>Came here on a business trip.  Hotel is very conveniently located, extremely close to office buildings, fast food restaurants, restaurants (such as The Cheesecake Factory), shopping malls (Market Place, The woodlands Mall) and major stores (Best Buy, Ross, Ulta).  All within a 1-2 minutes drive!  It is also 2 minutes away from I-45.Rooms are spacious, although a bit outdated.  But nothing to even worry about!Front desk personnel is pleasant and ready to help you!Breakfast is very nice with hot and cold items.  Hotel maintenance personnel and house-keepers are also very nice and a pleasure to talk to!On Mondays, Tuesday and Wednesdays, there are special treats from 6PM to 07:30PM.Overall, it was a very nice experience and I would definitely come back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r422077499-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>422077499</t>
+  </si>
+  <si>
+    <t>09/25/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay when visiting the Woodlands</t>
+  </si>
+  <si>
+    <t>My wife and I stayed one night for a concert because we saw the proximity to the concert venue. A short walk away from the The Marketplace at The Woodlands and the Cynthia Mitchell Pavilion, this is a great place to stay.The accommodations were great. Everything was very clean, AC worked great in the room, free breakfast includes a waffle station, eggs, sausage, along with the usual continental stuff.The staff were very polite and helpful and we would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>angie h, General Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded September 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2016</t>
+  </si>
+  <si>
+    <t>My wife and I stayed one night for a concert because we saw the proximity to the concert venue. A short walk away from the The Marketplace at The Woodlands and the Cynthia Mitchell Pavilion, this is a great place to stay.The accommodations were great. Everything was very clean, AC worked great in the room, free breakfast includes a waffle station, eggs, sausage, along with the usual continental stuff.The staff were very polite and helpful and we would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r403433702-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>403433702</t>
+  </si>
+  <si>
+    <t>08/09/2016</t>
+  </si>
+  <si>
+    <t>Practical and convenient in excellent location</t>
+  </si>
+  <si>
+    <t>This hotel is perfectly located close to the main shopping area and restaurants in The Woodlands area. The rooms are fully equipped with a good kitchen and plenty of space to avoid feeling cramped. The A/C and the wi-fi worked very well. The breakfast is average but convenient (you're able to take back to your room). The staff is friendly and eager to help. Only objections: the furniture was a bit deteriorated ( drawers wouldn't shut properly and toilet flushed half-heartedly) and they should really offer a safe for valuables. Ideal for families and folks with pets. MoreShow less</t>
+  </si>
+  <si>
+    <t>angie h, Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded August 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is perfectly located close to the main shopping area and restaurants in The Woodlands area. The rooms are fully equipped with a good kitchen and plenty of space to avoid feeling cramped. The A/C and the wi-fi worked very well. The breakfast is average but convenient (you're able to take back to your room). The staff is friendly and eager to help. Only objections: the furniture was a bit deteriorated ( drawers wouldn't shut properly and toilet flushed half-heartedly) and they should really offer a safe for valuables. Ideal for families and folks with pets. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r398438506-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>398438506</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comfortable place to stay </t>
+  </si>
+  <si>
+    <t>Stayed at the hotel for a few times when I was there for work. The hotel is comfortable and staff are friendly and helpful. Room is big and loved the bed! It's at a good location as it is still within walking distance to nearby restaurants and the Woodlands mall. So if you didn't rent a car and want a reasonably priced place to stay I would recommend this place. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>angie h, Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded July 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2016</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel for a few times when I was there for work. The hotel is comfortable and staff are friendly and helpful. Room is big and loved the bed! It's at a good location as it is still within walking distance to nearby restaurants and the Woodlands mall. So if you didn't rent a car and want a reasonably priced place to stay I would recommend this place. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r387178176-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>387178176</t>
+  </si>
+  <si>
+    <t>06/28/2016</t>
+  </si>
+  <si>
+    <t>Good for long stays but misses the mark for me</t>
+  </si>
+  <si>
+    <t>This was my first stay, for business and I stayed two weeks. The hotel is about a ten minute walk from the Market Street shops, and close to the mall and freeway. The big advantage is the rooms are all studios or self-contained 2 or 3 bedroom apartments, so very useful for people who want a bit more comfort and space that a regular hotel room would provide.
+My room on level 1 had a separate bedroom and lounge room which had a kitchenette which had everyone you would need except a on over (there was a microwave). The rooms get serviced daily.
+Front staff were friendly, and as is the nature with long stays you get to know them very well. At times the front desk was unattended and you'd have wait to see someone, which was a bit annoying.
+They have theme nights on some nights of the week, where they serve nachos or other snacks, which you can fill up on, instead of eating dinner. There is also free wine and beer, although the only time I attended, they told me the wine, which was in a pitcher jug, was finished. I guess you got to get in early to get the wine :(
+PROS: Having a separate bedroom and living room is a big plus for long stays
+Parking is right outside and free
+CONS (or room for improvement)
+The hotel is old. Carpets feel old,...This was my first stay, for business and I stayed two weeks. The hotel is about a ten minute walk from the Market Street shops, and close to the mall and freeway. The big advantage is the rooms are all studios or self-contained 2 or 3 bedroom apartments, so very useful for people who want a bit more comfort and space that a regular hotel room would provide.My room on level 1 had a separate bedroom and lounge room which had a kitchenette which had everyone you would need except a on over (there was a microwave). The rooms get serviced daily.Front staff were friendly, and as is the nature with long stays you get to know them very well. At times the front desk was unattended and you'd have wait to see someone, which was a bit annoying.They have theme nights on some nights of the week, where they serve nachos or other snacks, which you can fill up on, instead of eating dinner. There is also free wine and beer, although the only time I attended, they told me the wine, which was in a pitcher jug, was finished. I guess you got to get in early to get the wine :(PROS: Having a separate bedroom and living room is a big plus for long staysParking is right outside and freeCONS (or room for improvement)The hotel is old. Carpets feel old, fittings, kitchen equipment old.Air con in the rooms is noisy. I mean SUPER noisy, like a train going past your room, wakes you up every time right through the night noisy. That's the main reason I won't returnNo restaurant. Although they serve breakfast in the mornings, there is no other food service. This was particularly one night, when we had crazy rain and the whole area was flooded. You could've drive to get food, and restaurants weren't delivering. So, a bit average, I'll be looking at other options for my next visit, but I can see why others will stay - just not for me, and the noisy aircon was the tipping point. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>angie h, General Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded June 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2016</t>
+  </si>
+  <si>
+    <t>This was my first stay, for business and I stayed two weeks. The hotel is about a ten minute walk from the Market Street shops, and close to the mall and freeway. The big advantage is the rooms are all studios or self-contained 2 or 3 bedroom apartments, so very useful for people who want a bit more comfort and space that a regular hotel room would provide.
+My room on level 1 had a separate bedroom and lounge room which had a kitchenette which had everyone you would need except a on over (there was a microwave). The rooms get serviced daily.
+Front staff were friendly, and as is the nature with long stays you get to know them very well. At times the front desk was unattended and you'd have wait to see someone, which was a bit annoying.
+They have theme nights on some nights of the week, where they serve nachos or other snacks, which you can fill up on, instead of eating dinner. There is also free wine and beer, although the only time I attended, they told me the wine, which was in a pitcher jug, was finished. I guess you got to get in early to get the wine :(
+PROS: Having a separate bedroom and living room is a big plus for long stays
+Parking is right outside and free
+CONS (or room for improvement)
+The hotel is old. Carpets feel old,...This was my first stay, for business and I stayed two weeks. The hotel is about a ten minute walk from the Market Street shops, and close to the mall and freeway. The big advantage is the rooms are all studios or self-contained 2 or 3 bedroom apartments, so very useful for people who want a bit more comfort and space that a regular hotel room would provide.My room on level 1 had a separate bedroom and lounge room which had a kitchenette which had everyone you would need except a on over (there was a microwave). The rooms get serviced daily.Front staff were friendly, and as is the nature with long stays you get to know them very well. At times the front desk was unattended and you'd have wait to see someone, which was a bit annoying.They have theme nights on some nights of the week, where they serve nachos or other snacks, which you can fill up on, instead of eating dinner. There is also free wine and beer, although the only time I attended, they told me the wine, which was in a pitcher jug, was finished. I guess you got to get in early to get the wine :(PROS: Having a separate bedroom and living room is a big plus for long staysParking is right outside and freeCONS (or room for improvement)The hotel is old. Carpets feel old, fittings, kitchen equipment old.Air con in the rooms is noisy. I mean SUPER noisy, like a train going past your room, wakes you up every time right through the night noisy. That's the main reason I won't returnNo restaurant. Although they serve breakfast in the mornings, there is no other food service. This was particularly one night, when we had crazy rain and the whole area was flooded. You could've drive to get food, and restaurants weren't delivering. So, a bit average, I'll be looking at other options for my next visit, but I can see why others will stay - just not for me, and the noisy aircon was the tipping point. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r374799115-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>374799115</t>
+  </si>
+  <si>
+    <t>05/20/2016</t>
+  </si>
+  <si>
+    <t>Nice option in the Woodlands!</t>
+  </si>
+  <si>
+    <t>This is a standard Residence Inn hotel. There is a full kitchen, good space, etc. With good quality and nice people working there. The best thing about this hotel is the location, which is close to the Woodlands mall and to the Market street. Free Wi-Fi is included. Parking lot too. And also breakfast. It's a good option to stay on The woodlands area.MoreShow less</t>
+  </si>
+  <si>
+    <t>angie h, Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded May 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2016</t>
+  </si>
+  <si>
+    <t>This is a standard Residence Inn hotel. There is a full kitchen, good space, etc. With good quality and nice people working there. The best thing about this hotel is the location, which is close to the Woodlands mall and to the Market street. Free Wi-Fi is included. Parking lot too. And also breakfast. It's a good option to stay on The woodlands area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r373147951-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>373147951</t>
+  </si>
+  <si>
+    <t>05/15/2016</t>
+  </si>
+  <si>
+    <t>Comfortable, great Staff</t>
+  </si>
+  <si>
+    <t>I was staying there as support crew for IMTX. the staff were very accommodating, friendly, able to solve problems quickly and get things done.race morning they had breakfast out for the athletes and family early (we tend to be up around 4 am). The rooms were very clean, beds were comfortable. Will plan on staying there again.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>angie h, Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded May 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2016</t>
+  </si>
+  <si>
+    <t>I was staying there as support crew for IMTX. the staff were very accommodating, friendly, able to solve problems quickly and get things done.race morning they had breakfast out for the athletes and family early (we tend to be up around 4 am). The rooms were very clean, beds were comfortable. Will plan on staying there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r338430846-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>338430846</t>
+  </si>
+  <si>
+    <t>01/08/2016</t>
+  </si>
+  <si>
+    <t>A calm place that lets you feel at home.</t>
+  </si>
+  <si>
+    <t>After years of staying at the Residence Inn Marriott in The Woodlands, my wife and I always feel like coming back home every time we come back. Simple, not fancy; small, much of a personal feeling. The two rooms suites are spacious and let you do separate things while your partner is still sleeping without bothering. The restaurant is more of a family room where you have breakfast (included) as at home. No  noise bothering you all day long.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>angie h, General Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded January 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2016</t>
+  </si>
+  <si>
+    <t>After years of staying at the Residence Inn Marriott in The Woodlands, my wife and I always feel like coming back home every time we come back. Simple, not fancy; small, much of a personal feeling. The two rooms suites are spacious and let you do separate things while your partner is still sleeping without bothering. The restaurant is more of a family room where you have breakfast (included) as at home. No  noise bothering you all day long.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r323309089-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>323309089</t>
+  </si>
+  <si>
+    <t>10/30/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel - Great Happy Hour</t>
+  </si>
+  <si>
+    <t>Always stay here when nearby for business.  Staff regularly upgrades my room.  The rooms are spacious .  Some can be in need of updates.However, the staff never fail to put on a great happy hour with hors dourves (sp?), sweets and free beer &amp; wine.  The staff have always welcomed me and have worked to ensure I have a great stay.This is my business stay choice.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r286867362-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>286867362</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>Great place to Stay</t>
+  </si>
+  <si>
+    <t>It was a nice place to stay for an overnight visit to the Woodlands. I live in Houston and did not want to drive back, so I was happy they were available and walking distance to the Pavilion. Place was clean and comfortable  MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Anne R, Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded July 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2015</t>
+  </si>
+  <si>
+    <t>It was a nice place to stay for an overnight visit to the Woodlands. I live in Houston and did not want to drive back, so I was happy they were available and walking distance to the Pavilion. Place was clean and comfortable  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r268520706-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>268520706</t>
+  </si>
+  <si>
+    <t>04/28/2015</t>
+  </si>
+  <si>
+    <t>Not for Me</t>
+  </si>
+  <si>
+    <t>Frankly, I was disappointed in this Marriott Residence Inn. Location is fine, plenty of parking, great breakfast, and afternoon bar and snacks Monday, Tuesday, Wednesday - but what I will remember is no wireless service, terrible cell reception in rooms, no long bench for my large suitcase, and having to use ottoman for small one, noisy a/c unit in bedroom, and being missed by housekeeping when returning totally exhausted at 4:45pm last afternoon. I put trash bags and towels outside door- and heard staff laugh when they came to my door after 5 pm. Very unsatisfactory, and no credit offered on premium room rate. Rooms need updating and so do towels- thin, cheap and spotted. I kept kicking a Fiji water bottle (left by previous occupant) around the dust rufflle under bed. Staff gives lip service to friendliness, but, would rather have less chatter and more concern for guest well-being (see above).  I was captive Monday night in my room overlooking courtyard to guitarist- singer and loud conversation until 11pm.  Again, entertainment and noisy guests rubbed me wrong way after long and exhausting day. Desk was called at 10:30 and music stopped, but noisy talk continued. Shhh! This was not the stay I anticipated and added to the stress of the week's work. I realize Marriott on Waterway is a different concept, but if traveling for business or leisure and do not need kitchen,  offers much better location, walking distance...Frankly, I was disappointed in this Marriott Residence Inn. Location is fine, plenty of parking, great breakfast, and afternoon bar and snacks Monday, Tuesday, Wednesday - but what I will remember is no wireless service, terrible cell reception in rooms, no long bench for my large suitcase, and having to use ottoman for small one, noisy a/c unit in bedroom, and being missed by housekeeping when returning totally exhausted at 4:45pm last afternoon. I put trash bags and towels outside door- and heard staff laugh when they came to my door after 5 pm. Very unsatisfactory, and no credit offered on premium room rate. Rooms need updating and so do towels- thin, cheap and spotted. I kept kicking a Fiji water bottle (left by previous occupant) around the dust rufflle under bed. Staff gives lip service to friendliness, but, would rather have less chatter and more concern for guest well-being (see above).  I was captive Monday night in my room overlooking courtyard to guitarist- singer and loud conversation until 11pm.  Again, entertainment and noisy guests rubbed me wrong way after long and exhausting day. Desk was called at 10:30 and music stopped, but noisy talk continued. Shhh! This was not the stay I anticipated and added to the stress of the week's work. I realize Marriott on Waterway is a different concept, but if traveling for business or leisure and do not need kitchen,  offers much better location, walking distance to restaurants and much better service and facilities.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Anne R, Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded May 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2015</t>
+  </si>
+  <si>
+    <t>Frankly, I was disappointed in this Marriott Residence Inn. Location is fine, plenty of parking, great breakfast, and afternoon bar and snacks Monday, Tuesday, Wednesday - but what I will remember is no wireless service, terrible cell reception in rooms, no long bench for my large suitcase, and having to use ottoman for small one, noisy a/c unit in bedroom, and being missed by housekeeping when returning totally exhausted at 4:45pm last afternoon. I put trash bags and towels outside door- and heard staff laugh when they came to my door after 5 pm. Very unsatisfactory, and no credit offered on premium room rate. Rooms need updating and so do towels- thin, cheap and spotted. I kept kicking a Fiji water bottle (left by previous occupant) around the dust rufflle under bed. Staff gives lip service to friendliness, but, would rather have less chatter and more concern for guest well-being (see above).  I was captive Monday night in my room overlooking courtyard to guitarist- singer and loud conversation until 11pm.  Again, entertainment and noisy guests rubbed me wrong way after long and exhausting day. Desk was called at 10:30 and music stopped, but noisy talk continued. Shhh! This was not the stay I anticipated and added to the stress of the week's work. I realize Marriott on Waterway is a different concept, but if traveling for business or leisure and do not need kitchen,  offers much better location, walking distance...Frankly, I was disappointed in this Marriott Residence Inn. Location is fine, plenty of parking, great breakfast, and afternoon bar and snacks Monday, Tuesday, Wednesday - but what I will remember is no wireless service, terrible cell reception in rooms, no long bench for my large suitcase, and having to use ottoman for small one, noisy a/c unit in bedroom, and being missed by housekeeping when returning totally exhausted at 4:45pm last afternoon. I put trash bags and towels outside door- and heard staff laugh when they came to my door after 5 pm. Very unsatisfactory, and no credit offered on premium room rate. Rooms need updating and so do towels- thin, cheap and spotted. I kept kicking a Fiji water bottle (left by previous occupant) around the dust rufflle under bed. Staff gives lip service to friendliness, but, would rather have less chatter and more concern for guest well-being (see above).  I was captive Monday night in my room overlooking courtyard to guitarist- singer and loud conversation until 11pm.  Again, entertainment and noisy guests rubbed me wrong way after long and exhausting day. Desk was called at 10:30 and music stopped, but noisy talk continued. Shhh! This was not the stay I anticipated and added to the stress of the week's work. I realize Marriott on Waterway is a different concept, but if traveling for business or leisure and do not need kitchen,  offers much better location, walking distance to restaurants and much better service and facilities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r261643316-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>261643316</t>
+  </si>
+  <si>
+    <t>03/25/2015</t>
+  </si>
+  <si>
+    <t>Location close to amenities and great staff</t>
+  </si>
+  <si>
+    <t>Spent about a month at this hotel after being transferred from Canada to Houston. We were in a pet room which allowed us to have our dog and cat with us. Even though the carpet was stained in places it wasn't smelly and they did come back in and shampoo it again on our request.The hotel is in a nice quiet location which is close to all amenities including restaurants and shopping. The Woodlands Mall and Market Street are within easy walking distance. Free hot breakfast every day is a real plus. Friendly and helpful staff go out of their way to meet your needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Anne R, Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded March 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2015</t>
+  </si>
+  <si>
+    <t>Spent about a month at this hotel after being transferred from Canada to Houston. We were in a pet room which allowed us to have our dog and cat with us. Even though the carpet was stained in places it wasn't smelly and they did come back in and shampoo it again on our request.The hotel is in a nice quiet location which is close to all amenities including restaurants and shopping. The Woodlands Mall and Market Street are within easy walking distance. Free hot breakfast every day is a real plus. Friendly and helpful staff go out of their way to meet your needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r258675827-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>258675827</t>
+  </si>
+  <si>
+    <t>03/09/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay with excellent service</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel, but what sets it apart is the staff.  I've stayed here for 5 weeks and don't plan on moving.  Nikole and Meredith are extremely attentive and have made each stay wonderful.  As a lifetime platinum member I highly recommend this site.MoreShow less</t>
+  </si>
+  <si>
+    <t>Anne R, Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded March 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2015</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel, but what sets it apart is the staff.  I've stayed here for 5 weeks and don't plan on moving.  Nikole and Meredith are extremely attentive and have made each stay wonderful.  As a lifetime platinum member I highly recommend this site.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r239917522-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>239917522</t>
+  </si>
+  <si>
+    <t>11/15/2014</t>
+  </si>
+  <si>
+    <t>Average stay</t>
+  </si>
+  <si>
+    <t>Residence Inn Six pines drive is an average when compared to other Residence Inn. Breakfast has very less option and moreover I found every day repetitive breakfast ans social evenings. Very less option available for vegetarians.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r238071224-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>238071224</t>
+  </si>
+  <si>
+    <t>11/04/2014</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>A stay that started well, ended up only average. checkin was smooth, with choice of floor for room. We had a 1 bedroom suite.  Room was nice and clean.  Things went well until AC kicked in in the middle of the night and it sounded like a freight train in the AC closet which is in the bedroom. We had an early breakfast the first morning (included) and it was not bad for free hotel meal. We enjoyed the clean but small indoor pool and hot tub, although a couple jets were not working. On the second morning breakfast did not go as well, as we came down a bit later.  Food was cold, dried up and running out and not restocked. No place to sit. We did partake of the tennis court, which is only about 3/4 of normal size, but kids had fun hitting the ball for a bit. Overall, just average, nothing special, nothing to horrible.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>A stay that started well, ended up only average. checkin was smooth, with choice of floor for room. We had a 1 bedroom suite.  Room was nice and clean.  Things went well until AC kicked in in the middle of the night and it sounded like a freight train in the AC closet which is in the bedroom. We had an early breakfast the first morning (included) and it was not bad for free hotel meal. We enjoyed the clean but small indoor pool and hot tub, although a couple jets were not working. On the second morning breakfast did not go as well, as we came down a bit later.  Food was cold, dried up and running out and not restocked. No place to sit. We did partake of the tennis court, which is only about 3/4 of normal size, but kids had fun hitting the ball for a bit. Overall, just average, nothing special, nothing to horrible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r220845050-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>220845050</t>
+  </si>
+  <si>
+    <t>08/10/2014</t>
+  </si>
+  <si>
+    <t>Nice place to relax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a nice hotel.  Close to the market street area which is a great place to shop and dine.  The hotel is clean and the beds are ok. They serve free breakfast which is pretty decent.  The staff is very friendly and helpful.  The price is very affordable.  I would stay here again.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r199114482-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>199114482</t>
+  </si>
+  <si>
+    <t>03/29/2014</t>
+  </si>
+  <si>
+    <t>OK for a short stay</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel a number of times for business. For a few days this is fine, the rooms are spacious and well equipped but nothing special. The reception area is fine but with only a fairly small area for eating given the size of the hotel. Wi-Fi access is good and there is a generous car park at the front of the grounds. The hotel is within a short walk to the Woodland Mall which is handy.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>travel1014, General Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded April 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2014</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel a number of times for business. For a few days this is fine, the rooms are spacious and well equipped but nothing special. The reception area is fine but with only a fairly small area for eating given the size of the hotel. Wi-Fi access is good and there is a generous car park at the front of the grounds. The hotel is within a short walk to the Woodland Mall which is handy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r194648645-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>194648645</t>
+  </si>
+  <si>
+    <t>02/19/2014</t>
+  </si>
+  <si>
+    <t>I won't repeat</t>
+  </si>
+  <si>
+    <t>It si too expensive for the quality. The rooms are ok, but they are really noisy. I could sleep well in 5 nights. The breakfast is small, really insufficient. It is ever the same and very poor. The staff are quite nice. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>travel1014, General Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded February 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2014</t>
+  </si>
+  <si>
+    <t>It si too expensive for the quality. The rooms are ok, but they are really noisy. I could sleep well in 5 nights. The breakfast is small, really insufficient. It is ever the same and very poor. The staff are quite nice. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r193975425-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>193975425</t>
+  </si>
+  <si>
+    <t>02/13/2014</t>
+  </si>
+  <si>
+    <t>Big Rooms, Good Value, Close to Attractions</t>
+  </si>
+  <si>
+    <t>I stayed here in January 2014, in town for a wedding. While the wedding group stayed at a larger hotel, I was traveling alone and was seeking something more economical and this property exceeded my expectations. The rooms were large, resembling more of a compact apartment studio with an eat-in kitchen, living area and bed and bath with enough space for all. The beds were comfortable. The staff was very friendly and receptive to my questions. Breakfast was complimentary and was good, offering enough variety for most people to feel satisfied including hot and cold food. The center of town where the mall, bars and restaurants are,  is about a 10-15 walk and was safe and easy passing fast food franchises along the way. If driving, there was plenty of parking and easy access to the main roads and highways. I recommend for anyone staying long-term.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>I stayed here in January 2014, in town for a wedding. While the wedding group stayed at a larger hotel, I was traveling alone and was seeking something more economical and this property exceeded my expectations. The rooms were large, resembling more of a compact apartment studio with an eat-in kitchen, living area and bed and bath with enough space for all. The beds were comfortable. The staff was very friendly and receptive to my questions. Breakfast was complimentary and was good, offering enough variety for most people to feel satisfied including hot and cold food. The center of town where the mall, bars and restaurants are,  is about a 10-15 walk and was safe and easy passing fast food franchises along the way. If driving, there was plenty of parking and easy access to the main roads and highways. I recommend for anyone staying long-term.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r192588313-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>192588313</t>
+  </si>
+  <si>
+    <t>01/30/2014</t>
+  </si>
+  <si>
+    <t>Weekend getaway</t>
+  </si>
+  <si>
+    <t>Very convenient to all of the attractions in the Woodlands Market Street and The Woodlands mall, very spacious and clean, well kept property, full breakfast included with room rate. Would stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r187744602-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>187744602</t>
+  </si>
+  <si>
+    <t>12/15/2013</t>
+  </si>
+  <si>
+    <t>Thin walls and terrible internet!</t>
+  </si>
+  <si>
+    <t>We were up all night because somebody in the next room was snoring.  I thought maybe they were just a good snorer until I called the room and could also hear the phone like it was in our closet.  Bring your earplugs.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r185664218-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>185664218</t>
+  </si>
+  <si>
+    <t>11/24/2013</t>
+  </si>
+  <si>
+    <t>Good Weekend Choice</t>
+  </si>
+  <si>
+    <t>We spent two nights here to avoid having to drive home late both nights.  Breakfast and facility is good. The only complaint is that the wifi is very suspect.  Definitely could be better!  The second year for us to do this...next year may look for better alternative.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r170700274-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>170700274</t>
+  </si>
+  <si>
+    <t>08/04/2013</t>
+  </si>
+  <si>
+    <t>Dirty and worn down</t>
+  </si>
+  <si>
+    <t>I would avoid this property.  We have stayed there several times, but housekeeping has basically gone downhill.  We found food stuck on the chair that was not cleaned over the two days.  I will try and post a picture of the French fries stuck between the mattress making me think the sheets were not clean when we arrived.  A hair was on the sheets when we checked in.  The bed skirt was torn in the master bedroom.  The hair dryer did not work.  Even though I tipped the maid, the maid left the blanket laying on the floor and trash can out in the bathroom.  We paid over $240 a night.  I complained when we checked out and management did not email or call.  We moved to the Hyatt for our last two nights.  Well worth the extra money.  it was a MUCH better property (clean and excellent customer service).  I will never stay here again and we are Marriott gold members who stay in hotels more than 50 days a year.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>I would avoid this property.  We have stayed there several times, but housekeeping has basically gone downhill.  We found food stuck on the chair that was not cleaned over the two days.  I will try and post a picture of the French fries stuck between the mattress making me think the sheets were not clean when we arrived.  A hair was on the sheets when we checked in.  The bed skirt was torn in the master bedroom.  The hair dryer did not work.  Even though I tipped the maid, the maid left the blanket laying on the floor and trash can out in the bathroom.  We paid over $240 a night.  I complained when we checked out and management did not email or call.  We moved to the Hyatt for our last two nights.  Well worth the extra money.  it was a MUCH better property (clean and excellent customer service).  I will never stay here again and we are Marriott gold members who stay in hotels more than 50 days a year.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r168883738-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>168883738</t>
+  </si>
+  <si>
+    <t>07/24/2013</t>
+  </si>
+  <si>
+    <t>Watch your Credit Card closely</t>
+  </si>
+  <si>
+    <t>Loved the room, the breakfast, and the dinner.  However, I was overcharged by $108, and the hotel would not refund the over payment.  If you stay here, watch your Credit Card bill very closely.  I will not stay there again.  I hope they enjoy the  $108.68 overpayment!</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r167538438-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>167538438</t>
+  </si>
+  <si>
+    <t>07/14/2013</t>
+  </si>
+  <si>
+    <t>Nice quiet place</t>
+  </si>
+  <si>
+    <t>Nice room, clean, close to everything and the price was good! Free breakfast was pretty good. Friendly staff and plenty of parking. We stayed here instead of the woodlands resort and took a cab there and back. Great time!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r166753930-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>166753930</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>Managers unresponsive and don't keep their word</t>
+  </si>
+  <si>
+    <t>I was rudely awakened in my room 5/21/2013 1:50AM by the smoke detectors going off.  Night clerk came down and tried to knock it off the ceiling to "replace the battery." Had to move rooms with no help with my bags.  Asked to speak with manager.  Didn't receive call from manager.  Had to ask twice and finally spoke with manager who promised me Marriott points to cover my 3-night stay to post to my account in 2-3 days.  Today is 7/8/2013 and that promise has not been fulfilled.  Escalated all the way to the CEO desk at Marriott and the answer was NO.  I am abandoning Marriott and taking my loyalty elsewhere after over 15 years due to lack of service unless resolved.  Contested charge and filed BBB complaint.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>I was rudely awakened in my room 5/21/2013 1:50AM by the smoke detectors going off.  Night clerk came down and tried to knock it off the ceiling to "replace the battery." Had to move rooms with no help with my bags.  Asked to speak with manager.  Didn't receive call from manager.  Had to ask twice and finally spoke with manager who promised me Marriott points to cover my 3-night stay to post to my account in 2-3 days.  Today is 7/8/2013 and that promise has not been fulfilled.  Escalated all the way to the CEO desk at Marriott and the answer was NO.  I am abandoning Marriott and taking my loyalty elsewhere after over 15 years due to lack of service unless resolved.  Contested charge and filed BBB complaint.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r166376176-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>166376176</t>
+  </si>
+  <si>
+    <t>07/05/2013</t>
+  </si>
+  <si>
+    <t>Residence Inn - Good hotel</t>
+  </si>
+  <si>
+    <t>One of the good hotels at a prime location, just close to malls and other aminities. You can have your food prepared in the room within the hotel. All the cutlleries, utensils are provided within the room. Rooms are pretty big. TV size is OK. No. of channels are limited, but OK.Gym and swimming pool are added aminities within the hotel. Ample amount of open parking for personal vehicles. All rooms are smoke free.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r164841480-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>164841480</t>
+  </si>
+  <si>
+    <t>06/22/2013</t>
+  </si>
+  <si>
+    <t>sauna in the summer, anyone? Inadequate air-conditioning in mid-June - don't want to be here in the Summer!</t>
+  </si>
+  <si>
+    <t>I'm here June 22, and even after the room air-conditioning being on all night, it did not cool down enough to need a blanket. the thermostat stated do not turn below 70 degrees, otherwise it will not work.the hallways, restaurant and reception were hot.the gym was extremely hot - i asked them to turn it up, "Unfortunately sir, that's preset, and we cannot change it."absolutely ridiculous - i'm not even someone who runs overly hot and needs my room at 68degrees - usually 72degrees is plenty, but the room just about got to it after 3 hours, and the halls and gym stayed over 75 degrees - sauna in the summer, anyone?MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>I'm here June 22, and even after the room air-conditioning being on all night, it did not cool down enough to need a blanket. the thermostat stated do not turn below 70 degrees, otherwise it will not work.the hallways, restaurant and reception were hot.the gym was extremely hot - i asked them to turn it up, "Unfortunately sir, that's preset, and we cannot change it."absolutely ridiculous - i'm not even someone who runs overly hot and needs my room at 68degrees - usually 72degrees is plenty, but the room just about got to it after 3 hours, and the halls and gym stayed over 75 degrees - sauna in the summer, anyone?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r163317318-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>163317318</t>
+  </si>
+  <si>
+    <t>06/07/2013</t>
+  </si>
+  <si>
+    <t>Horrible Customer Service</t>
+  </si>
+  <si>
+    <t>I booked a room and had a confirmation number.  I received an email in the afternoon that I was to check in that they did not have a room for me.  This was like a scene from Seinfeld.  I don't think Marriott, or this Residence Inn, understands what a reservation is.  Once it is made, and confirmed, IT MUST BE HONORED!!!!I've been a Marriott member for 20 + years.  I have paid thousands of dollars.  I am the customer, they are the vendor.  I don't care how often they get it right.  That's what we pay for!!!Don't trust this Residence Inn.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r163113875-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>163113875</t>
+  </si>
+  <si>
+    <t>06/05/2013</t>
+  </si>
+  <si>
+    <t>Perfect location for business in The Wodlands</t>
+  </si>
+  <si>
+    <t>Stayed here for business the week of June 3.  No complaints at all.  Clean room.  Helpful staff. Good food with free breakfast and dinner.  Close to great shops, restaurants and bars.  Nice walking trails.  Did not use the indoor pool but it looked inviting.  Will go back in 2 weeks and look forward to a return visit</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r160965301-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>160965301</t>
+  </si>
+  <si>
+    <t>05/17/2013</t>
+  </si>
+  <si>
+    <t>Residence Inn market street - nice hotel</t>
+  </si>
+  <si>
+    <t>I just stayed in this hotel last week on business - moved to it after my company screwed up and booked me in La Quinta nearby (avoid like the plague).I had a twin room - 2 bedrooms, kitchen, lounge area, all to myself - most of which i didnt get round to using.bed was extremely comfortable - shower was good, room was nice and quiet despite being on ground floor.breakfast was ok - i typically don't partake, but selection was good and varied each day - no complaints.staff were friendly and helpful during entire stayi totally recommend this hotel if you are in the Woodlands area</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r154541779-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>154541779</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>Here is a chain that has kept its standards high</t>
+  </si>
+  <si>
+    <t>I first stayed in a Residence Inn when I was stuck in one city for a month. The home touches like fireplace in the room, with a full kitchen and don't forget popcorn, make it bearable to be away for long periods of time.The bet part is the beer and wine dinner/snack session they hold at night, not the greatest but usually a good way to unwind from the day before thinking about a restaurant.This trip I had them shop and fill the fridge for us with snacks, drinks etc., so when got in late from the airport we did not have to go anywhere!</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r153849592-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>153849592</t>
+  </si>
+  <si>
+    <t>03/06/2013</t>
+  </si>
+  <si>
+    <t>Excellent customer care</t>
+  </si>
+  <si>
+    <t>We live in Florida and was spending time with our sons. We decided to take a weekend getaway to the Woodlands. I called to find out if we could check in before our tee time which was at 12:30. Lorecia, the clerk on hand told me there were no rooms available at this time. She apologizes I told her it wasn't a big deal and we would check in  after golf. She said she would make it up to us. We arrived around 5 and we were checked in right away she remembered me as the golf lady. She asked how our golf game went and then gave us our keys. Our room was excellent, it even had a fireplace. Everything was perfect. She told us were to eat and she was right the place had great food., walking distance from the hotel. I would definitely stay there again. I just hope I got her name right!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>We live in Florida and was spending time with our sons. We decided to take a weekend getaway to the Woodlands. I called to find out if we could check in before our tee time which was at 12:30. Lorecia, the clerk on hand told me there were no rooms available at this time. She apologizes I told her it wasn't a big deal and we would check in  after golf. She said she would make it up to us. We arrived around 5 and we were checked in right away she remembered me as the golf lady. She asked how our golf game went and then gave us our keys. Our room was excellent, it even had a fireplace. Everything was perfect. She told us were to eat and she was right the place had great food., walking distance from the hotel. I would definitely stay there again. I just hope I got her name right!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r149195734-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>149195734</t>
+  </si>
+  <si>
+    <t>01/08/2013</t>
+  </si>
+  <si>
+    <t>Excellent hotel</t>
+  </si>
+  <si>
+    <t>We stayed at this property for 5 nights at the beginning of January.  We had a 2 bedroom suite which was perfect for our family of 5.  Plenty of space and very clean.  All the staff were very friendly and helpful.  Breakfast was included and there was plenty to choose from.  They served complimentary dinner a couple of evenings which we enjoyed.  Location great for the market street and all the mall.  We would definitely choose to stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r144699380-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>144699380</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Excellent and friendly staff.</t>
+  </si>
+  <si>
+    <t>Great location, but better than that is the excellent and friendly staff.  Hotel stays are great, but long term is another story.  This facilty, was quite different.  Just ask for Marvin or this other very young man, (sorry can't remember his name), but he looks about 15 years old; they both ROCK.  My wife and I, plus our small dog lived here for two months.  Anything you might need, just ask.  They were very quick to notify us when we had any mail delivered to us while we waited on closing on our new home.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r142064977-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>142064977</t>
+  </si>
+  <si>
+    <t>10/05/2012</t>
+  </si>
+  <si>
+    <t>The staff rocks!</t>
+  </si>
+  <si>
+    <t>Kudos especially to Jackie! She is welcoming, kind and definitely a bright spot at the front desk. The hotel is clean, professional and very courteous. I had an excellent stay and will always recommend this property. They accommodate your every need. Thanks again</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r137798221-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>137798221</t>
+  </si>
+  <si>
+    <t>08/20/2012</t>
+  </si>
+  <si>
+    <t>Great hotel near concert venue</t>
+  </si>
+  <si>
+    <t>We stayed here for the Iron Maiden concert August 17 and 18, 2012.  The hotel is within walking distance to the mall and market street which is adjacent to the Pavillion venue.  They provide guests with hot breakfast that had everything from waffles to cereal to scramble eggs and bacon.  The rooms were nice and clean, flat screen tvs and fully equipped kitchen.  Self parking was convenient.  There are plenty of within walking distance restaurants and it is very secure to walk around even in the evening.  I will come back here when I return to the woodlands.  Oh!! and they are pet friendly which is a PLUS++++</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r134103958-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>134103958</t>
+  </si>
+  <si>
+    <t>07/11/2012</t>
+  </si>
+  <si>
+    <t>Nice, comfy, affordable place!!</t>
+  </si>
+  <si>
+    <t>I stayed here while in town during a concert at the Cynthia Woods Mitchell Pavillion in June.  It IS within walking distance, however I did not walk it so I have no opinion there.  The place is clean, the beds are comfy, the rooms are roomy and the staff is friendly.  PLUS, it is far more affordable than the ridiculous (IMHO) prices of other hotels in the area.  I would hands down stay here again, and I would recommend it to everyone!</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r130919024-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>130919024</t>
+  </si>
+  <si>
+    <t>05/29/2012</t>
+  </si>
+  <si>
+    <t>Amazing stay</t>
+  </si>
+  <si>
+    <t>One of the best hotels I have ever stayed in! The bed was firm enough to give my husband and me a wonderful night's rest, the bedding was light instead of having a large, heavy duvet that makes you sweat at night, and the amenities go beyond what is expected. I didn't stay long enough to take advantage of all they have to offer, but I did notice that if you make a grocery list, they will get your items for you. The staff treated us like family the moment we arrived, and I was extremely impressed when they gave my 18-month-old son a book that was age appropriate for him. I would highly recommend this hotel to anyone staying in The Woodlands' area, and hope that my family will have the fortune of staying there again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>One of the best hotels I have ever stayed in! The bed was firm enough to give my husband and me a wonderful night's rest, the bedding was light instead of having a large, heavy duvet that makes you sweat at night, and the amenities go beyond what is expected. I didn't stay long enough to take advantage of all they have to offer, but I did notice that if you make a grocery list, they will get your items for you. The staff treated us like family the moment we arrived, and I was extremely impressed when they gave my 18-month-old son a book that was age appropriate for him. I would highly recommend this hotel to anyone staying in The Woodlands' area, and hope that my family will have the fortune of staying there again in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r130864311-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>130864311</t>
+  </si>
+  <si>
+    <t>Great Place to Stay!!!!</t>
+  </si>
+  <si>
+    <t>My Husband and I recently stayed here during the Memorial Day Weekend. The service was great; the room was clean and comfy. I really enjoyed the personal touch. The nice ladies at the front desk brought us a few snacks with a bottle of wine to help celebrate our honeymoon. I would stay here again when I’m in the woodlands. It’s like a home away from home. Oh Yeah….the breakfast was pretty nice.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r122933141-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>122933141</t>
+  </si>
+  <si>
+    <t>01/11/2012</t>
+  </si>
+  <si>
+    <t>Great location away from highway but convenient 2 shopping</t>
+  </si>
+  <si>
+    <t>Stayed for a few nights with 5 person family. Very comfortable, free breakfast, quiet, indoor pool, very friendly and helpful service.  Bed was not quite up to Marriott standard, but this is a residence inn, so no complaints. We plan to stay again for several nights soon.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r119109009-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>119109009</t>
+  </si>
+  <si>
+    <t>10/09/2011</t>
+  </si>
+  <si>
+    <t>Friendly employees giving excellent service</t>
+  </si>
+  <si>
+    <t>A group of ladies stayed here for a shopping weekend.  We were able to check in early and begin shopping.  Every employee we encountered was friendly with a smile and eager to please.  The room was beautiful and comfortable with all the amenities of home.  The free breakfast was everything from fruit, yogurt, cereals, waffles, sausage, eggs, potatoes, muffins, bagels, juices and much more.  You can sit inside in the lovely dining room or outside around the fire ring.  Yes, you could easily stay here for weeks on end and feel right at home.  Beautiful inside pool and tennis courts also,</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r118076120-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>118076120</t>
+  </si>
+  <si>
+    <t>09/13/2011</t>
+  </si>
+  <si>
+    <t>Great Service, Comfortable Stay</t>
+  </si>
+  <si>
+    <t>We stayed for 2 nights with our two small children ages 5 &amp; 7.  Located in the The Woodlands, our 2 bedroom was clean with comfortable Marriot type beds and lots of pillows.   The whole hotel feels and smells new.  Our room's windows faced the forest, but others could face the parking lot. The kids loved the indoor pool, 3-4 feet deep, clean and not eye stinging whatsoever, just the right temp., cool not cold, especially with 100+degrees outdoors( what's going on with TX lately, statewide drought, fires, extended heatwaves?).   Small exercise room with dumbells, treadmill, bike, elliptical, TV's.
+The customer service is tops.   I can't remember a better group.  I watched the front desk staff, and they were extremely helpful and friendly to us and to others.  The housekeeping staff the same.
+Nice breakfast includes cereal, fruit, eggs, sausage, different types of potatoes, juice and coffee.
+Located on Six Pines, you can, if you want and can stand the heat, walk a couple, long blocks to the Waterway Park or the Marriott; there are restaurants a block away and many, many in the Woodlands in general.  Go to Market Street; we ate at Tommy Bahama's; the Mall- kid's carousel,  take a water taxi, splash at the aquatic park, see a show at the Pavillions- Santana was there when we were, free concerts at the park, the hotel also lists several suggestions for dining or entertainment.  Everything's close to IAH(Bush...We stayed for 2 nights with our two small children ages 5 &amp; 7.  Located in the The Woodlands, our 2 bedroom was clean with comfortable Marriot type beds and lots of pillows.   The whole hotel feels and smells new.  Our room's windows faced the forest, but others could face the parking lot. The kids loved the indoor pool, 3-4 feet deep, clean and not eye stinging whatsoever, just the right temp., cool not cold, especially with 100+degrees outdoors( what's going on with TX lately, statewide drought, fires, extended heatwaves?).   Small exercise room with dumbells, treadmill, bike, elliptical, TV's.The customer service is tops.   I can't remember a better group.  I watched the front desk staff, and they were extremely helpful and friendly to us and to others.  The housekeeping staff the same.Nice breakfast includes cereal, fruit, eggs, sausage, different types of potatoes, juice and coffee.Located on Six Pines, you can, if you want and can stand the heat, walk a couple, long blocks to the Waterway Park or the Marriott; there are restaurants a block away and many, many in the Woodlands in general.  Go to Market Street; we ate at Tommy Bahama's; the Mall- kid's carousel,  take a water taxi, splash at the aquatic park, see a show at the Pavillions- Santana was there when we were, free concerts at the park, the hotel also lists several suggestions for dining or entertainment.  Everything's close to IAH(Bush airport about 20-25 minutes, we take the Hardy Toll road).MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed for 2 nights with our two small children ages 5 &amp; 7.  Located in the The Woodlands, our 2 bedroom was clean with comfortable Marriot type beds and lots of pillows.   The whole hotel feels and smells new.  Our room's windows faced the forest, but others could face the parking lot. The kids loved the indoor pool, 3-4 feet deep, clean and not eye stinging whatsoever, just the right temp., cool not cold, especially with 100+degrees outdoors( what's going on with TX lately, statewide drought, fires, extended heatwaves?).   Small exercise room with dumbells, treadmill, bike, elliptical, TV's.
+The customer service is tops.   I can't remember a better group.  I watched the front desk staff, and they were extremely helpful and friendly to us and to others.  The housekeeping staff the same.
+Nice breakfast includes cereal, fruit, eggs, sausage, different types of potatoes, juice and coffee.
+Located on Six Pines, you can, if you want and can stand the heat, walk a couple, long blocks to the Waterway Park or the Marriott; there are restaurants a block away and many, many in the Woodlands in general.  Go to Market Street; we ate at Tommy Bahama's; the Mall- kid's carousel,  take a water taxi, splash at the aquatic park, see a show at the Pavillions- Santana was there when we were, free concerts at the park, the hotel also lists several suggestions for dining or entertainment.  Everything's close to IAH(Bush...We stayed for 2 nights with our two small children ages 5 &amp; 7.  Located in the The Woodlands, our 2 bedroom was clean with comfortable Marriot type beds and lots of pillows.   The whole hotel feels and smells new.  Our room's windows faced the forest, but others could face the parking lot. The kids loved the indoor pool, 3-4 feet deep, clean and not eye stinging whatsoever, just the right temp., cool not cold, especially with 100+degrees outdoors( what's going on with TX lately, statewide drought, fires, extended heatwaves?).   Small exercise room with dumbells, treadmill, bike, elliptical, TV's.The customer service is tops.   I can't remember a better group.  I watched the front desk staff, and they were extremely helpful and friendly to us and to others.  The housekeeping staff the same.Nice breakfast includes cereal, fruit, eggs, sausage, different types of potatoes, juice and coffee.Located on Six Pines, you can, if you want and can stand the heat, walk a couple, long blocks to the Waterway Park or the Marriott; there are restaurants a block away and many, many in the Woodlands in general.  Go to Market Street; we ate at Tommy Bahama's; the Mall- kid's carousel,  take a water taxi, splash at the aquatic park, see a show at the Pavillions- Santana was there when we were, free concerts at the park, the hotel also lists several suggestions for dining or entertainment.  Everything's close to IAH(Bush airport about 20-25 minutes, we take the Hardy Toll road).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r116479412-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>116479412</t>
+  </si>
+  <si>
+    <t>08/09/2011</t>
+  </si>
+  <si>
+    <t>Had a BLAST !!!</t>
+  </si>
+  <si>
+    <t>I'd planned a special weekend for my niece for her recent accomplishments, i.e. special birthday, superior grades, awards received, etc.  When booking the reservation I just mentioned the purpose of the stay and the staff was apparently paying attention..... when we arrived my niece was blown away by all the goodies in the suite - not the least of which was a fresh fruit arrangement complete with balloons rising out of the refrigerator.  She thought the chocolate covered strawberries were the coolest thing ever !!!  Everywhere she looked there was another goody bag with games, candy, gum, puzzles, even a Residence Inn insulated mug (for her Aunt....)!  It's this kind of attention to detail and customized customer service that will make me come back again and again.......and certainly refer my friends, family and business associates.  GREAT JOB and THANKS for making what could have been just a fun weekend, a BLAST for my niece (and us as well !!!)....... signed...your biggest fan !!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>I'd planned a special weekend for my niece for her recent accomplishments, i.e. special birthday, superior grades, awards received, etc.  When booking the reservation I just mentioned the purpose of the stay and the staff was apparently paying attention..... when we arrived my niece was blown away by all the goodies in the suite - not the least of which was a fresh fruit arrangement complete with balloons rising out of the refrigerator.  She thought the chocolate covered strawberries were the coolest thing ever !!!  Everywhere she looked there was another goody bag with games, candy, gum, puzzles, even a Residence Inn insulated mug (for her Aunt....)!  It's this kind of attention to detail and customized customer service that will make me come back again and again.......and certainly refer my friends, family and business associates.  GREAT JOB and THANKS for making what could have been just a fun weekend, a BLAST for my niece (and us as well !!!)....... signed...your biggest fan !!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r114912229-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>114912229</t>
+  </si>
+  <si>
+    <t>06/30/2011</t>
+  </si>
+  <si>
+    <t>I loved staying at the Residence Inn at Woodlands on Six Pines</t>
+  </si>
+  <si>
+    <t>Staying at the Residence Inn on Six Pines is always an enjoyable experience for me.  I especially want to mention Marie the house keeper who gave me some extra goodies from the kitchen when I arrived too late to eat. The rooms are spotless and the staff were warm and friendly.  It truly feels like a home away from home</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r78860415-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>78860415</t>
+  </si>
+  <si>
+    <t>09/08/2010</t>
+  </si>
+  <si>
+    <t>Excellent location, Great value, Fantastic People!</t>
+  </si>
+  <si>
+    <t>I chose this hotel for the location (heart of The Woodlands activity: walk to malls, restaurants, Cynthia Woods Pavilion, etc.) and its amenities (full breakfast, indoor pool, wireless internet, etc.) - but I stayed for the people! Larisa (manager) knows how to select people and bring them along - some of the sharpest young men and women that I have ever met - and they treat me like I am family! I've watched at least three of her hand-picked employees "grow up" into managing hotels of their own. Sad to see them go, but thrilled to see them recognized!Great value, especially for this location - but it is the employees that make it extra special.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>I chose this hotel for the location (heart of The Woodlands activity: walk to malls, restaurants, Cynthia Woods Pavilion, etc.) and its amenities (full breakfast, indoor pool, wireless internet, etc.) - but I stayed for the people! Larisa (manager) knows how to select people and bring them along - some of the sharpest young men and women that I have ever met - and they treat me like I am family! I've watched at least three of her hand-picked employees "grow up" into managing hotels of their own. Sad to see them go, but thrilled to see them recognized!Great value, especially for this location - but it is the employees that make it extra special.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r73897967-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>73897967</t>
+  </si>
+  <si>
+    <t>08/05/2010</t>
+  </si>
+  <si>
+    <t>A very mixed bag</t>
+  </si>
+  <si>
+    <t>I must start off with the positive. We stayed there for three days while moving from one house to the other in the Woodlands. My wife left our jewelry box in the room's closet when we checked out and Mercedes (a member of the housekeeping staff) immediately returned it to front desk intact. Needless to say, we were relieved and thrilled that there are still honest, hard-working people in the world.
+However, when my wife went to the hotel to retrieve said box she had to wait over an hour because there was no manager on staff (the one on duty at the time decided to call in to say she would be late). The other two managers had allegedly called in sick the same day. Surely there is something wrong with this picture. 
+The biggest reason why I cannot recommend this hotel is the noise from the A/C unit. It is, in a word, unbearable. It is located in a closet of the bedroom part of the suite and in addition to the typical compressor noise, there is a vibration/humming that drove us batty. When we mentioned it to management, they simply said, "Yes, some people have a problem with that." I am stunned that I did not see this mentioned in any other TripAdvisor reviews.
+This is also a Cat 3 Marriott property (requiring 15,000 pts per night). The Towneplace Suites up the road in Shenandoah is only...I must start off with the positive. We stayed there for three days while moving from one house to the other in the Woodlands. My wife left our jewelry box in the room's closet when we checked out and Mercedes (a member of the housekeeping staff) immediately returned it to front desk intact. Needless to say, we were relieved and thrilled that there are still honest, hard-working people in the world.However, when my wife went to the hotel to retrieve said box she had to wait over an hour because there was no manager on staff (the one on duty at the time decided to call in to say she would be late). The other two managers had allegedly called in sick the same day. Surely there is something wrong with this picture. The biggest reason why I cannot recommend this hotel is the noise from the A/C unit. It is, in a word, unbearable. It is located in a closet of the bedroom part of the suite and in addition to the typical compressor noise, there is a vibration/humming that drove us batty. When we mentioned it to management, they simply said, "Yes, some people have a problem with that." I am stunned that I did not see this mentioned in any other TripAdvisor reviews.This is also a Cat 3 Marriott property (requiring 15,000 pts per night). The Towneplace Suites up the road in Shenandoah is only Cat 1 (requiring only 7500 pts) and gets rave reviews. Go figure.MoreShow less</t>
+  </si>
+  <si>
+    <t>ResidenceInn56764, Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded August 18, 2010</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2010</t>
+  </si>
+  <si>
+    <t>I must start off with the positive. We stayed there for three days while moving from one house to the other in the Woodlands. My wife left our jewelry box in the room's closet when we checked out and Mercedes (a member of the housekeeping staff) immediately returned it to front desk intact. Needless to say, we were relieved and thrilled that there are still honest, hard-working people in the world.
+However, when my wife went to the hotel to retrieve said box she had to wait over an hour because there was no manager on staff (the one on duty at the time decided to call in to say she would be late). The other two managers had allegedly called in sick the same day. Surely there is something wrong with this picture. 
+The biggest reason why I cannot recommend this hotel is the noise from the A/C unit. It is, in a word, unbearable. It is located in a closet of the bedroom part of the suite and in addition to the typical compressor noise, there is a vibration/humming that drove us batty. When we mentioned it to management, they simply said, "Yes, some people have a problem with that." I am stunned that I did not see this mentioned in any other TripAdvisor reviews.
+This is also a Cat 3 Marriott property (requiring 15,000 pts per night). The Towneplace Suites up the road in Shenandoah is only...I must start off with the positive. We stayed there for three days while moving from one house to the other in the Woodlands. My wife left our jewelry box in the room's closet when we checked out and Mercedes (a member of the housekeeping staff) immediately returned it to front desk intact. Needless to say, we were relieved and thrilled that there are still honest, hard-working people in the world.However, when my wife went to the hotel to retrieve said box she had to wait over an hour because there was no manager on staff (the one on duty at the time decided to call in to say she would be late). The other two managers had allegedly called in sick the same day. Surely there is something wrong with this picture. The biggest reason why I cannot recommend this hotel is the noise from the A/C unit. It is, in a word, unbearable. It is located in a closet of the bedroom part of the suite and in addition to the typical compressor noise, there is a vibration/humming that drove us batty. When we mentioned it to management, they simply said, "Yes, some people have a problem with that." I am stunned that I did not see this mentioned in any other TripAdvisor reviews.This is also a Cat 3 Marriott property (requiring 15,000 pts per night). The Towneplace Suites up the road in Shenandoah is only Cat 1 (requiring only 7500 pts) and gets rave reviews. Go figure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r49847743-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>49847743</t>
+  </si>
+  <si>
+    <t>11/22/2009</t>
+  </si>
+  <si>
+    <t>Great location, great staff, but a couple of big faults</t>
+  </si>
+  <si>
+    <t>I stayed in the Residence Inn - Market Street for a long weekend visiting friends. Note that there are two Residence Inn The Woodlands, this is the one closest to Market Street, Downtown, and the Mall. You are actually only a very short walk from these places, although the dense woods really isolates the noise and makes you feel like you are in the middle of the woods. Parking is plentiful.
+The staff were great - very helpful, very friendly. The rooms themselves are good size, they have kitchenettes so you can go to Hubble and Hubbard and bring back some goodies to try. However, the bed was low and uncomfortable, it was rather hard and thin. There is a sign on the A/C not to turn it below 70, which is uncomfortably warm for sleeping - the air circulation is rather poor, and the room gets stuffy. They were missing things like luggage stands, and there is no open place to put your suitcase, so you are forever lifting it off and onto the bed. And the wall insulation is not too thick, so it does get a little noisy. Breakfast was fair, but the fact that you have a kitchenette makes this a moot point.
+All in all it would have gotten a higher rating if they did something about the beds and AC, but these are two big of an issue to be overlooked. The hotel is...I stayed in the Residence Inn - Market Street for a long weekend visiting friends. Note that there are two Residence Inn The Woodlands, this is the one closest to Market Street, Downtown, and the Mall. You are actually only a very short walk from these places, although the dense woods really isolates the noise and makes you feel like you are in the middle of the woods. Parking is plentiful.The staff were great - very helpful, very friendly. The rooms themselves are good size, they have kitchenettes so you can go to Hubble and Hubbard and bring back some goodies to try. However, the bed was low and uncomfortable, it was rather hard and thin. There is a sign on the A/C not to turn it below 70, which is uncomfortably warm for sleeping - the air circulation is rather poor, and the room gets stuffy. They were missing things like luggage stands, and there is no open place to put your suitcase, so you are forever lifting it off and onto the bed. And the wall insulation is not too thick, so it does get a little noisy. Breakfast was fair, but the fact that you have a kitchenette makes this a moot point.All in all it would have gotten a higher rating if they did something about the beds and AC, but these are two big of an issue to be overlooked. The hotel is right next door to the Hilton Garden Inn, which I have also stayed at. Unless you need the kitchenette, I would go with the Garden Inn instead.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>I stayed in the Residence Inn - Market Street for a long weekend visiting friends. Note that there are two Residence Inn The Woodlands, this is the one closest to Market Street, Downtown, and the Mall. You are actually only a very short walk from these places, although the dense woods really isolates the noise and makes you feel like you are in the middle of the woods. Parking is plentiful.
+The staff were great - very helpful, very friendly. The rooms themselves are good size, they have kitchenettes so you can go to Hubble and Hubbard and bring back some goodies to try. However, the bed was low and uncomfortable, it was rather hard and thin. There is a sign on the A/C not to turn it below 70, which is uncomfortably warm for sleeping - the air circulation is rather poor, and the room gets stuffy. They were missing things like luggage stands, and there is no open place to put your suitcase, so you are forever lifting it off and onto the bed. And the wall insulation is not too thick, so it does get a little noisy. Breakfast was fair, but the fact that you have a kitchenette makes this a moot point.
+All in all it would have gotten a higher rating if they did something about the beds and AC, but these are two big of an issue to be overlooked. The hotel is...I stayed in the Residence Inn - Market Street for a long weekend visiting friends. Note that there are two Residence Inn The Woodlands, this is the one closest to Market Street, Downtown, and the Mall. You are actually only a very short walk from these places, although the dense woods really isolates the noise and makes you feel like you are in the middle of the woods. Parking is plentiful.The staff were great - very helpful, very friendly. The rooms themselves are good size, they have kitchenettes so you can go to Hubble and Hubbard and bring back some goodies to try. However, the bed was low and uncomfortable, it was rather hard and thin. There is a sign on the A/C not to turn it below 70, which is uncomfortably warm for sleeping - the air circulation is rather poor, and the room gets stuffy. They were missing things like luggage stands, and there is no open place to put your suitcase, so you are forever lifting it off and onto the bed. And the wall insulation is not too thick, so it does get a little noisy. Breakfast was fair, but the fact that you have a kitchenette makes this a moot point.All in all it would have gotten a higher rating if they did something about the beds and AC, but these are two big of an issue to be overlooked. The hotel is right next door to the Hilton Garden Inn, which I have also stayed at. Unless you need the kitchenette, I would go with the Garden Inn instead.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r34582900-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>34582900</t>
+  </si>
+  <si>
+    <t>07/12/2009</t>
+  </si>
+  <si>
+    <t>One of the BEST!</t>
+  </si>
+  <si>
+    <t>Great size room.  Very clean.  Spectacular hot (free!) breakfast (pancakes, sausage, eggs, toast, biscuits, gravy, fruit - you name it).  Very helpful front desk that checks on you to make sure the room is satisfactory.  Grounds are beautiful.  Suite had full kitchen.  We only stayed one night, but this would be a great hotel for an extended stay!  2 min from any shopping place there including the pavilion.  Much nicer than the Marriott on the Waterway (which is more expensive and smaller).</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r5289611-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>5289611</t>
+  </si>
+  <si>
+    <t>05/31/2006</t>
+  </si>
+  <si>
+    <t>Awesome Pet-Friendly Hotel and Location!</t>
+  </si>
+  <si>
+    <t>What a pleasant surprise!  After looking at many hotels that would accept my 70- lb black labrador, I found that Residence INN accepts pets under 80 lbs.  The hotel was very clean and had many nice updates.  The free hot breakfast was a nice bonus, and the grounds were great for walking my dog.  The area is also great for business/leisure travelers.  It's in the Woodlands which features many upscale shopping and restaurant choices.  Very quiet hotel.  I wish I would have stayed here more than one night!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r4390495-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>4390495</t>
+  </si>
+  <si>
+    <t>01/25/2006</t>
+  </si>
+  <si>
+    <t>Excellent stay, highly recommended</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for about 3 weeks and found every aspect to be excellent.  The staff was friendly and helpful, all of the facilities are well maintained, clean and in proper working order.  
+My computer is not set up for wireless internet so the desk clerk handed me a simple to use device that would convert my signal from wired to wireless.  Access worked flawlessly the whole time.  
+Breakfast is included in the room cost and items were consistently fresh and well stocked.  Evening snacks and drinks are provided (sometimes just snacks) but we didn't partake in that too often because there are about 50 great places to eat within 2 miles of this hotel.
+The gym is small, 2 treadmills, 1 bike, 1 elliptical, but guests supposedly have access to the full service health club next door.  It was nice looking but I didn't go in as the treadmills were enough for me.
+If I had to ding them on anything it would be the quality of the mattress in our room, it was in good condition, just not a very comfortable mattress for me.  The other minor issue was that certain noises could be heard from the other rooms next to me, for example, drawers closing/opening, coughing, bathroom fan.  Not terribly loud or annoying but definitely audible.
+Oh, and the nicest touch of all, FRESH CHOCOLATE CHIP COOKIES are available at the front desk at all...We stayed at this hotel for about 3 weeks and found every aspect to be excellent.  The staff was friendly and helpful, all of the facilities are well maintained, clean and in proper working order.  My computer is not set up for wireless internet so the desk clerk handed me a simple to use device that would convert my signal from wired to wireless.  Access worked flawlessly the whole time.  Breakfast is included in the room cost and items were consistently fresh and well stocked.  Evening snacks and drinks are provided (sometimes just snacks) but we didn't partake in that too often because there are about 50 great places to eat within 2 miles of this hotel.The gym is small, 2 treadmills, 1 bike, 1 elliptical, but guests supposedly have access to the full service health club next door.  It was nice looking but I didn't go in as the treadmills were enough for me.If I had to ding them on anything it would be the quality of the mattress in our room, it was in good condition, just not a very comfortable mattress for me.  The other minor issue was that certain noises could be heard from the other rooms next to me, for example, drawers closing/opening, coughing, bathroom fan.  Not terribly loud or annoying but definitely audible.Oh, and the nicest touch of all, FRESH CHOCOLATE CHIP COOKIES are available at the front desk at all times.Next time I am in this part of Texas I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for about 3 weeks and found every aspect to be excellent.  The staff was friendly and helpful, all of the facilities are well maintained, clean and in proper working order.  
+My computer is not set up for wireless internet so the desk clerk handed me a simple to use device that would convert my signal from wired to wireless.  Access worked flawlessly the whole time.  
+Breakfast is included in the room cost and items were consistently fresh and well stocked.  Evening snacks and drinks are provided (sometimes just snacks) but we didn't partake in that too often because there are about 50 great places to eat within 2 miles of this hotel.
+The gym is small, 2 treadmills, 1 bike, 1 elliptical, but guests supposedly have access to the full service health club next door.  It was nice looking but I didn't go in as the treadmills were enough for me.
+If I had to ding them on anything it would be the quality of the mattress in our room, it was in good condition, just not a very comfortable mattress for me.  The other minor issue was that certain noises could be heard from the other rooms next to me, for example, drawers closing/opening, coughing, bathroom fan.  Not terribly loud or annoying but definitely audible.
+Oh, and the nicest touch of all, FRESH CHOCOLATE CHIP COOKIES are available at the front desk at all...We stayed at this hotel for about 3 weeks and found every aspect to be excellent.  The staff was friendly and helpful, all of the facilities are well maintained, clean and in proper working order.  My computer is not set up for wireless internet so the desk clerk handed me a simple to use device that would convert my signal from wired to wireless.  Access worked flawlessly the whole time.  Breakfast is included in the room cost and items were consistently fresh and well stocked.  Evening snacks and drinks are provided (sometimes just snacks) but we didn't partake in that too often because there are about 50 great places to eat within 2 miles of this hotel.The gym is small, 2 treadmills, 1 bike, 1 elliptical, but guests supposedly have access to the full service health club next door.  It was nice looking but I didn't go in as the treadmills were enough for me.If I had to ding them on anything it would be the quality of the mattress in our room, it was in good condition, just not a very comfortable mattress for me.  The other minor issue was that certain noises could be heard from the other rooms next to me, for example, drawers closing/opening, coughing, bathroom fan.  Not terribly loud or annoying but definitely audible.Oh, and the nicest touch of all, FRESH CHOCOLATE CHIP COOKIES are available at the front desk at all times.Next time I am in this part of Texas I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r3099950-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>3099950</t>
+  </si>
+  <si>
+    <t>01/29/2005</t>
+  </si>
+  <si>
+    <t>Nice property</t>
+  </si>
+  <si>
+    <t>This relatively new property is nearby to the Woodlands Mall and numerous restaurants. It's about 1/4 mile from I-45, thus noise levels are very low (as opposed to the Woodlands I Residence Inn). A new Hilton Garden Inn also is next door (both of these properties tend to be full). Like all Residence Inns, rooms are large and designed for longer stays. Thus you may well see temporary workers, family's relocating and animals in the rooms. Overall quiet and clean. Internet access is wireless and spotty reception in some rooms.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1938,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1970,4118 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>115</v>
+      </c>
+      <c r="O9" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>124</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>125</v>
+      </c>
+      <c r="X10" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" t="s">
+        <v>132</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>134</v>
+      </c>
+      <c r="X11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>142</v>
+      </c>
+      <c r="O12" t="s">
+        <v>143</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>125</v>
+      </c>
+      <c r="X12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L13" t="s">
+        <v>149</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>150</v>
+      </c>
+      <c r="O13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>151</v>
+      </c>
+      <c r="X13" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" t="s">
+        <v>156</v>
+      </c>
+      <c r="K14" t="s">
+        <v>157</v>
+      </c>
+      <c r="L14" t="s">
+        <v>158</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>159</v>
+      </c>
+      <c r="O14" t="s">
+        <v>143</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>160</v>
+      </c>
+      <c r="X14" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>164</v>
+      </c>
+      <c r="J15" t="s">
+        <v>165</v>
+      </c>
+      <c r="K15" t="s">
+        <v>166</v>
+      </c>
+      <c r="L15" t="s">
+        <v>167</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>133</v>
+      </c>
+      <c r="O15" t="s">
+        <v>81</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>168</v>
+      </c>
+      <c r="X15" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" t="s">
+        <v>173</v>
+      </c>
+      <c r="K16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L16" t="s">
+        <v>175</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>176</v>
+      </c>
+      <c r="O16" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>177</v>
+      </c>
+      <c r="X16" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>181</v>
+      </c>
+      <c r="J17" t="s">
+        <v>182</v>
+      </c>
+      <c r="K17" t="s">
+        <v>183</v>
+      </c>
+      <c r="L17" t="s">
+        <v>184</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>185</v>
+      </c>
+      <c r="O17" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>186</v>
+      </c>
+      <c r="X17" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>190</v>
+      </c>
+      <c r="J18" t="s">
+        <v>191</v>
+      </c>
+      <c r="K18" t="s">
+        <v>192</v>
+      </c>
+      <c r="L18" t="s">
+        <v>193</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>185</v>
+      </c>
+      <c r="O18" t="s">
+        <v>81</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>194</v>
+      </c>
+      <c r="X18" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>198</v>
+      </c>
+      <c r="J19" t="s">
+        <v>199</v>
+      </c>
+      <c r="K19" t="s">
+        <v>200</v>
+      </c>
+      <c r="L19" t="s">
+        <v>201</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>185</v>
+      </c>
+      <c r="O19" t="s">
+        <v>202</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>203</v>
+      </c>
+      <c r="X19" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>206</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>207</v>
+      </c>
+      <c r="J20" t="s">
+        <v>208</v>
+      </c>
+      <c r="K20" t="s">
+        <v>209</v>
+      </c>
+      <c r="L20" t="s">
+        <v>210</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>211</v>
+      </c>
+      <c r="O20" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>212</v>
+      </c>
+      <c r="X20" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>215</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>216</v>
+      </c>
+      <c r="J21" t="s">
+        <v>217</v>
+      </c>
+      <c r="K21" t="s">
+        <v>218</v>
+      </c>
+      <c r="L21" t="s">
+        <v>219</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>176</v>
+      </c>
+      <c r="O21" t="s">
+        <v>81</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>220</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>221</v>
+      </c>
+      <c r="J22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K22" t="s">
+        <v>223</v>
+      </c>
+      <c r="L22" t="s">
+        <v>224</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>225</v>
+      </c>
+      <c r="O22" t="s">
+        <v>143</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>226</v>
+      </c>
+      <c r="X22" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>229</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>230</v>
+      </c>
+      <c r="J23" t="s">
+        <v>231</v>
+      </c>
+      <c r="K23" t="s">
+        <v>232</v>
+      </c>
+      <c r="L23" t="s">
+        <v>233</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>234</v>
+      </c>
+      <c r="O23" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>235</v>
+      </c>
+      <c r="X23" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>238</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>239</v>
+      </c>
+      <c r="J24" t="s">
+        <v>240</v>
+      </c>
+      <c r="K24" t="s">
+        <v>241</v>
+      </c>
+      <c r="L24" t="s">
+        <v>242</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>243</v>
+      </c>
+      <c r="O24" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>244</v>
+      </c>
+      <c r="X24" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>247</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>248</v>
+      </c>
+      <c r="J25" t="s">
+        <v>249</v>
+      </c>
+      <c r="K25" t="s">
+        <v>250</v>
+      </c>
+      <c r="L25" t="s">
+        <v>251</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>252</v>
+      </c>
+      <c r="X25" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>255</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>256</v>
+      </c>
+      <c r="J26" t="s">
+        <v>257</v>
+      </c>
+      <c r="K26" t="s">
+        <v>258</v>
+      </c>
+      <c r="L26" t="s">
+        <v>259</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>260</v>
+      </c>
+      <c r="O26" t="s">
+        <v>81</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>261</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>262</v>
+      </c>
+      <c r="J27" t="s">
+        <v>263</v>
+      </c>
+      <c r="K27" t="s">
+        <v>264</v>
+      </c>
+      <c r="L27" t="s">
+        <v>265</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>266</v>
+      </c>
+      <c r="O27" t="s">
+        <v>71</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>268</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>269</v>
+      </c>
+      <c r="J28" t="s">
+        <v>270</v>
+      </c>
+      <c r="K28" t="s">
+        <v>271</v>
+      </c>
+      <c r="L28" t="s">
+        <v>272</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>273</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>274</v>
+      </c>
+      <c r="J29" t="s">
+        <v>275</v>
+      </c>
+      <c r="K29" t="s">
+        <v>276</v>
+      </c>
+      <c r="L29" t="s">
+        <v>277</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>278</v>
+      </c>
+      <c r="O29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>279</v>
+      </c>
+      <c r="X29" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>282</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>283</v>
+      </c>
+      <c r="J30" t="s">
+        <v>284</v>
+      </c>
+      <c r="K30" t="s">
+        <v>285</v>
+      </c>
+      <c r="L30" t="s">
+        <v>286</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>287</v>
+      </c>
+      <c r="O30" t="s">
+        <v>81</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>288</v>
+      </c>
+      <c r="X30" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>291</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>292</v>
+      </c>
+      <c r="J31" t="s">
+        <v>293</v>
+      </c>
+      <c r="K31" t="s">
+        <v>294</v>
+      </c>
+      <c r="L31" t="s">
+        <v>295</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>296</v>
+      </c>
+      <c r="O31" t="s">
+        <v>202</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>298</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>299</v>
+      </c>
+      <c r="J32" t="s">
+        <v>300</v>
+      </c>
+      <c r="K32" t="s">
+        <v>301</v>
+      </c>
+      <c r="L32" t="s">
+        <v>302</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>296</v>
+      </c>
+      <c r="O32" t="s">
+        <v>143</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>303</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>304</v>
+      </c>
+      <c r="J33" t="s">
+        <v>305</v>
+      </c>
+      <c r="K33" t="s">
+        <v>306</v>
+      </c>
+      <c r="L33" t="s">
+        <v>307</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>308</v>
+      </c>
+      <c r="O33" t="s">
+        <v>143</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>309</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>310</v>
+      </c>
+      <c r="J34" t="s">
+        <v>311</v>
+      </c>
+      <c r="K34" t="s">
+        <v>312</v>
+      </c>
+      <c r="L34" t="s">
+        <v>313</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>278</v>
+      </c>
+      <c r="O34" t="s">
+        <v>71</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>314</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>315</v>
+      </c>
+      <c r="J35" t="s">
+        <v>316</v>
+      </c>
+      <c r="K35" t="s">
+        <v>317</v>
+      </c>
+      <c r="L35" t="s">
+        <v>318</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>319</v>
+      </c>
+      <c r="O35" t="s">
+        <v>71</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>321</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>322</v>
+      </c>
+      <c r="J36" t="s">
+        <v>323</v>
+      </c>
+      <c r="K36" t="s">
+        <v>324</v>
+      </c>
+      <c r="L36" t="s">
+        <v>325</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>326</v>
+      </c>
+      <c r="O36" t="s">
+        <v>202</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>327</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>328</v>
+      </c>
+      <c r="J37" t="s">
+        <v>329</v>
+      </c>
+      <c r="K37" t="s">
+        <v>330</v>
+      </c>
+      <c r="L37" t="s">
+        <v>331</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>332</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>333</v>
+      </c>
+      <c r="J38" t="s">
+        <v>334</v>
+      </c>
+      <c r="K38" t="s">
+        <v>335</v>
+      </c>
+      <c r="L38" t="s">
+        <v>336</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>337</v>
+      </c>
+      <c r="O38" t="s">
+        <v>81</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>339</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>340</v>
+      </c>
+      <c r="J39" t="s">
+        <v>341</v>
+      </c>
+      <c r="K39" t="s">
+        <v>342</v>
+      </c>
+      <c r="L39" t="s">
+        <v>343</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>344</v>
+      </c>
+      <c r="O39" t="s">
+        <v>81</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>345</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>346</v>
+      </c>
+      <c r="J40" t="s">
+        <v>347</v>
+      </c>
+      <c r="K40" t="s">
+        <v>348</v>
+      </c>
+      <c r="L40" t="s">
+        <v>349</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>350</v>
+      </c>
+      <c r="O40" t="s">
+        <v>81</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>352</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>353</v>
+      </c>
+      <c r="J41" t="s">
+        <v>354</v>
+      </c>
+      <c r="K41" t="s">
+        <v>355</v>
+      </c>
+      <c r="L41" t="s">
+        <v>356</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>350</v>
+      </c>
+      <c r="O41" t="s">
+        <v>81</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>357</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>358</v>
+      </c>
+      <c r="J42" t="s">
+        <v>359</v>
+      </c>
+      <c r="K42" t="s">
+        <v>360</v>
+      </c>
+      <c r="L42" t="s">
+        <v>361</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>350</v>
+      </c>
+      <c r="O42" t="s">
+        <v>81</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>362</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>363</v>
+      </c>
+      <c r="J43" t="s">
+        <v>364</v>
+      </c>
+      <c r="K43" t="s">
+        <v>365</v>
+      </c>
+      <c r="L43" t="s">
+        <v>366</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>337</v>
+      </c>
+      <c r="O43" t="s">
+        <v>81</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>367</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>368</v>
+      </c>
+      <c r="J44" t="s">
+        <v>369</v>
+      </c>
+      <c r="K44" t="s">
+        <v>370</v>
+      </c>
+      <c r="L44" t="s">
+        <v>371</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>372</v>
+      </c>
+      <c r="O44" t="s">
+        <v>81</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>373</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>374</v>
+      </c>
+      <c r="J45" t="s">
+        <v>375</v>
+      </c>
+      <c r="K45" t="s">
+        <v>376</v>
+      </c>
+      <c r="L45" t="s">
+        <v>377</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>372</v>
+      </c>
+      <c r="O45" t="s">
+        <v>143</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>379</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>380</v>
+      </c>
+      <c r="J46" t="s">
+        <v>381</v>
+      </c>
+      <c r="K46" t="s">
+        <v>382</v>
+      </c>
+      <c r="L46" t="s">
+        <v>383</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>344</v>
+      </c>
+      <c r="O46" t="s">
+        <v>71</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>384</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>385</v>
+      </c>
+      <c r="J47" t="s">
+        <v>386</v>
+      </c>
+      <c r="K47" t="s">
+        <v>387</v>
+      </c>
+      <c r="L47" t="s">
+        <v>388</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>389</v>
+      </c>
+      <c r="O47" t="s">
+        <v>71</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>390</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>391</v>
+      </c>
+      <c r="J48" t="s">
+        <v>392</v>
+      </c>
+      <c r="K48" t="s">
+        <v>393</v>
+      </c>
+      <c r="L48" t="s">
+        <v>394</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>395</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>396</v>
+      </c>
+      <c r="J49" t="s">
+        <v>397</v>
+      </c>
+      <c r="K49" t="s">
+        <v>398</v>
+      </c>
+      <c r="L49" t="s">
+        <v>399</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>400</v>
+      </c>
+      <c r="O49" t="s">
+        <v>143</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>401</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>402</v>
+      </c>
+      <c r="J50" t="s">
+        <v>403</v>
+      </c>
+      <c r="K50" t="s">
+        <v>404</v>
+      </c>
+      <c r="L50" t="s">
+        <v>405</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>406</v>
+      </c>
+      <c r="O50" t="s">
+        <v>202</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>407</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>408</v>
+      </c>
+      <c r="J51" t="s">
+        <v>409</v>
+      </c>
+      <c r="K51" t="s">
+        <v>410</v>
+      </c>
+      <c r="L51" t="s">
+        <v>411</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>412</v>
+      </c>
+      <c r="O51" t="s">
+        <v>71</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>414</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>415</v>
+      </c>
+      <c r="J52" t="s">
+        <v>409</v>
+      </c>
+      <c r="K52" t="s">
+        <v>416</v>
+      </c>
+      <c r="L52" t="s">
+        <v>417</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>412</v>
+      </c>
+      <c r="O52" t="s">
+        <v>143</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>418</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>419</v>
+      </c>
+      <c r="J53" t="s">
+        <v>420</v>
+      </c>
+      <c r="K53" t="s">
+        <v>421</v>
+      </c>
+      <c r="L53" t="s">
+        <v>422</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>423</v>
+      </c>
+      <c r="O53" t="s">
+        <v>71</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>424</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>425</v>
+      </c>
+      <c r="J54" t="s">
+        <v>426</v>
+      </c>
+      <c r="K54" t="s">
+        <v>427</v>
+      </c>
+      <c r="L54" t="s">
+        <v>428</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>429</v>
+      </c>
+      <c r="O54" t="s">
+        <v>202</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>430</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>431</v>
+      </c>
+      <c r="J55" t="s">
+        <v>432</v>
+      </c>
+      <c r="K55" t="s">
+        <v>433</v>
+      </c>
+      <c r="L55" t="s">
+        <v>434</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>429</v>
+      </c>
+      <c r="O55" t="s">
+        <v>71</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>436</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>437</v>
+      </c>
+      <c r="J56" t="s">
+        <v>438</v>
+      </c>
+      <c r="K56" t="s">
+        <v>439</v>
+      </c>
+      <c r="L56" t="s">
+        <v>440</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>441</v>
+      </c>
+      <c r="O56" t="s">
+        <v>71</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>443</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>444</v>
+      </c>
+      <c r="J57" t="s">
+        <v>445</v>
+      </c>
+      <c r="K57" t="s">
+        <v>446</v>
+      </c>
+      <c r="L57" t="s">
+        <v>447</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>448</v>
+      </c>
+      <c r="O57" t="s">
+        <v>71</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>449</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>450</v>
+      </c>
+      <c r="J58" t="s">
+        <v>451</v>
+      </c>
+      <c r="K58" t="s">
+        <v>452</v>
+      </c>
+      <c r="L58" t="s">
+        <v>453</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>454</v>
+      </c>
+      <c r="O58" t="s">
+        <v>81</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>456</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>457</v>
+      </c>
+      <c r="J59" t="s">
+        <v>458</v>
+      </c>
+      <c r="K59" t="s">
+        <v>459</v>
+      </c>
+      <c r="L59" t="s">
+        <v>460</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>454</v>
+      </c>
+      <c r="O59" t="s">
+        <v>71</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>461</v>
+      </c>
+      <c r="X59" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>464</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>465</v>
+      </c>
+      <c r="J60" t="s">
+        <v>466</v>
+      </c>
+      <c r="K60" t="s">
+        <v>467</v>
+      </c>
+      <c r="L60" t="s">
+        <v>468</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>469</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>471</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>472</v>
+      </c>
+      <c r="J61" t="s">
+        <v>473</v>
+      </c>
+      <c r="K61" t="s">
+        <v>474</v>
+      </c>
+      <c r="L61" t="s">
+        <v>475</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>476</v>
+      </c>
+      <c r="O61" t="s">
+        <v>143</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>477</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>478</v>
+      </c>
+      <c r="J62" t="s">
+        <v>479</v>
+      </c>
+      <c r="K62" t="s">
+        <v>480</v>
+      </c>
+      <c r="L62" t="s">
+        <v>481</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>482</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>483</v>
+      </c>
+      <c r="J63" t="s">
+        <v>484</v>
+      </c>
+      <c r="K63" t="s">
+        <v>485</v>
+      </c>
+      <c r="L63" t="s">
+        <v>486</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>488</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>489</v>
+      </c>
+      <c r="J64" t="s">
+        <v>490</v>
+      </c>
+      <c r="K64" t="s">
+        <v>491</v>
+      </c>
+      <c r="L64" t="s">
+        <v>492</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>492</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_550.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_550.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="788">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r582534018-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>56764</t>
+  </si>
+  <si>
+    <t>258818</t>
+  </si>
+  <si>
+    <t>582534018</t>
+  </si>
+  <si>
+    <t>05/24/2018</t>
+  </si>
+  <si>
+    <t>Must visit this property more often</t>
+  </si>
+  <si>
+    <t>Wife and I are making a mental note. We must come here more often. Property is perfectly located. Jasmine, at the front desk, got things started by making me feel like she was truly glad to see me. Thanked me for being Platinum. Just in the little while that I was at the front desk she helped me and two others. She was great. There are some cool bikes outside that we can use. The room has everything in it that I could possibly need. Oh yeah... we'll be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>angie h, General Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded May 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2018</t>
+  </si>
+  <si>
+    <t>Wife and I are making a mental note. We must come here more often. Property is perfectly located. Jasmine, at the front desk, got things started by making me feel like she was truly glad to see me. Thanked me for being Platinum. Just in the little while that I was at the front desk she helped me and two others. She was great. There are some cool bikes outside that we can use. The room has everything in it that I could possibly need. Oh yeah... we'll be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r579131178-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>579131178</t>
+  </si>
+  <si>
+    <t>05/09/2018</t>
+  </si>
+  <si>
+    <t>Nice localization, good hotel</t>
+  </si>
+  <si>
+    <t>I have stayed for 7 weeks in a business trip and found the Marriott Residence Inn a comfortable and welcoming place.The staff is very friendly especially Kathy who is super nice to everyone all the time (or most of the time. LOL!)MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>angie h, General Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded May 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2018</t>
+  </si>
+  <si>
+    <t>I have stayed for 7 weeks in a business trip and found the Marriott Residence Inn a comfortable and welcoming place.The staff is very friendly especially Kathy who is super nice to everyone all the time (or most of the time. LOL!)More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r558147802-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
   </si>
   <si>
-    <t>56764</t>
-  </si>
-  <si>
-    <t>258818</t>
-  </si>
-  <si>
     <t>558147802</t>
   </si>
   <si>
@@ -231,9 +291,6 @@
     <t>We recently stayed at this hotel while we were having work done on our house. They gave me a tour of available rooms. And we ended up staying in the 2 bedroom suite. (Family of 4 with large dog). I feel like the space was adequate and the room had a full size stove oven fridge and microwave. The buffet breakfast was very good every morning and my kids enjoyed it. We didn't have housekeeping clean every day since we had the dog but the one day we did ask to have it cleaned while we were out and they did. But the room waa not vacuumed which I thought was odd. And the room felt a little damp. In all fairness it faced the woods and the weather has been cold. The lobby was nice and bright but the rooms could have used brighter light and a ceiling fan. We were on the 1st floor 3 rooms in from the stairs and I am not sure if it was the people above us or the stairs but there was so much banging and "stomping " sounds at night and early morning. (Nothing the hotel could really change just keep in mind when picking your room location) overall the hotel had lots of amenities and was a very fair price. MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>angie h, General Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded December 17, 2017</t>
   </si>
   <si>
@@ -243,6 +300,60 @@
     <t>We recently stayed at this hotel while we were having work done on our house. They gave me a tour of available rooms. And we ended up staying in the 2 bedroom suite. (Family of 4 with large dog). I feel like the space was adequate and the room had a full size stove oven fridge and microwave. The buffet breakfast was very good every morning and my kids enjoyed it. We didn't have housekeeping clean every day since we had the dog but the one day we did ask to have it cleaned while we were out and they did. But the room waa not vacuumed which I thought was odd. And the room felt a little damp. In all fairness it faced the woods and the weather has been cold. The lobby was nice and bright but the rooms could have used brighter light and a ceiling fan. We were on the 1st floor 3 rooms in from the stairs and I am not sure if it was the people above us or the stairs but there was so much banging and "stomping " sounds at night and early morning. (Nothing the hotel could really change just keep in mind when picking your room location) overall the hotel had lots of amenities and was a very fair price. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r543367609-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>543367609</t>
+  </si>
+  <si>
+    <t>11/26/2017</t>
+  </si>
+  <si>
+    <t>Good &amp; Bad</t>
+  </si>
+  <si>
+    <t>The Good: •Isaac at the front desk was great! Friendly, happy and willing to help in any way he could! •Room was clean &amp; beds were comfortable.•Good location.The Bad: •The elevator was broken the entire time. •The breakfast buffet food was cold and so poorly laid out that you felt like you were constantly fighting people for food and a table.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>angie h, General Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded November 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2017</t>
+  </si>
+  <si>
+    <t>The Good: •Isaac at the front desk was great! Friendly, happy and willing to help in any way he could! •Room was clean &amp; beds were comfortable.•Good location.The Bad: •The elevator was broken the entire time. •The breakfast buffet food was cold and so poorly laid out that you felt like you were constantly fighting people for food and a table.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r537272886-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>537272886</t>
+  </si>
+  <si>
+    <t>10/30/2017</t>
+  </si>
+  <si>
+    <t>Amazing people &amp; location</t>
+  </si>
+  <si>
+    <t>Amazing Customer service , Kathy &amp; Jasmine are very helpful, location is walking distance from market street, Resturant’s, woodlands mall and etc....Room is very clean.I really recommend this hotel if u wanna stay in woodlands area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>angie h, General Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded October 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2017</t>
+  </si>
+  <si>
+    <t>Amazing Customer service , Kathy &amp; Jasmine are very helpful, location is walking distance from market street, Resturant’s, woodlands mall and etc....Room is very clean.I really recommend this hotel if u wanna stay in woodlands area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r529248332-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -259,9 +370,6 @@
   </si>
   <si>
     <t>September 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>angie h, General Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded October 3, 2017</t>
@@ -327,6 +435,60 @@
 The manager, Angie Hernandez, needs sensitivity training and perhaps a lesson on empathy. This community is sinking and she explained to me, "they are running a business." There is no inventory for rooms, especially for those who have animals. It is disgusting that this place would profit off of this disaster, not try to offer a low...Under normal circumstances, I would say this hotel is a C- only because of location. Run down, uncaring staff and unkept rooms (stained carpet, dated, stinky sofa, terrible beds). I am a business traveler and do all of my business at Marriott properties. our loyalty also stays with Residence Inns for pleasure travel because they accept dogs, with a smile.  Our lives have recently changed as our home was flooded due to Hurricane Harvey. Although we have FEMA vouchers, this hotel will not accept them. The first day we checked in, our rate was $132/night, it is now $299/night. It was explained to me that they aren't price gouging, but adhering to their normal price ladder, because it's "high season." There is no distressed rate, unless you have a government ID, but they won't give that to displaced victims. Governor Abbot has said all taxes for hotels should be waived, this place will only do it after the standard 30 days.  I was challenged by the front desk agent when I asked for it. "I'm not sure we're doing that," I was told. The manager, Angie Hernandez, needs sensitivity training and perhaps a lesson on empathy. This community is sinking and she explained to me, "they are running a business." There is no inventory for rooms, especially for those who have animals. It is disgusting that this place would profit off of this disaster, not try to offer a low rate and refuses to accept FEMA vouchers. These practices have changed my mind on how I feel about Marriott, and specifically this property.  I ask you Angie to go sleep a night in room 102 and write a review. As a platinum member, who has spent more nights in Marriott properties than my own during the last 18 months, I am waiting for them to do the right thing for this community. We are not on vacation, we are homeless. This property, is managed by Pillar Hotels. I have written to their corporate, as well as Marriott, and have gotten no response. If you're ok supporting a business that doesn't support their community in a time of uncertainty and disaster and chose to stay here, get ready for a disappointing stay.  I assure you, there are plenty of hotels in The Woodlands that are in close proximity to attractions, cleaner, more comfortable and concerned with doing the right thing for their community. I am so disappointed in this property, the management company  and the staff.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r523170059-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>523170059</t>
+  </si>
+  <si>
+    <t>09/10/2017</t>
+  </si>
+  <si>
+    <t>Great hotel and more than competent/wonderful staff</t>
+  </si>
+  <si>
+    <t>Stayed here for a week for business, coinciding with Hurricane Harvey (let's say I was ´grounded´ in the hotel for a week!).Room was, as usual, very nice and clean, as well as all other facilities, including indoor pool and jacuzzi, which were great as we could not leave the hotel).  Has a small but efficient gym with a couple of treadmills, very good for exercising.Breakfast is more than enough to start your day and get you going!But what really amazed me this time (I've stayed here other times) was the assistance received from the hotel staff, including manager Angie and housekeeper Maria G.  They stayed at the hotel during the storm ensuring our needs were fulfilled during the worst days (from Saturday to Tuesday).  All staff available were above and beyond to ensure we were weel taken care of even with all the limitations that the storm brought on all of us.For several times, when hanging around the lobby area, I witnessed the staff doing all that they could to accomodate FEMA officers and most important, people that had to evacuate their homes due to flooding, especially the elderly.This was an unique example of costumer focus and assistance to those who were deeply in need!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>angie h, General Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded September 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for a week for business, coinciding with Hurricane Harvey (let's say I was ´grounded´ in the hotel for a week!).Room was, as usual, very nice and clean, as well as all other facilities, including indoor pool and jacuzzi, which were great as we could not leave the hotel).  Has a small but efficient gym with a couple of treadmills, very good for exercising.Breakfast is more than enough to start your day and get you going!But what really amazed me this time (I've stayed here other times) was the assistance received from the hotel staff, including manager Angie and housekeeper Maria G.  They stayed at the hotel during the storm ensuring our needs were fulfilled during the worst days (from Saturday to Tuesday).  All staff available were above and beyond to ensure we were weel taken care of even with all the limitations that the storm brought on all of us.For several times, when hanging around the lobby area, I witnessed the staff doing all that they could to accomodate FEMA officers and most important, people that had to evacuate their homes due to flooding, especially the elderly.This was an unique example of costumer focus and assistance to those who were deeply in need!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r495961203-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>495961203</t>
+  </si>
+  <si>
+    <t>06/25/2017</t>
+  </si>
+  <si>
+    <t>Excellent hotel and wonderful staff</t>
+  </si>
+  <si>
+    <t>After having had a terrible hotel experience nearby, I was lucky to find availability here. From the moment I called the Marriott reservation line to the time I checked in, the staff here made the process pleasant and smooth. All week they did a fantastic job, and I had a splendid stay. Rooms were clean and spacious. The pool and gym were always kept neat and had clean towels consistently available. Housekeeping did a great job, and the desk staff were superb. Friendly and efficient. This is a hotel that knows how to do customer service right! Loved that they had happy hours during the early parts of the work week. The continental breakfast was well made and was always kept full. If I ever had to return to the area, this would be my first choice, and I certainly would choose it for an extended stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>angie h, General Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded June 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2017</t>
+  </si>
+  <si>
+    <t>After having had a terrible hotel experience nearby, I was lucky to find availability here. From the moment I called the Marriott reservation line to the time I checked in, the staff here made the process pleasant and smooth. All week they did a fantastic job, and I had a splendid stay. Rooms were clean and spacious. The pool and gym were always kept neat and had clean towels consistently available. Housekeeping did a great job, and the desk staff were superb. Friendly and efficient. This is a hotel that knows how to do customer service right! Loved that they had happy hours during the early parts of the work week. The continental breakfast was well made and was always kept full. If I ever had to return to the area, this would be my first choice, and I certainly would choose it for an extended stay!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r489685488-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -412,6 +574,51 @@
 Cons:  I specifically requested a quiet room and was reassured by the front desk associate that checked me in that the room was located in a quiet location; wrong.  The room that I was given was located on the first floor directly behind the Sport Court where guests bounce balls, many of which hit the window or wall located where my room was.  The electric range in the kitchenette left much to be desired as you have to almost have the dial on high heat for even moderate cooking.  The bed sheets need replacing as they have become thin and started to have pills on them.  The TV is too small for the King Studio space as one TV has to be shared throughout the entire space from bed to kitchenette area.  The air conditioner unit is noisy and appears to be located in a locked closet in the room; I’m not sure if this is true for floors...Overall this is a good value for the location and proximity to the starting line for the annual Woodland’s Marathon. I would rate these accommodations a 6.5 on a scale of 1 to 10.   Pros:  It’s a quick 10-minute walk to Town Green Park and HEB.  There is a full size refrigerator and dishwasher in the King Studio.  There’s ample parking located in close proximity to the entrance of the hotel.  I could not hear my next door or upstairs neighbors.  Cons:  I specifically requested a quiet room and was reassured by the front desk associate that checked me in that the room was located in a quiet location; wrong.  The room that I was given was located on the first floor directly behind the Sport Court where guests bounce balls, many of which hit the window or wall located where my room was.  The electric range in the kitchenette left much to be desired as you have to almost have the dial on high heat for even moderate cooking.  The bed sheets need replacing as they have become thin and started to have pills on them.  The TV is too small for the King Studio space as one TV has to be shared throughout the entire space from bed to kitchenette area.  The air conditioner unit is noisy and appears to be located in a locked closet in the room; I’m not sure if this is true for floors 2 and 3.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r464594183-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>464594183</t>
+  </si>
+  <si>
+    <t>Woodlands  Marathon weekend</t>
+  </si>
+  <si>
+    <t>Our room was immaculate the customer service was the best part from the moment we checked in to checking out Lee the front desk clerk was very attentive .The hotel provided goodies for the marathon runners which was extra nice.The gentlemen  working the night shift (was also very attentive in the morning reminding us they had served cold fruits and drinks for the runners) Would highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our room was immaculate the customer service was the best part from the moment we checked in to checking out Lee the front desk clerk was very attentive .The hotel provided goodies for the marathon runners which was extra nice.The gentlemen  working the night shift (was also very attentive in the morning reminding us they had served cold fruits and drinks for the runners) Would highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r458089917-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>458089917</t>
+  </si>
+  <si>
+    <t>02/08/2017</t>
+  </si>
+  <si>
+    <t>NIce and Relaxing</t>
+  </si>
+  <si>
+    <t>We stopped here after our cruise and was amazed at the hospitality. We were tired and needed to unwind and relax. The front desk staff was AMAZING and the whirlpool was HOT and Steamy. Two things that were needed to help us unwind and get ready for another leg of our road trip. The breakfast was amazing as well and the rooms were not only large but comfy. Make this one of your stops when traveling through TexasMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>angie h, General Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded February 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2017</t>
+  </si>
+  <si>
+    <t>We stopped here after our cruise and was amazed at the hospitality. We were tired and needed to unwind and relax. The front desk staff was AMAZING and the whirlpool was HOT and Steamy. Two things that were needed to help us unwind and get ready for another leg of our road trip. The breakfast was amazing as well and the rooms were not only large but comfy. Make this one of your stops when traveling through TexasMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r453336832-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -457,9 +664,6 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>We stayed here for Thanksgiving since it was close to the LSU game and the Renaissance Festival. We could not have made a better choice! Most of the staff was so sweet (there was one front desk clerk who was constantly on an obviously personal phone call or just not at the desk for long stretches of time but she was nice when she wasn't distracted). Another desk clerk (Hilton) couldn't have been nicer with recommendations and directions. The fire pit was lit every night, making the patio a really cool place to hang out. There's even a grill, and plenty of people took advantage of it. Breakfast was really good. Best of all, the hotel is an easy walk to the Waterway and even the mall. It's a great location and a great hotel - and like all Residence Inns, it's doggie friendly. The walls are a little thin but noisy neighbors only bothered us one night. One suggestion: Maybe install a few poop bag dispensers around the property with garbage cans to encourage people to dispose of their dogs' poop.More</t>
   </si>
   <si>
@@ -490,6 +694,51 @@
     <t>Came here on a business trip.  Hotel is very conveniently located, extremely close to office buildings, fast food restaurants, restaurants (such as The Cheesecake Factory), shopping malls (Market Place, The woodlands Mall) and major stores (Best Buy, Ross, Ulta).  All within a 1-2 minutes drive!  It is also 2 minutes away from I-45.Rooms are spacious, although a bit outdated.  But nothing to even worry about!Front desk personnel is pleasant and ready to help you!Breakfast is very nice with hot and cold items.  Hotel maintenance personnel and house-keepers are also very nice and a pleasure to talk to!On Mondays, Tuesday and Wednesdays, there are special treats from 6PM to 07:30PM.Overall, it was a very nice experience and I would definitely come back.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r428854499-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>428854499</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>My best stay in Woodlands</t>
+  </si>
+  <si>
+    <t>Best stay in Woodlands. I've spent there 14 days and it was like at home. Gym, service, air conditioning, food, bed, wifi, work area. No complains. Location is just great: market street, restaurants, jogging road, mall, parking. Hotel have to be booked in advance, otherwise you rooms will be reserved by someone else.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>angie h, Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded October 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2016</t>
+  </si>
+  <si>
+    <t>Best stay in Woodlands. I've spent there 14 days and it was like at home. Gym, service, air conditioning, food, bed, wifi, work area. No complains. Location is just great: market street, restaurants, jogging road, mall, parking. Hotel have to be booked in advance, otherwise you rooms will be reserved by someone else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r428749731-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>428749731</t>
+  </si>
+  <si>
+    <t>Great Placr</t>
+  </si>
+  <si>
+    <t>Stayed here while attending a benefit for the Heart Association.  It is a nice hotel with a great location, conveniently located next to shopping areas.  The room was nice and clean, and all amenities were provided.  Especially liked the size of the room.  We brought our little dog with us and he liked it too!  Would most definitely stay here again.  The staff was very accommodating and friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>angie h, General Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded October 18, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here while attending a benefit for the Heart Association.  It is a nice hotel with a great location, conveniently located next to shopping areas.  The room was nice and clean, and all amenities were provided.  Especially liked the size of the room.  We brought our little dog with us and he liked it too!  Would most definitely stay here again.  The staff was very accommodating and friendly.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r422077499-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -566,6 +815,57 @@
   </si>
   <si>
     <t>Stayed at the hotel for a few times when I was there for work. The hotel is comfortable and staff are friendly and helpful. Room is big and loved the bed! It's at a good location as it is still within walking distance to nearby restaurants and the Woodlands mall. So if you didn't rent a car and want a reasonably priced place to stay I would recommend this place. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r396319100-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>396319100</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>Very nice for an overnight or long stay</t>
+  </si>
+  <si>
+    <t>We brought our two grandsons for an overnight in the Woodlands. Nicely located, and clean. Friendly front desk. Free parking and spacious rooms. Not a separate bedroom but it was fine for us with the sofa bed. Breakfast was good but quite a delay in refilling silverware, mugs and food.Sorry that the pool is indoors and not really kid friendly. No real shallow end or play area. The staff loaned us play toys but with two 3 year olds, we really couldn't play in the pool with them.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>angie h, Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded July 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2016</t>
+  </si>
+  <si>
+    <t>We brought our two grandsons for an overnight in the Woodlands. Nicely located, and clean. Friendly front desk. Free parking and spacious rooms. Not a separate bedroom but it was fine for us with the sofa bed. Breakfast was good but quite a delay in refilling silverware, mugs and food.Sorry that the pool is indoors and not really kid friendly. No real shallow end or play area. The staff loaned us play toys but with two 3 year olds, we really couldn't play in the pool with them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r391895333-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>391895333</t>
+  </si>
+  <si>
+    <t>07/12/2016</t>
+  </si>
+  <si>
+    <t>Perfect 4th of July Stay</t>
+  </si>
+  <si>
+    <t>Stayed here while visiting friends for the 4th and was pleasantly surprised since it had been several years since our last stay. They have obviously remodeled recently as we found this a clean,  fresh,  and comfortable place to stay.  Location was perfect; just a few blocks from where we chose to watch fireworks. And....a short 5 min walk to the Cynthia Woods Mitchell Pavilion where we attended the 21 Pilots concert. No sitting in traffic or paying for parking;  just a leisurely stroll down Six Pines before and after the concert,  which is a great place to see an outdoor show....even in Houston....in summer.Also convenient to the Mall and the Woodlands Waterway area.MoreShow less</t>
+  </si>
+  <si>
+    <t>angie h, Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded July 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here while visiting friends for the 4th and was pleasantly surprised since it had been several years since our last stay. They have obviously remodeled recently as we found this a clean,  fresh,  and comfortable place to stay.  Location was perfect; just a few blocks from where we chose to watch fireworks. And....a short 5 min walk to the Cynthia Woods Mitchell Pavilion where we attended the 21 Pilots concert. No sitting in traffic or paying for parking;  just a leisurely stroll down Six Pines before and after the concert,  which is a great place to see an outdoor show....even in Houston....in summer.Also convenient to the Mall and the Woodlands Waterway area.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r387178176-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
@@ -660,6 +960,60 @@
     <t>I was staying there as support crew for IMTX. the staff were very accommodating, friendly, able to solve problems quickly and get things done.race morning they had breakfast out for the athletes and family early (we tend to be up around 4 am). The rooms were very clean, beds were comfortable. Will plan on staying there again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r361041562-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>361041562</t>
+  </si>
+  <si>
+    <t>04/02/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comfortable, accommodating, perfect location </t>
+  </si>
+  <si>
+    <t>Walking distance to Market Street shopping and restaurants as well as Woodlands mall and dining options. Fabulous location. Staff was efficient, accommodating, friendly. Laundry on site. Breakfast buffet included with hot and cold options AND made fresh waffles and oatmeal every morning.  Mon, Tues, Wed nights hosted complimentary 'happy hour' in early evenings with drinks and heavy appetizers.   USA Today available every morning. Comfortable lobby to just relax or visit. We had a small dog with us and he was welcomed as well. There was a pet fee on our bill, but gave us options other hotels wouldn't. Wifi is free but could be stronger. Great in that it connects without passwords and doesn't require authentication every 24hrs. We didn't use kitchen much other than to store and reheat leftovers from night before. We will be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>angie h, General Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded April 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2016</t>
+  </si>
+  <si>
+    <t>Walking distance to Market Street shopping and restaurants as well as Woodlands mall and dining options. Fabulous location. Staff was efficient, accommodating, friendly. Laundry on site. Breakfast buffet included with hot and cold options AND made fresh waffles and oatmeal every morning.  Mon, Tues, Wed nights hosted complimentary 'happy hour' in early evenings with drinks and heavy appetizers.   USA Today available every morning. Comfortable lobby to just relax or visit. We had a small dog with us and he was welcomed as well. There was a pet fee on our bill, but gave us options other hotels wouldn't. Wifi is free but could be stronger. Great in that it connects without passwords and doesn't require authentication every 24hrs. We didn't use kitchen much other than to store and reheat leftovers from night before. We will be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r354427021-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>354427021</t>
+  </si>
+  <si>
+    <t>03/10/2016</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>The staff at this hotel is absolutely wonderful. The moment we arrived the staff greeted us, asked if there was anything she could help with, let her know. There was fresh popcorn, which the kids loved and bottled water. Breakfast was great and the rooms comfy.Very nice stay. The only reason I didn't give them a five was there was a slight odor in my room, but not enough to to complain. Would definitely stay again- if only because of their great staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>angie h, General Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded March 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2016</t>
+  </si>
+  <si>
+    <t>The staff at this hotel is absolutely wonderful. The moment we arrived the staff greeted us, asked if there was anything she could help with, let her know. There was fresh popcorn, which the kids loved and bottled water. Breakfast was great and the rooms comfy.Very nice stay. The only reason I didn't give them a five was there was a slight odor in my room, but not enough to to complain. Would definitely stay again- if only because of their great staff.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r338430846-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -729,6 +1083,57 @@
     <t>It was a nice place to stay for an overnight visit to the Woodlands. I live in Houston and did not want to drive back, so I was happy they were available and walking distance to the Pavilion. Place was clean and comfortable  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r272245207-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>272245207</t>
+  </si>
+  <si>
+    <t>05/15/2015</t>
+  </si>
+  <si>
+    <t>Old and dingy</t>
+  </si>
+  <si>
+    <t>Very disappointed in this property. The bathroom had the towels and shower cap from the previous occupants still hung up behind the door and we found little caterpillars/worms in our room. We said we would take a room on the first floor, but when we saw the bug situation we asked to be moved to another floor. Thankfully, we had an apartment we were moving into in The Woodlands. We packed up our things and took them with us. We did get another room on the second floor. The staff is helpful. The hotel is very dated and sad looking. When we checked in we were told breakfast was served until 9:30, but it's actually only 9am and promptly at 9am everything is taken away. We got our apartment together as quickly as possible so as to not stay any longer than necessary here. Would not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Anne R, Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded May 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2015</t>
+  </si>
+  <si>
+    <t>Very disappointed in this property. The bathroom had the towels and shower cap from the previous occupants still hung up behind the door and we found little caterpillars/worms in our room. We said we would take a room on the first floor, but when we saw the bug situation we asked to be moved to another floor. Thankfully, we had an apartment we were moving into in The Woodlands. We packed up our things and took them with us. We did get another room on the second floor. The staff is helpful. The hotel is very dated and sad looking. When we checked in we were told breakfast was served until 9:30, but it's actually only 9am and promptly at 9am everything is taken away. We got our apartment together as quickly as possible so as to not stay any longer than necessary here. Would not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r271664497-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>271664497</t>
+  </si>
+  <si>
+    <t>05/12/2015</t>
+  </si>
+  <si>
+    <t>5 star helpful &amp; courteous</t>
+  </si>
+  <si>
+    <t>Two couples lost in the Woodlands, going in circles. Suddenly we veer into the Residence in parking lot. They could not have been more gracious and happy to serve. I kept thinking that if we were staying overnight, this is where we need to be. They sent us on our way with a local map, clear directions, a brochure for attractions and discount coupons. Capital-A amazing!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Anne R, Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded May 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2015</t>
+  </si>
+  <si>
+    <t>Two couples lost in the Woodlands, going in circles. Suddenly we veer into the Residence in parking lot. They could not have been more gracious and happy to serve. I kept thinking that if we were staying overnight, this is where we need to be. They sent us on our way with a local map, clear directions, a brochure for attractions and discount coupons. Capital-A amazing!!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r268520706-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -807,6 +1212,51 @@
     <t>This is a very nice hotel, but what sets it apart is the staff.  I've stayed here for 5 weeks and don't plan on moving.  Nikole and Meredith are extremely attentive and have made each stay wonderful.  As a lifetime platinum member I highly recommend this site.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r252654669-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>252654669</t>
+  </si>
+  <si>
+    <t>02/04/2015</t>
+  </si>
+  <si>
+    <t>Convenient to mall, restaurants, freeway</t>
+  </si>
+  <si>
+    <t>We have stayed many times at this residence Inn, there are 2 Residence Inn's in the Woodlands, this is the better one, closer to amenities and a bit further from freeway noise.Staff are friendly and helpful, hotel is clean, beds comfortable. I like the full size refrigerator and stove top, glasses, plates and cutlery is provided.Gym could use more equipment, very small, no weights only a treadmill and bike. Breakfast is nothing to write home about quite ordinary, ok but not great.Hotel is next door to a Taco Bell and a 24 hr fitness, across the street is a mall with Ross, Best Buy and the usual, about a 5 min walk is the big Woodlands mall. Also walking distance is the Woodlands Pavilion and River Walk.MoreShow less</t>
+  </si>
+  <si>
+    <t>Anne R, Manager at Residence Inn Houston The Woodlands/Market Street, responded to this reviewResponded February 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2015</t>
+  </si>
+  <si>
+    <t>We have stayed many times at this residence Inn, there are 2 Residence Inn's in the Woodlands, this is the better one, closer to amenities and a bit further from freeway noise.Staff are friendly and helpful, hotel is clean, beds comfortable. I like the full size refrigerator and stove top, glasses, plates and cutlery is provided.Gym could use more equipment, very small, no weights only a treadmill and bike. Breakfast is nothing to write home about quite ordinary, ok but not great.Hotel is next door to a Taco Bell and a 24 hr fitness, across the street is a mall with Ross, Best Buy and the usual, about a 5 min walk is the big Woodlands mall. Also walking distance is the Woodlands Pavilion and River Walk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r240903181-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>240903181</t>
+  </si>
+  <si>
+    <t>11/21/2014</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>My mother &amp; I came up to the Woodlands to shop for a couple of days. We stayed at this Residence Inn which is very close to the Mall and Market Square. The Front Desk staff were very friendly &amp; helpful. We stayed in a 2 bedroom suite and each room has it's own bathroom. There was a small living area &amp; kitchenette in the middle. There also was a fireplace that turns on with a light switch. Very convenient &amp; nice on a cold night. The beds were very comfortable and the suite was clean. My Mother &amp; I ate breakfast at the hotel buffet. It was late in the morning, but it was still full and the food was tasty. My mother &amp; I enjoyed our stay and we would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>My mother &amp; I came up to the Woodlands to shop for a couple of days. We stayed at this Residence Inn which is very close to the Mall and Market Square. The Front Desk staff were very friendly &amp; helpful. We stayed in a 2 bedroom suite and each room has it's own bathroom. There was a small living area &amp; kitchenette in the middle. There also was a fireplace that turns on with a light switch. Very convenient &amp; nice on a cold night. The beds were very comfortable and the suite was clean. My Mother &amp; I ate breakfast at the hotel buffet. It was late in the morning, but it was still full and the food was tasty. My mother &amp; I enjoyed our stay and we would stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r239917522-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -861,6 +1311,45 @@
     <t xml:space="preserve">This is a nice hotel.  Close to the market street area which is a great place to shop and dine.  The hotel is clean and the beds are ok. They serve free breakfast which is pretty decent.  The staff is very friendly and helpful.  The price is very affordable.  I would stay here again.  </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r210612080-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>210612080</t>
+  </si>
+  <si>
+    <t>06/16/2014</t>
+  </si>
+  <si>
+    <t>Fours Days of Business in houston</t>
+  </si>
+  <si>
+    <t>Rooms are like small apartments. Sofa, chair, 2 desks, fridge, cooktop, microwave etc. Stayed in room 222. A/C is set at 70-Each room has the ac compressor in it. Mine sounded like a gas turbine engine spooling up, but I like the white noise when I sleep so it was not a problem for me. Big bed, comfortable and clean. Lots of pillows. Bathroom was clean with great water pressure. Separate room for shower and toilet.  Clean towels. Front desk clerk at night was cool and friendly.Bonus 1 - Free ParkingBonus 2- In the heart of the Woodlands-Access to Mall, freeway, restaurants, shopping etc.Bonus 3-Free breakfast every morning was ok Juice, eggs, pancakes, French toast, potatoes, cereal, bagels, muffins, toast, fresh fruit and more.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Rooms are like small apartments. Sofa, chair, 2 desks, fridge, cooktop, microwave etc. Stayed in room 222. A/C is set at 70-Each room has the ac compressor in it. Mine sounded like a gas turbine engine spooling up, but I like the white noise when I sleep so it was not a problem for me. Big bed, comfortable and clean. Lots of pillows. Bathroom was clean with great water pressure. Separate room for shower and toilet.  Clean towels. Front desk clerk at night was cool and friendly.Bonus 1 - Free ParkingBonus 2- In the heart of the Woodlands-Access to Mall, freeway, restaurants, shopping etc.Bonus 3-Free breakfast every morning was ok Juice, eggs, pancakes, French toast, potatoes, cereal, bagels, muffins, toast, fresh fruit and more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r207823640-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>207823640</t>
+  </si>
+  <si>
+    <t>05/29/2014</t>
+  </si>
+  <si>
+    <t>OK hotel - slightly dated.</t>
+  </si>
+  <si>
+    <t>OK hotel but not very experienced staff perhaps, friendly but something was lacking. A little bit oldfashioned style but comfortable enough. OK breakfast but nothing special. For short stays. Near the centre which was quite charming with a few good restaurants.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r199114482-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -936,6 +1425,36 @@
     <t>I stayed here in January 2014, in town for a wedding. While the wedding group stayed at a larger hotel, I was traveling alone and was seeking something more economical and this property exceeded my expectations. The rooms were large, resembling more of a compact apartment studio with an eat-in kitchen, living area and bed and bath with enough space for all. The beds were comfortable. The staff was very friendly and receptive to my questions. Breakfast was complimentary and was good, offering enough variety for most people to feel satisfied including hot and cold food. The center of town where the mall, bars and restaurants are,  is about a 10-15 walk and was safe and easy passing fast food franchises along the way. If driving, there was plenty of parking and easy access to the main roads and highways. I recommend for anyone staying long-term.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r193788336-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>193788336</t>
+  </si>
+  <si>
+    <t>02/11/2014</t>
+  </si>
+  <si>
+    <t>Not a bad place to stay!</t>
+  </si>
+  <si>
+    <t>First of all the staff was friendly and made you feel welcome immediately.  Always a plus when they make you feel appreciated from the start.The hotel is very clean and nothing looked to be in need of repair.  The complementary breakfast is pretty straight forward hotel fair.  It was hot and decent.The only maybe problem that I had was in the fitness center.  When I went to grab a towel prior to my run on the treadmill there were no towels.  Told the woman at the front desk, 5 minutes later there were towels!  Good job!  Problem averted!I would stay at this property again in the future if the needs arises.MoreShow less</t>
+  </si>
+  <si>
+    <t>First of all the staff was friendly and made you feel welcome immediately.  Always a plus when they make you feel appreciated from the start.The hotel is very clean and nothing looked to be in need of repair.  The complementary breakfast is pretty straight forward hotel fair.  It was hot and decent.The only maybe problem that I had was in the fitness center.  When I went to grab a towel prior to my run on the treadmill there were no towels.  Told the woman at the front desk, 5 minutes later there were towels!  Good job!  Problem averted!I would stay at this property again in the future if the needs arises.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r193767827-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>193767827</t>
+  </si>
+  <si>
+    <t>Good Choice</t>
+  </si>
+  <si>
+    <t>Very spacious, clean and the staff very kind. Full breakfast and wi-fi included which is very convenient for business travelers, and even more, from monday to wednesday they offer a complimentary dinner.Would stay there again.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r192588313-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -984,6 +1503,42 @@
     <t>We spent two nights here to avoid having to drive home late both nights.  Breakfast and facility is good. The only complaint is that the wifi is very suspect.  Definitely could be better!  The second year for us to do this...next year may look for better alternative.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r182013704-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>182013704</t>
+  </si>
+  <si>
+    <t>10/22/2013</t>
+  </si>
+  <si>
+    <t>Location, location, location!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shopping, dining all around you, yet you wouldn't know it !  A quiet retreat after a busy day.  Morning buffet and specials in the evening, sometimes snacks and cocktails, other nights themed meals!  The Amphitheater is so close you can hear the music from the parking lot.    </t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r179259658-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>179259658</t>
+  </si>
+  <si>
+    <t>09/30/2013</t>
+  </si>
+  <si>
+    <t>Has become a 2nd home</t>
+  </si>
+  <si>
+    <t>I am on a long term work assignment requiring me to stay every other week at this hotel.  It consistently makes me feel at home.  The staff are great ESPECIALLY Stephanie.  She knows what I need before I ask.  The rooms are spacious and comfortable.  I open my windows at night but be sure to ask for a high floor and one that faces the trees before you do this.  I have a favorite room and they try to accommodate me when they can.  The food is great at breakfast.  The ladies working the buffet make sure they keep it stocked.  I admit dinner is not always appealing to me but our group usually has dinner plans anyway.  The location is perfect if you have business in The Woodlands.  It is safe enough to walk for miles on the local trails.  Almost like home!MoreShow less</t>
+  </si>
+  <si>
+    <t>I am on a long term work assignment requiring me to stay every other week at this hotel.  It consistently makes me feel at home.  The staff are great ESPECIALLY Stephanie.  She knows what I need before I ask.  The rooms are spacious and comfortable.  I open my windows at night but be sure to ask for a high floor and one that faces the trees before you do this.  I have a favorite room and they try to accommodate me when they can.  The food is great at breakfast.  The ladies working the buffet make sure they keep it stocked.  I admit dinner is not always appealing to me but our group usually has dinner plans anyway.  The location is perfect if you have business in The Woodlands.  It is safe enough to walk for miles on the local trails.  Almost like home!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r170700274-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1038,15 +1593,42 @@
     <t>Nice room, clean, close to everything and the price was good! Free breakfast was pretty good. Friendly staff and plenty of parking. We stayed here instead of the woodlands resort and took a cab there and back. Great time!!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r166848322-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>166848322</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>Clean, cozy, comfortable</t>
+  </si>
+  <si>
+    <t>I only stayed here for one night to attend a concert, but it was perfect for our needs.  A friend and I had a 2-bedroom suite and it was very spacious!  The staff was friendly and the location terrific.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r166773297-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>166773297</t>
+  </si>
+  <si>
+    <t>A great place for family fun!</t>
+  </si>
+  <si>
+    <t>I had a lovely time this past weekend.  Me and my family (including 10 kids) spent the 4th of July weekend living it up at this nice property.  We were on Stay-cation and had a relaxing getaway.  We went to the pool, spent time on the tennis court, played a little basketball and did some shopping. Everything was right there, Taco Bell and Ross were within walking distance.  The front desk staff was amazing and the night's stay included a well appointed breakfast buffet.  Family food and fun, this place was a great bargain for the money and offered a lot of value.  Things were clean and in great shape.  I plan to return.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had a lovely time this past weekend.  Me and my family (including 10 kids) spent the 4th of July weekend living it up at this nice property.  We were on Stay-cation and had a relaxing getaway.  We went to the pool, spent time on the tennis court, played a little basketball and did some shopping. Everything was right there, Taco Bell and Ross were within walking distance.  The front desk staff was amazing and the night's stay included a well appointed breakfast buffet.  Family food and fun, this place was a great bargain for the money and offered a lot of value.  Things were clean and in great shape.  I plan to return.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r166753930-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
   </si>
   <si>
     <t>166753930</t>
   </si>
   <si>
-    <t>07/08/2013</t>
-  </si>
-  <si>
     <t>Managers unresponsive and don't keep their word</t>
   </si>
   <si>
@@ -1092,12 +1674,42 @@
     <t>I'm here June 22, and even after the room air-conditioning being on all night, it did not cool down enough to need a blanket. the thermostat stated do not turn below 70 degrees, otherwise it will not work.the hallways, restaurant and reception were hot.the gym was extremely hot - i asked them to turn it up, "Unfortunately sir, that's preset, and we cannot change it."absolutely ridiculous - i'm not even someone who runs overly hot and needs my room at 68degrees - usually 72degrees is plenty, but the room just about got to it after 3 hours, and the halls and gym stayed over 75 degrees - sauna in the summer, anyone?MoreShow less</t>
   </si>
   <si>
-    <t>June 2013</t>
-  </si>
-  <si>
     <t>I'm here June 22, and even after the room air-conditioning being on all night, it did not cool down enough to need a blanket. the thermostat stated do not turn below 70 degrees, otherwise it will not work.the hallways, restaurant and reception were hot.the gym was extremely hot - i asked them to turn it up, "Unfortunately sir, that's preset, and we cannot change it."absolutely ridiculous - i'm not even someone who runs overly hot and needs my room at 68degrees - usually 72degrees is plenty, but the room just about got to it after 3 hours, and the halls and gym stayed over 75 degrees - sauna in the summer, anyone?More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r164069968-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>164069968</t>
+  </si>
+  <si>
+    <t>06/15/2013</t>
+  </si>
+  <si>
+    <t>Great room, amenities and location.</t>
+  </si>
+  <si>
+    <t>My husband and I stayed overnight. We live in the area and just wanted a night alone from the kids. You cant beat the location. The inn is located in the heart of the Woodlands. The room we had was very nice for a typical residence inn. It looked freshly done. It was nicely decorated and the cherry on top was the in room fireplace. We didn't go to the pool, but the pool area was nice. The only flaw I was able to see was the bathroom wasn't as clean as I would have liked and the bed was very firm. There was hair on the floor and some mold on the ceiling. Aside from that, no complaints. I would 100% recommend this location to friends and family and stay here myself another time. MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I stayed overnight. We live in the area and just wanted a night alone from the kids. You cant beat the location. The inn is located in the heart of the Woodlands. The room we had was very nice for a typical residence inn. It looked freshly done. It was nicely decorated and the cherry on top was the in room fireplace. We didn't go to the pool, but the pool area was nice. The only flaw I was able to see was the bathroom wasn't as clean as I would have liked and the bed was very firm. There was hair on the floor and some mold on the ceiling. Aside from that, no complaints. I would 100% recommend this location to friends and family and stay here myself another time. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r163588034-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>163588034</t>
+  </si>
+  <si>
+    <t>06/10/2013</t>
+  </si>
+  <si>
+    <t>Good location, but in need of renovation</t>
+  </si>
+  <si>
+    <t>This Residence Inn is in a good location if you are visiting the Woodlands.  The staff was nice, breakfast was good.  The room was quiet and the bed was comfortable.  The negatives were: the room had not been updated in a while and the a/c was not functioning that well, so the room was musty and rather humid.  In Houston, you really need an a/c that works!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r163317318-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1143,6 +1755,45 @@
     <t>I just stayed in this hotel last week on business - moved to it after my company screwed up and booked me in La Quinta nearby (avoid like the plague).I had a twin room - 2 bedrooms, kitchen, lounge area, all to myself - most of which i didnt get round to using.bed was extremely comfortable - shower was good, room was nice and quiet despite being on ground floor.breakfast was ok - i typically don't partake, but selection was good and varied each day - no complaints.staff were friendly and helpful during entire stayi totally recommend this hotel if you are in the Woodlands area</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r157826032-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>157826032</t>
+  </si>
+  <si>
+    <t>04/15/2013</t>
+  </si>
+  <si>
+    <t>Wedding Weekend</t>
+  </si>
+  <si>
+    <t>We booked a 2 bedroom suite on first floor for a family wedding.  One queen sized bed in both rooms, kitchen, breakfast in lobby until 9:30 on weekends, until 9 on weekdays.  Computer &amp; printer in lobby - for printing boarding passes.  Convenient to waterway, dining, and all wedding activities.  Excellent stay.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r155418872-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>155418872</t>
+  </si>
+  <si>
+    <t>03/23/2013</t>
+  </si>
+  <si>
+    <t>Was adequate for 3 month stay</t>
+  </si>
+  <si>
+    <t>During our family's recent relocation, we comfortably stayed at The Residence Inn. We had a 2 bedroom suite on the top floor away from the elevators and stairs. The couple of small issues we had during our stay were handled quickly by the management or the front desk staff. The pool, small workout room, outdoor grill and fire pit, weekly complimentary evening meals (Monday-Wednesday 6-8), daily breakfast buffets and sport courts were all huge bonuses for our 2 children and made the transition to a new state easier for us adults. The front desk and housekeeping staff are all amazing and kind people and consider their guests to be friends which adds a warmth to the experience there. Pricing was comparable to other long-term locations, but the full kitchen with oven at the Residence Inn put them ahead of the rest. Also, their location is walking distance to major shopping including a mall and several restaurants. Very clean, beds comfortable, laundry facility and mini- market on site.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>During our family's recent relocation, we comfortably stayed at The Residence Inn. We had a 2 bedroom suite on the top floor away from the elevators and stairs. The couple of small issues we had during our stay were handled quickly by the management or the front desk staff. The pool, small workout room, outdoor grill and fire pit, weekly complimentary evening meals (Monday-Wednesday 6-8), daily breakfast buffets and sport courts were all huge bonuses for our 2 children and made the transition to a new state easier for us adults. The front desk and housekeeping staff are all amazing and kind people and consider their guests to be friends which adds a warmth to the experience there. Pricing was comparable to other long-term locations, but the full kitchen with oven at the Residence Inn put them ahead of the rest. Also, their location is walking distance to major shopping including a mall and several restaurants. Very clean, beds comfortable, laundry facility and mini- market on site.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r154541779-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1194,6 +1845,39 @@
     <t>We stayed at this property for 5 nights at the beginning of January.  We had a 2 bedroom suite which was perfect for our family of 5.  Plenty of space and very clean.  All the staff were very friendly and helpful.  Breakfast was included and there was plenty to choose from.  They served complimentary dinner a couple of evenings which we enjoyed.  Location great for the market street and all the mall.  We would definitely choose to stay here again.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r148494572-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>148494572</t>
+  </si>
+  <si>
+    <t>01/01/2013</t>
+  </si>
+  <si>
+    <t>Excellent family/business hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed at this property while visiting family after Christmas. The 2 bedroom suite was perfect for us--lots of space and plenty of TVs. The kitchen was a nice plus. As is typical for us, the only issue was the roll away bed--not comfortable. We would definitely stay here again. The hotel was very clean, the staff was courteous and well informed. The location was very convenient. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r148428315-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>148428315</t>
+  </si>
+  <si>
+    <t>12/31/2012</t>
+  </si>
+  <si>
+    <t>Absolutely wonderful!</t>
+  </si>
+  <si>
+    <t>We are a military family, so we are used to traveling and hotels around the holidays especially. I must say this place was a pleasant surprise! I was born and raised in TX around the Houston area and after 15 years of being gone we finally get stationed here! We stayed at the Residence Inn on 6 Pines Dr during Christmas for 10 days and I loved every bit of it! Aside from an awesome location....the staff was AMAZING! You cannot ask for better service anywhere. It was quiet, rooms are well sound proof and between the breakfast they feed you and dinner for free every couple of days you cannot go wrong! I will be staying here again when my kids are on spring break and we start our house hunting adventure! Just for information's sake we had 5 people and a dog in our suite, we cooked, my mother came and stayed one night, and we were comfortable. We stayed in room 129 and did not have the issues others did in 113. There were 3 other families with 3-4 children each in the surrounding rooms, one with a small dog that barked when you walked by but while we were in our rooms we could not hear a thing from anyone! My dog could hear and sometimes she would bark but being she's pretty quiet she got over it and would lay down. The room next us...We are a military family, so we are used to traveling and hotels around the holidays especially. I must say this place was a pleasant surprise! I was born and raised in TX around the Houston area and after 15 years of being gone we finally get stationed here! We stayed at the Residence Inn on 6 Pines Dr during Christmas for 10 days and I loved every bit of it! Aside from an awesome location....the staff was AMAZING! You cannot ask for better service anywhere. It was quiet, rooms are well sound proof and between the breakfast they feed you and dinner for free every couple of days you cannot go wrong! I will be staying here again when my kids are on spring break and we start our house hunting adventure! Just for information's sake we had 5 people and a dog in our suite, we cooked, my mother came and stayed one night, and we were comfortable. We stayed in room 129 and did not have the issues others did in 113. There were 3 other families with 3-4 children each in the surrounding rooms, one with a small dog that barked when you walked by but while we were in our rooms we could not hear a thing from anyone! My dog could hear and sometimes she would bark but being she's pretty quiet she got over it and would lay down. The room next us had 4 boys and we have 3 boys and even with football games playing in each room it was quiet!. I have nothing bad to say about this place, we WILL be staying here again in the spring. MoreShow less</t>
+  </si>
+  <si>
+    <t>We are a military family, so we are used to traveling and hotels around the holidays especially. I must say this place was a pleasant surprise! I was born and raised in TX around the Houston area and after 15 years of being gone we finally get stationed here! We stayed at the Residence Inn on 6 Pines Dr during Christmas for 10 days and I loved every bit of it! Aside from an awesome location....the staff was AMAZING! You cannot ask for better service anywhere. It was quiet, rooms are well sound proof and between the breakfast they feed you and dinner for free every couple of days you cannot go wrong! I will be staying here again when my kids are on spring break and we start our house hunting adventure! Just for information's sake we had 5 people and a dog in our suite, we cooked, my mother came and stayed one night, and we were comfortable. We stayed in room 129 and did not have the issues others did in 113. There were 3 other families with 3-4 children each in the surrounding rooms, one with a small dog that barked when you walked by but while we were in our rooms we could not hear a thing from anyone! My dog could hear and sometimes she would bark but being she's pretty quiet she got over it and would lay down. The room next us...We are a military family, so we are used to traveling and hotels around the holidays especially. I must say this place was a pleasant surprise! I was born and raised in TX around the Houston area and after 15 years of being gone we finally get stationed here! We stayed at the Residence Inn on 6 Pines Dr during Christmas for 10 days and I loved every bit of it! Aside from an awesome location....the staff was AMAZING! You cannot ask for better service anywhere. It was quiet, rooms are well sound proof and between the breakfast they feed you and dinner for free every couple of days you cannot go wrong! I will be staying here again when my kids are on spring break and we start our house hunting adventure! Just for information's sake we had 5 people and a dog in our suite, we cooked, my mother came and stayed one night, and we were comfortable. We stayed in room 129 and did not have the issues others did in 113. There were 3 other families with 3-4 children each in the surrounding rooms, one with a small dog that barked when you walked by but while we were in our rooms we could not hear a thing from anyone! My dog could hear and sometimes she would bark but being she's pretty quiet she got over it and would lay down. The room next us had 4 boys and we have 3 boys and even with football games playing in each room it was quiet!. I have nothing bad to say about this place, we WILL be staying here again in the spring. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r144699380-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1245,6 +1929,45 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r135371175-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>135371175</t>
+  </si>
+  <si>
+    <t>07/25/2012</t>
+  </si>
+  <si>
+    <t>NICE!!!</t>
+  </si>
+  <si>
+    <t>My husband, daugther, niece and myself took a weekend trip to the woodlands on July 20-22, just  so they could get a little enjoyment before schools starts back, We stayed at the Residence Inn. The room was a lil small for 4 people but we managed to survive it. the room was nice, the bed was a little hard. The front desk was nice, breakfast was average, not the best I've ever had, but it was free so that was cool. we got free wifi.we were close to market street, it's maybe about a 5-8 min walk... Your surrounded by a lot of stores and eating place that you could walk to if your in good shape..lo...l I don't have anything bad to say about this hotel and the area.. we had a nice time.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>My husband, daugther, niece and myself took a weekend trip to the woodlands on July 20-22, just  so they could get a little enjoyment before schools starts back, We stayed at the Residence Inn. The room was a lil small for 4 people but we managed to survive it. the room was nice, the bed was a little hard. The front desk was nice, breakfast was average, not the best I've ever had, but it was free so that was cool. we got free wifi.we were close to market street, it's maybe about a 5-8 min walk... Your surrounded by a lot of stores and eating place that you could walk to if your in good shape..lo...l I don't have anything bad to say about this hotel and the area.. we had a nice time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r135200924-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>135200924</t>
+  </si>
+  <si>
+    <t>07/23/2012</t>
+  </si>
+  <si>
+    <t>Extremely loud and incredibly icky</t>
+  </si>
+  <si>
+    <t>We usually stay at the Marriott Waterway but couldn't get a reservation this particular night.  Hotel rooms were scarce because of a concert at the Pavillion.  We decided to give the Marriott Residence Inn on Six Pines a try, based in part on the reviews on this site, and boy did we regret it.  First, the pros:  a good location close to the mall, restaurants and all the other fun stuff in The Woodlands.  The room was clean, the grounds were neatly manicured and the desk staff was polite.  Now for the cons:  We asked only for a quiet room.  We were put in Room 113, which seemed okay at first, early in the stay when we were only in the living room part of the one-bedroom suite.  Later that evening, when we were trying to sleep, we realized the bedroom was near a huge battery of outdoor AC units, which gave off a loud constant roar (when I looked outside the next morning, I realized they were built in a courtyard surrounded by 3 stories of rooms--chances are those loud AC units disturbed a lot of people).  It got worse, however. Near midnight, a loud and very strange racket started up in the wall behind the headboard of our bed.  I have no idea what it was--I've never heard anything remotely like it in a hotel room--but it was comparable to a large diesel engine, an airplane motor or...We usually stay at the Marriott Waterway but couldn't get a reservation this particular night.  Hotel rooms were scarce because of a concert at the Pavillion.  We decided to give the Marriott Residence Inn on Six Pines a try, based in part on the reviews on this site, and boy did we regret it.  First, the pros:  a good location close to the mall, restaurants and all the other fun stuff in The Woodlands.  The room was clean, the grounds were neatly manicured and the desk staff was polite.  Now for the cons:  We asked only for a quiet room.  We were put in Room 113, which seemed okay at first, early in the stay when we were only in the living room part of the one-bedroom suite.  Later that evening, when we were trying to sleep, we realized the bedroom was near a huge battery of outdoor AC units, which gave off a loud constant roar (when I looked outside the next morning, I realized they were built in a courtyard surrounded by 3 stories of rooms--chances are those loud AC units disturbed a lot of people).  It got worse, however. Near midnight, a loud and very strange racket started up in the wall behind the headboard of our bed.  I have no idea what it was--I've never heard anything remotely like it in a hotel room--but it was comparable to a large diesel engine, an airplane motor or a chain saw--LOUD!  This went on for some 15-20 minutes. To make matters worse, the supposedly queen-sized bed was too small, the mattress was hard and uncomfortable and the pillows were flat and miserable.  The tub drain was clogged, resulting in several inches of dirty water pooling during a short shower.  It didn't surprise us at all the next morning, as we wearily resumed our road trip, to overhear several people complaining to the desk staff about various matters.  All in all, not a pleasant or restful stay and we won't ever stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We usually stay at the Marriott Waterway but couldn't get a reservation this particular night.  Hotel rooms were scarce because of a concert at the Pavillion.  We decided to give the Marriott Residence Inn on Six Pines a try, based in part on the reviews on this site, and boy did we regret it.  First, the pros:  a good location close to the mall, restaurants and all the other fun stuff in The Woodlands.  The room was clean, the grounds were neatly manicured and the desk staff was polite.  Now for the cons:  We asked only for a quiet room.  We were put in Room 113, which seemed okay at first, early in the stay when we were only in the living room part of the one-bedroom suite.  Later that evening, when we were trying to sleep, we realized the bedroom was near a huge battery of outdoor AC units, which gave off a loud constant roar (when I looked outside the next morning, I realized they were built in a courtyard surrounded by 3 stories of rooms--chances are those loud AC units disturbed a lot of people).  It got worse, however. Near midnight, a loud and very strange racket started up in the wall behind the headboard of our bed.  I have no idea what it was--I've never heard anything remotely like it in a hotel room--but it was comparable to a large diesel engine, an airplane motor or...We usually stay at the Marriott Waterway but couldn't get a reservation this particular night.  Hotel rooms were scarce because of a concert at the Pavillion.  We decided to give the Marriott Residence Inn on Six Pines a try, based in part on the reviews on this site, and boy did we regret it.  First, the pros:  a good location close to the mall, restaurants and all the other fun stuff in The Woodlands.  The room was clean, the grounds were neatly manicured and the desk staff was polite.  Now for the cons:  We asked only for a quiet room.  We were put in Room 113, which seemed okay at first, early in the stay when we were only in the living room part of the one-bedroom suite.  Later that evening, when we were trying to sleep, we realized the bedroom was near a huge battery of outdoor AC units, which gave off a loud constant roar (when I looked outside the next morning, I realized they were built in a courtyard surrounded by 3 stories of rooms--chances are those loud AC units disturbed a lot of people).  It got worse, however. Near midnight, a loud and very strange racket started up in the wall behind the headboard of our bed.  I have no idea what it was--I've never heard anything remotely like it in a hotel room--but it was comparable to a large diesel engine, an airplane motor or a chain saw--LOUD!  This went on for some 15-20 minutes. To make matters worse, the supposedly queen-sized bed was too small, the mattress was hard and uncomfortable and the pillows were flat and miserable.  The tub drain was clogged, resulting in several inches of dirty water pooling during a short shower.  It didn't surprise us at all the next morning, as we wearily resumed our road trip, to overhear several people complaining to the desk staff about various matters.  All in all, not a pleasant or restful stay and we won't ever stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r134103958-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1294,6 +2017,42 @@
   </si>
   <si>
     <t>My Husband and I recently stayed here during the Memorial Day Weekend. The service was great; the room was clean and comfy. I really enjoyed the personal touch. The nice ladies at the front desk brought us a few snacks with a bottle of wine to help celebrate our honeymoon. I would stay here again when I’m in the woodlands. It’s like a home away from home. Oh Yeah….the breakfast was pretty nice.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r125610438-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>125610438</t>
+  </si>
+  <si>
+    <t>03/04/2012</t>
+  </si>
+  <si>
+    <t>Felt like home</t>
+  </si>
+  <si>
+    <t>I felt at home from the moment I stepped into the hotel. Friendly staff, relatively large and very clean apartments. Nice pool and a cosy fireplace outside. Walking distance from good restaurants and the mall. A tennis and basketball court. Lots of storage space in the room, no noise...I loved the fact that they offer to shop you groceries at no extra cost. Top this off with a simple but good breakfast and you have all you need really.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r124007837-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>124007837</t>
+  </si>
+  <si>
+    <t>02/02/2012</t>
+  </si>
+  <si>
+    <t>Business Trip to Houston</t>
+  </si>
+  <si>
+    <t>Adequate, if you're on a business trip. Relatively expensive for what's on offer.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r122933141-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
@@ -1356,6 +2115,42 @@
 Located on Six Pines, you can, if you want and can stand the heat, walk a couple, long blocks to the Waterway Park or the Marriott; there are restaurants a block away and many, many in the Woodlands in general.  Go to Market Street; we ate at Tommy Bahama's; the Mall- kid's carousel,  take a water taxi, splash at the aquatic park, see a show at the Pavillions- Santana was there when we were, free concerts at the park, the hotel also lists several suggestions for dining or entertainment.  Everything's close to IAH(Bush...We stayed for 2 nights with our two small children ages 5 &amp; 7.  Located in the The Woodlands, our 2 bedroom was clean with comfortable Marriot type beds and lots of pillows.   The whole hotel feels and smells new.  Our room's windows faced the forest, but others could face the parking lot. The kids loved the indoor pool, 3-4 feet deep, clean and not eye stinging whatsoever, just the right temp., cool not cold, especially with 100+degrees outdoors( what's going on with TX lately, statewide drought, fires, extended heatwaves?).   Small exercise room with dumbells, treadmill, bike, elliptical, TV's.The customer service is tops.   I can't remember a better group.  I watched the front desk staff, and they were extremely helpful and friendly to us and to others.  The housekeeping staff the same.Nice breakfast includes cereal, fruit, eggs, sausage, different types of potatoes, juice and coffee.Located on Six Pines, you can, if you want and can stand the heat, walk a couple, long blocks to the Waterway Park or the Marriott; there are restaurants a block away and many, many in the Woodlands in general.  Go to Market Street; we ate at Tommy Bahama's; the Mall- kid's carousel,  take a water taxi, splash at the aquatic park, see a show at the Pavillions- Santana was there when we were, free concerts at the park, the hotel also lists several suggestions for dining or entertainment.  Everything's close to IAH(Bush airport about 20-25 minutes, we take the Hardy Toll road).More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r117253156-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>117253156</t>
+  </si>
+  <si>
+    <t>08/25/2011</t>
+  </si>
+  <si>
+    <t>Good for extended stay</t>
+  </si>
+  <si>
+    <t>I stayed at this Inn for over six weeks and found it quite comfortable. The bed and pillows were great. However, I sometimes felt that the housekeeping staff could have done a better job. I was frequently out of sugar in the kitchenette and felt that the cleanliness was often not up to par. My husband was often frustrated by having to wait for the phone at the switchboard to be answered after 30-40 rings.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r116875080-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>116875080</t>
+  </si>
+  <si>
+    <t>08/17/2011</t>
+  </si>
+  <si>
+    <t>Fabulous property wonderful staff  Thank you Richard</t>
+  </si>
+  <si>
+    <t>Celebrating our mothers 80th birthday Richard (Asst. GM) made sure we had a wonderful two bedroom suite.  The staff we very professional and was there to help you in everyway.  The breakfast buffet was presented very well.  The hotel was spotless it was so clean.   Thank you for making this a special stay for us all.  We stayed using our Marriott points and usually, even though you have spent the money to receive the points you are not treated very well by marriott staff.  BUT this property proved that theory wrong  THANK YOU</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r116479412-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1371,9 +2166,6 @@
     <t>I'd planned a special weekend for my niece for her recent accomplishments, i.e. special birthday, superior grades, awards received, etc.  When booking the reservation I just mentioned the purpose of the stay and the staff was apparently paying attention..... when we arrived my niece was blown away by all the goodies in the suite - not the least of which was a fresh fruit arrangement complete with balloons rising out of the refrigerator.  She thought the chocolate covered strawberries were the coolest thing ever !!!  Everywhere she looked there was another goody bag with games, candy, gum, puzzles, even a Residence Inn insulated mug (for her Aunt....)!  It's this kind of attention to detail and customized customer service that will make me come back again and again.......and certainly refer my friends, family and business associates.  GREAT JOB and THANKS for making what could have been just a fun weekend, a BLAST for my niece (and us as well !!!)....... signed...your biggest fan !!!MoreShow less</t>
   </si>
   <si>
-    <t>July 2011</t>
-  </si>
-  <si>
     <t>I'd planned a special weekend for my niece for her recent accomplishments, i.e. special birthday, superior grades, awards received, etc.  When booking the reservation I just mentioned the purpose of the stay and the staff was apparently paying attention..... when we arrived my niece was blown away by all the goodies in the suite - not the least of which was a fresh fruit arrangement complete with balloons rising out of the refrigerator.  She thought the chocolate covered strawberries were the coolest thing ever !!!  Everywhere she looked there was another goody bag with games, candy, gum, puzzles, even a Residence Inn insulated mug (for her Aunt....)!  It's this kind of attention to detail and customized customer service that will make me come back again and again.......and certainly refer my friends, family and business associates.  GREAT JOB and THANKS for making what could have been just a fun weekend, a BLAST for my niece (and us as well !!!)....... signed...your biggest fan !!!More</t>
   </si>
   <si>
@@ -1414,6 +2206,42 @@
   </si>
   <si>
     <t>I chose this hotel for the location (heart of The Woodlands activity: walk to malls, restaurants, Cynthia Woods Pavilion, etc.) and its amenities (full breakfast, indoor pool, wireless internet, etc.) - but I stayed for the people! Larisa (manager) knows how to select people and bring them along - some of the sharpest young men and women that I have ever met - and they treat me like I am family! I've watched at least three of her hand-picked employees "grow up" into managing hotels of their own. Sad to see them go, but thrilled to see them recognized!Great value, especially for this location - but it is the employees that make it extra special.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r77117271-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>77117271</t>
+  </si>
+  <si>
+    <t>08/27/2010</t>
+  </si>
+  <si>
+    <t>An awesome place to stay</t>
+  </si>
+  <si>
+    <t>Every time we visit The Woodlands we stay at the Residence Inn II.  We absolutely love it.  It is a wonderful hotel, from the rooms to the swimming pool.  Everything is absolutely beautiful &amp; clean.  Anytime my family has a request, they are ready &amp; willing to take care of it for us.  From the housekeeping staff to the general manager, they are the most pleasant and professional group.  We absolutely love it.  And we wouldn't stay anywhere else.</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r76569689-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>76569689</t>
+  </si>
+  <si>
+    <t>08/23/2010</t>
+  </si>
+  <si>
+    <t>Almost Like Home</t>
+  </si>
+  <si>
+    <t>I stay at hotels more than 200 nights a year and The Residence Inn Market Street The Woodlands TX is my favorite home away from home.  From the generous woman who serves breakfast and evening snacks to the nighttime front desk crew who are always cheerful no matter what the bleary-eyed emergency, the staff here are some of the most helpful and professional I have encountered.  The location of this hotel is superb for shopping and excellent dining experiences.  While the hotel has an exercise room I especially enjoy the morning runs along The Woodlands Waterway.  When there are concerts at the Pavilion (like Sting or Dave Matthews Band)  it is possible to score some free tunes by merely walking down the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stay at hotels more than 200 nights a year and The Residence Inn Market Street The Woodlands TX is my favorite home away from home.  From the generous woman who serves breakfast and evening snacks to the nighttime front desk crew who are always cheerful no matter what the bleary-eyed emergency, the staff here are some of the most helpful and professional I have encountered.  The location of this hotel is superb for shopping and excellent dining experiences.  While the hotel has an exercise room I especially enjoy the morning runs along The Woodlands Waterway.  When there are concerts at the Pavilion (like Sting or Dave Matthews Band)  it is possible to score some free tunes by merely walking down the street.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r73897967-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
@@ -1487,6 +2315,53 @@
   </si>
   <si>
     <t>July 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r28317141-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>28317141</t>
+  </si>
+  <si>
+    <t>04/19/2009</t>
+  </si>
+  <si>
+    <t>WONDERFUL value, HIGHLY recommended!</t>
+  </si>
+  <si>
+    <t>This property is undergoing renovations, so naturally everything was not perfect.  that said, the room WAS perfect (newly refurbished with nice furnishings, spotlessly clean and every fixture and light worked,  AC/Heater worked wonderfully and was the most quiet we have ever experienced.  The Staff were, each and every one, more than just courteous and friendly, they went out of their way to insure that what we needed we got.I have no complaints whatsoever, and would highly recommend this property to any one staying in this part of Houston whether for business or pleasure</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r7857673-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>7857673</t>
+  </si>
+  <si>
+    <t>06/15/2007</t>
+  </si>
+  <si>
+    <t>This Residence Inn is Wonderful</t>
+  </si>
+  <si>
+    <t>What a wonderful facility! Upon arrival I was checked in to a suite right next to the door to the outside/parking lot. As I was there at The Woodlands to attend a family wedding, there was lots of going in and out, so this location was just ideal for me. 
+Another reviewer has mentioned the complimentary hot breakfast buffet, and there was a complimentary hot dinner buffet as well. I saw on the calendar on my refrigerator that during some nights there is an outdoor grilling get-together. I would have loved to have sampled that! 
+The suite had a full kitchen, so I also availed myself of a fancy "MRE" from the local HEB grocery: grilled salmon with grilled veggies, 2 brouchets and - what else? Anyway, it was all just too yummy, convenient, and easy on my wallet. The wedding was awesome as well, but that's another story.
+Please stay here! You will not regret it. Every one of the staff members with whom I had contact was friendlier and more gracious than the one before. The only  - and I mean only - thing I missed was an outdoor pool, but the indoor pool/spa area was lovely. I kept saying I was going to soak in the hot tub, but my vacation time ran out. I simply must return.
+P. S. Don't forget that Victoria and Joel O'Steen's Lakewood Church is in downtown Houston. What a warm (home...What a wonderful facility! Upon arrival I was checked in to a suite right next to the door to the outside/parking lot. As I was there at The Woodlands to attend a family wedding, there was lots of going in and out, so this location was just ideal for me. Another reviewer has mentioned the complimentary hot breakfast buffet, and there was a complimentary hot dinner buffet as well. I saw on the calendar on my refrigerator that during some nights there is an outdoor grilling get-together. I would have loved to have sampled that! The suite had a full kitchen, so I also availed myself of a fancy "MRE" from the local HEB grocery: grilled salmon with grilled veggies, 2 brouchets and - what else? Anyway, it was all just too yummy, convenient, and easy on my wallet. The wedding was awesome as well, but that's another story.Please stay here! You will not regret it. Every one of the staff members with whom I had contact was friendlier and more gracious than the one before. The only  - and I mean only - thing I missed was an outdoor pool, but the indoor pool/spa area was lovely. I kept saying I was going to soak in the hot tub, but my vacation time ran out. I simply must return.P. S. Don't forget that Victoria and Joel O'Steen's Lakewood Church is in downtown Houston. What a warm (home town style) welcome I received there! Amazing for such a large congregation.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2007</t>
+  </si>
+  <si>
+    <t>What a wonderful facility! Upon arrival I was checked in to a suite right next to the door to the outside/parking lot. As I was there at The Woodlands to attend a family wedding, there was lots of going in and out, so this location was just ideal for me. 
+Another reviewer has mentioned the complimentary hot breakfast buffet, and there was a complimentary hot dinner buffet as well. I saw on the calendar on my refrigerator that during some nights there is an outdoor grilling get-together. I would have loved to have sampled that! 
+The suite had a full kitchen, so I also availed myself of a fancy "MRE" from the local HEB grocery: grilled salmon with grilled veggies, 2 brouchets and - what else? Anyway, it was all just too yummy, convenient, and easy on my wallet. The wedding was awesome as well, but that's another story.
+Please stay here! You will not regret it. Every one of the staff members with whom I had contact was friendlier and more gracious than the one before. The only  - and I mean only - thing I missed was an outdoor pool, but the indoor pool/spa area was lovely. I kept saying I was going to soak in the hot tub, but my vacation time ran out. I simply must return.
+P. S. Don't forget that Victoria and Joel O'Steen's Lakewood Church is in downtown Houston. What a warm (home...What a wonderful facility! Upon arrival I was checked in to a suite right next to the door to the outside/parking lot. As I was there at The Woodlands to attend a family wedding, there was lots of going in and out, so this location was just ideal for me. Another reviewer has mentioned the complimentary hot breakfast buffet, and there was a complimentary hot dinner buffet as well. I saw on the calendar on my refrigerator that during some nights there is an outdoor grilling get-together. I would have loved to have sampled that! The suite had a full kitchen, so I also availed myself of a fancy "MRE" from the local HEB grocery: grilled salmon with grilled veggies, 2 brouchets and - what else? Anyway, it was all just too yummy, convenient, and easy on my wallet. The wedding was awesome as well, but that's another story.Please stay here! You will not regret it. Every one of the staff members with whom I had contact was friendlier and more gracious than the one before. The only  - and I mean only - thing I missed was an outdoor pool, but the indoor pool/spa area was lovely. I kept saying I was going to soak in the hot tub, but my vacation time ran out. I simply must return.P. S. Don't forget that Victoria and Joel O'Steen's Lakewood Church is in downtown Houston. What a warm (home town style) welcome I received there! Amazing for such a large congregation.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r5289611-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
@@ -1545,6 +2420,24 @@
   </si>
   <si>
     <t>This relatively new property is nearby to the Woodlands Mall and numerous restaurants. It's about 1/4 mile from I-45, thus noise levels are very low (as opposed to the Woodlands I Residence Inn). A new Hilton Garden Inn also is next door (both of these properties tend to be full). Like all Residence Inns, rooms are large and designed for longer stays. Thus you may well see temporary workers, family's relocating and animals in the rooms. Overall quiet and clean. Internet access is wireless and spotty reception in some rooms.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d258818-r2619312-Residence_Inn_Houston_The_Woodlands_Market_Street-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>2619312</t>
+  </si>
+  <si>
+    <t>10/03/2004</t>
+  </si>
+  <si>
+    <t>I loved the Residence Inn</t>
+  </si>
+  <si>
+    <t>I stayed at the Marriott's Residence Inn suites for 3 nights on a weekend when they were packed to capacity.  The maid service was terrific every day and the front desk was always friendly and accommodating.I was very pleased with my room.  There was plenty of closet and drawer space.  The bathroom and sink layout was great.  I didn't cook, but there were plenty of utensils had I needed to.  Having a fridge with an ice maker was awesome.I ate at the breakfast buffet each morning.  Exceptional fare:  Texas shaped waffles with strawberries and pecans, oatmeal and cereal, scrambled eggs and sausage.  Plenty of seating (including an outside patio) and free newspapers.It has a great location with the mall &amp; theatre two blocks away and the library, grocery stores, and lake all close by.  It was easy to get to the bike and running paths that line nearly every street in the Woodlands by heading west.  I had a wonderful time and would definitely recommend the Residence to friends wanting a great, affordable place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at the Marriott's Residence Inn suites for 3 nights on a weekend when they were packed to capacity.  The maid service was terrific every day and the front desk was always friendly and accommodating.I was very pleased with my room.  There was plenty of closet and drawer space.  The bathroom and sink layout was great.  I didn't cook, but there were plenty of utensils had I needed to.  Having a fridge with an ice maker was awesome.I ate at the breakfast buffet each morning.  Exceptional fare:  Texas shaped waffles with strawberries and pecans, oatmeal and cereal, scrambled eggs and sausage.  Plenty of seating (including an outside patio) and free newspapers.It has a great location with the mall &amp; theatre two blocks away and the library, grocery stores, and lake all close by.  It was easy to get to the bike and running paths that line nearly every street in the Woodlands by heading west.  I had a wonderful time and would definitely recommend the Residence to friends wanting a great, affordable place to stay.More</t>
   </si>
 </sst>
 </file>
@@ -2146,31 +3039,31 @@
         <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -2186,7 +3079,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -2195,25 +3088,25 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2225,13 +3118,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -2247,7 +3140,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -2256,43 +3149,49 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>81</v>
-      </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -2308,7 +3207,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -2317,47 +3216,43 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
@@ -2373,7 +3268,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2382,22 +3277,26 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
@@ -2408,13 +3307,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="X7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Y7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
@@ -2430,7 +3329,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2439,25 +3338,25 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O8" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2469,13 +3368,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
@@ -2491,7 +3390,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2500,49 +3399,43 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O9" t="s">
-        <v>81</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="X9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
@@ -2558,7 +3451,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2567,22 +3460,22 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
         <v>53</v>
@@ -2590,24 +3483,24 @@
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="X10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Y10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
@@ -2623,7 +3516,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2632,36 +3525,28 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
-      </c>
-      <c r="N11" t="s">
-        <v>133</v>
-      </c>
-      <c r="O11" t="s">
-        <v>81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>3</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>4</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
@@ -2715,15 +3600,13 @@
         <v>142</v>
       </c>
       <c r="O12" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
         <v>5</v>
       </c>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
@@ -2733,13 +3616,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="X12" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="Y12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13">
@@ -2755,7 +3638,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2764,49 +3647,43 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O13" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>4</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="X13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14">
@@ -2822,7 +3699,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2831,25 +3708,25 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O14" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2861,13 +3738,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15">
@@ -2883,7 +3760,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2892,43 +3769,49 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="O15" t="s">
-        <v>81</v>
-      </c>
-      <c r="P15" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
       <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="X15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Y15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
@@ -2944,7 +3827,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2953,43 +3836,47 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J16" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K16" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O16" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="X16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Y16" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17">
@@ -3005,7 +3892,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -3014,25 +3901,25 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J17" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="K17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="O17" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3044,13 +3931,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
+        <v>179</v>
+      </c>
+      <c r="X17" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y17" t="s">
         <v>186</v>
-      </c>
-      <c r="X17" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="18">
@@ -3066,46 +3953,44 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>188</v>
+      </c>
+      <c r="J18" t="s">
         <v>189</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>190</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>191</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
         <v>192</v>
       </c>
-      <c r="L18" t="s">
+      <c r="O18" t="s">
         <v>193</v>
       </c>
-      <c r="M18" t="n">
-        <v>4</v>
-      </c>
-      <c r="N18" t="s">
-        <v>185</v>
-      </c>
-      <c r="O18" t="s">
-        <v>81</v>
-      </c>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>4</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -3154,25 +4039,23 @@
         <v>201</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="O19" t="s">
-        <v>202</v>
+        <v>63</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>4</v>
-      </c>
+      <c r="R19" t="s"/>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3227,29 +4110,31 @@
         <v>211</v>
       </c>
       <c r="O20" t="s">
-        <v>71</v>
+        <v>193</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
+        <v>179</v>
+      </c>
+      <c r="X20" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y20" t="s">
         <v>212</v>
-      </c>
-      <c r="X20" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="21">
@@ -3265,48 +4150,58 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>214</v>
+      </c>
+      <c r="J21" t="s">
         <v>215</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>216</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
         <v>217</v>
       </c>
-      <c r="K21" t="s">
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
         <v>218</v>
       </c>
-      <c r="L21" t="s">
-        <v>219</v>
-      </c>
-      <c r="M21" t="n">
-        <v>4</v>
-      </c>
-      <c r="N21" t="s">
-        <v>176</v>
-      </c>
       <c r="O21" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>219</v>
+      </c>
+      <c r="X21" t="s">
+        <v>220</v>
+      </c>
       <c r="Y21" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22">
@@ -3322,7 +4217,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3331,25 +4226,25 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J22" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K22" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O22" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3361,13 +4256,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="X22" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Y22" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23">
@@ -3383,7 +4278,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3392,38 +4287,32 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="J23" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="K23" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L23" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="O23" t="s">
-        <v>71</v>
+        <v>193</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>3</v>
-      </c>
-      <c r="R23" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>3</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
@@ -3431,10 +4320,10 @@
         <v>235</v>
       </c>
       <c r="X23" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y23" t="s">
         <v>236</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="24">
@@ -3450,56 +4339,52 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>237</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
         <v>238</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>239</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>240</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>241</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
         <v>242</v>
       </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>243</v>
-      </c>
       <c r="O24" t="s">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
+        <v>243</v>
+      </c>
+      <c r="X24" t="s">
         <v>244</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>245</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="25">
@@ -3515,58 +4400,52 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>246</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
         <v>247</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>248</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>249</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>250</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>202</v>
+      </c>
+      <c r="O25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
         <v>251</v>
       </c>
-      <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>4</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
-      <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>252</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>253</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="26">
@@ -3582,58 +4461,52 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
         <v>255</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>256</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>257</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>258</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
         <v>259</v>
       </c>
-      <c r="M26" t="n">
-        <v>3</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
         <v>260</v>
       </c>
-      <c r="O26" t="s">
-        <v>81</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>4</v>
-      </c>
-      <c r="R26" t="n">
-        <v>4</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3</v>
-      </c>
-      <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>3</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="X26" t="s">
+        <v>261</v>
+      </c>
       <c r="Y26" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27">
@@ -3649,7 +4522,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3658,43 +4531,49 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="J27" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K27" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L27" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O27" t="s">
-        <v>71</v>
-      </c>
-      <c r="P27" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
       <c r="S27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>269</v>
+      </c>
+      <c r="X27" t="s">
+        <v>270</v>
+      </c>
       <c r="Y27" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28">
@@ -3710,31 +4589,35 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>272</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>273</v>
+      </c>
+      <c r="J28" t="s">
+        <v>274</v>
+      </c>
+      <c r="K28" t="s">
+        <v>275</v>
+      </c>
+      <c r="L28" t="s">
+        <v>276</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
         <v>268</v>
       </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
-        <v>269</v>
-      </c>
-      <c r="J28" t="s">
-        <v>270</v>
-      </c>
-      <c r="K28" t="s">
-        <v>271</v>
-      </c>
-      <c r="L28" t="s">
-        <v>272</v>
-      </c>
-      <c r="M28" t="n">
-        <v>4</v>
-      </c>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
@@ -3744,10 +4627,14 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>277</v>
+      </c>
+      <c r="X28" t="s">
+        <v>278</v>
+      </c>
       <c r="Y28" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29">
@@ -3763,7 +4650,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3772,53 +4659,43 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="J29" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="K29" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="L29" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="O29" t="s">
-        <v>81</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>3</v>
-      </c>
-      <c r="R29" t="n">
-        <v>3</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>3</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="X29" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="Y29" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30">
@@ -3834,7 +4711,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3843,43 +4720,49 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="J30" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="K30" t="s">
+        <v>292</v>
+      </c>
+      <c r="L30" t="s">
+        <v>293</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
         <v>285</v>
       </c>
-      <c r="L30" t="s">
-        <v>286</v>
-      </c>
-      <c r="M30" t="n">
-        <v>2</v>
-      </c>
-      <c r="N30" t="s">
-        <v>287</v>
-      </c>
       <c r="O30" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
       <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="X30" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Y30" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31">
@@ -3895,7 +4778,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3904,32 +4787,28 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="J31" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="K31" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="L31" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="O31" t="s">
-        <v>202</v>
-      </c>
-      <c r="P31" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>4</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
       <c r="R31" t="n">
         <v>4</v>
       </c>
@@ -3943,10 +4822,14 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>303</v>
+      </c>
+      <c r="X31" t="s">
+        <v>304</v>
+      </c>
       <c r="Y31" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32">
@@ -3962,7 +4845,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3971,49 +4854,43 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="J32" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="K32" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="L32" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="O32" t="s">
-        <v>143</v>
-      </c>
-      <c r="P32" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>3</v>
-      </c>
-      <c r="R32" t="n">
-        <v>4</v>
-      </c>
-      <c r="S32" t="n">
-        <v>4</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>4</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>312</v>
+      </c>
+      <c r="X32" t="s">
+        <v>313</v>
+      </c>
       <c r="Y32" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33">
@@ -4029,7 +4906,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4038,49 +4915,43 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="J33" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="K33" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="L33" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="O33" t="s">
-        <v>143</v>
-      </c>
-      <c r="P33" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>3</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>1</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>321</v>
+      </c>
+      <c r="X33" t="s">
+        <v>322</v>
+      </c>
       <c r="Y33" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34">
@@ -4096,7 +4967,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4105,39 +4976,47 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="J34" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="K34" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="L34" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>278</v>
+        <v>329</v>
       </c>
       <c r="O34" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
-      <c r="S34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
       <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>330</v>
+      </c>
+      <c r="X34" t="s">
+        <v>331</v>
+      </c>
       <c r="Y34" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35">
@@ -4153,7 +5032,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4162,25 +5041,25 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="J35" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="K35" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="L35" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>319</v>
+        <v>259</v>
       </c>
       <c r="O35" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4194,7 +5073,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36">
@@ -4210,7 +5089,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4219,49 +5098,43 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="J36" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="K36" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="L36" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="O36" t="s">
-        <v>202</v>
-      </c>
-      <c r="P36" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>4</v>
-      </c>
-      <c r="R36" t="n">
-        <v>4</v>
-      </c>
-      <c r="S36" t="n">
-        <v>4</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>1</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>344</v>
+      </c>
+      <c r="X36" t="s">
+        <v>345</v>
+      </c>
       <c r="Y36" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37">
@@ -4277,7 +5150,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4286,45 +5159,49 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="J37" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="K37" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L37" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
-      </c>
-      <c r="N37" t="s"/>
-      <c r="O37" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>352</v>
+      </c>
+      <c r="O37" t="s">
+        <v>193</v>
+      </c>
       <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q37" t="s"/>
       <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>353</v>
+      </c>
+      <c r="X37" t="s">
+        <v>354</v>
+      </c>
       <c r="Y37" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row r="38">
@@ -4340,7 +5217,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4349,47 +5226,47 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="J38" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="K38" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="L38" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="O38" t="s">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="P38" t="s"/>
-      <c r="Q38" t="n">
-        <v>1</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
       <c r="S38" t="n">
         <v>5</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>361</v>
+      </c>
+      <c r="X38" t="s">
+        <v>362</v>
+      </c>
       <c r="Y38" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
     </row>
     <row r="39">
@@ -4405,7 +5282,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4414,38 +5291,34 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>340</v>
+        <v>365</v>
       </c>
       <c r="J39" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="K39" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="L39" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="O39" t="s">
-        <v>81</v>
-      </c>
-      <c r="P39" t="n">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
         <v>3</v>
       </c>
-      <c r="Q39" t="n">
-        <v>4</v>
-      </c>
       <c r="R39" t="n">
-        <v>4</v>
-      </c>
-      <c r="S39" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
         <v>3</v>
@@ -4453,10 +5326,14 @@
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>370</v>
+      </c>
+      <c r="X39" t="s">
+        <v>371</v>
+      </c>
       <c r="Y39" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
     </row>
     <row r="40">
@@ -4472,7 +5349,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4481,49 +5358,47 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="J40" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="K40" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="L40" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="M40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="O40" t="s">
-        <v>81</v>
-      </c>
-      <c r="P40" t="n">
-        <v>2</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P40" t="s"/>
       <c r="Q40" t="n">
-        <v>3</v>
-      </c>
-      <c r="R40" t="n">
-        <v>3</v>
-      </c>
-      <c r="S40" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>379</v>
+      </c>
+      <c r="X40" t="s">
+        <v>380</v>
+      </c>
       <c r="Y40" t="s">
-        <v>351</v>
+        <v>381</v>
       </c>
     </row>
     <row r="41">
@@ -4539,7 +5414,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4548,49 +5423,49 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="J41" t="s">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="K41" t="s">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="L41" t="s">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="s">
-        <v>350</v>
-      </c>
-      <c r="O41" t="s">
-        <v>81</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>387</v>
+      </c>
+      <c r="X41" t="s">
+        <v>388</v>
+      </c>
       <c r="Y41" t="s">
-        <v>356</v>
+        <v>389</v>
       </c>
     </row>
     <row r="42">
@@ -4606,7 +5481,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4615,49 +5490,49 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="J42" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="K42" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="L42" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="O42" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="P42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q42" t="n">
-        <v>5</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>395</v>
+      </c>
+      <c r="X42" t="s">
+        <v>396</v>
+      </c>
       <c r="Y42" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
     </row>
     <row r="43">
@@ -4673,7 +5548,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4682,49 +5557,39 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="J43" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="K43" t="s">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="L43" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>337</v>
+        <v>403</v>
       </c>
       <c r="O43" t="s">
-        <v>81</v>
-      </c>
-      <c r="P43" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>4</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
     </row>
     <row r="44">
@@ -4740,7 +5605,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4749,28 +5614,28 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="J44" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="K44" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="L44" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="O44" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="P44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q44" t="n">
         <v>4</v>
@@ -4779,11 +5644,11 @@
         <v>4</v>
       </c>
       <c r="S44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4791,7 +5656,7 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
     </row>
     <row r="45">
@@ -4807,7 +5672,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4816,37 +5681,31 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>374</v>
+        <v>412</v>
       </c>
       <c r="J45" t="s">
-        <v>375</v>
+        <v>413</v>
       </c>
       <c r="K45" t="s">
-        <v>376</v>
+        <v>414</v>
       </c>
       <c r="L45" t="s">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="O45" t="s">
-        <v>143</v>
-      </c>
-      <c r="P45" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>5</v>
-      </c>
-      <c r="R45" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
       <c r="S45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
@@ -4858,7 +5717,7 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
     </row>
     <row r="46">
@@ -4874,7 +5733,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4883,49 +5742,35 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="J46" t="s">
-        <v>381</v>
+        <v>420</v>
       </c>
       <c r="K46" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="L46" t="s">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
-      </c>
-      <c r="N46" t="s">
-        <v>344</v>
-      </c>
-      <c r="O46" t="s">
-        <v>71</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>5</v>
-      </c>
-      <c r="R46" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>5</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>383</v>
+        <v>422</v>
       </c>
     </row>
     <row r="47">
@@ -4941,7 +5786,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4950,31 +5795,31 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="J47" t="s">
-        <v>386</v>
+        <v>425</v>
       </c>
       <c r="K47" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
       <c r="L47" t="s">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="O47" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="P47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R47" t="n">
         <v>5</v>
@@ -4992,7 +5837,7 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
     </row>
     <row r="48">
@@ -5008,7 +5853,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5017,37 +5862,41 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>391</v>
+        <v>431</v>
       </c>
       <c r="J48" t="s">
-        <v>392</v>
+        <v>432</v>
       </c>
       <c r="K48" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="L48" t="s">
-        <v>394</v>
+        <v>434</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
-      </c>
-      <c r="N48" t="s"/>
-      <c r="O48" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>435</v>
+      </c>
+      <c r="O48" t="s">
+        <v>63</v>
+      </c>
       <c r="P48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -5055,7 +5904,7 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>394</v>
+        <v>434</v>
       </c>
     </row>
     <row r="49">
@@ -5071,7 +5920,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>395</v>
+        <v>436</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5080,49 +5929,53 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>396</v>
+        <v>437</v>
       </c>
       <c r="J49" t="s">
-        <v>397</v>
+        <v>438</v>
       </c>
       <c r="K49" t="s">
-        <v>398</v>
+        <v>439</v>
       </c>
       <c r="L49" t="s">
-        <v>399</v>
+        <v>440</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>400</v>
+        <v>441</v>
       </c>
       <c r="O49" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="P49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>442</v>
+      </c>
+      <c r="X49" t="s">
+        <v>443</v>
+      </c>
       <c r="Y49" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
     </row>
     <row r="50">
@@ -5138,7 +5991,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5147,49 +6000,43 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="J50" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="K50" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="L50" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="O50" t="s">
-        <v>202</v>
-      </c>
-      <c r="P50" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>5</v>
-      </c>
-      <c r="R50" t="n">
-        <v>5</v>
-      </c>
-      <c r="S50" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="n">
-        <v>5</v>
-      </c>
+      <c r="U50" t="s"/>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>451</v>
+      </c>
+      <c r="X50" t="s">
+        <v>452</v>
+      </c>
       <c r="Y50" t="s">
-        <v>405</v>
+        <v>453</v>
       </c>
     </row>
     <row r="51">
@@ -5205,7 +6052,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5214,34 +6061,34 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="J51" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="K51" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
       <c r="L51" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="O51" t="s">
-        <v>71</v>
+        <v>302</v>
       </c>
       <c r="P51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S51" t="n">
         <v>5</v>
@@ -5256,7 +6103,7 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
     </row>
     <row r="52">
@@ -5272,7 +6119,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5281,31 +6128,31 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>415</v>
+        <v>462</v>
       </c>
       <c r="J52" t="s">
-        <v>409</v>
+        <v>463</v>
       </c>
       <c r="K52" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="L52" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="O52" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="P52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R52" t="n">
         <v>5</v>
@@ -5315,7 +6162,7 @@
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -5323,7 +6170,7 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
     </row>
     <row r="53">
@@ -5339,7 +6186,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5348,31 +6195,31 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="J53" t="s">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="K53" t="s">
-        <v>421</v>
+        <v>469</v>
       </c>
       <c r="L53" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="M53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
       <c r="O53" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
       </c>
       <c r="Q53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R53" t="n">
         <v>5</v>
@@ -5390,7 +6237,7 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
     </row>
     <row r="54">
@@ -5406,7 +6253,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5415,41 +6262,41 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="J54" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="K54" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
       <c r="L54" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>429</v>
+        <v>459</v>
       </c>
       <c r="O54" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="P54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -5457,7 +6304,7 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
     </row>
     <row r="55">
@@ -5473,7 +6320,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>430</v>
+        <v>476</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5482,39 +6329,41 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>431</v>
+        <v>477</v>
       </c>
       <c r="J55" t="s">
-        <v>432</v>
+        <v>478</v>
       </c>
       <c r="K55" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
       <c r="L55" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
       <c r="M55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>429</v>
+        <v>481</v>
       </c>
       <c r="O55" t="s">
-        <v>71</v>
+        <v>193</v>
       </c>
       <c r="P55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R55" t="n">
         <v>5</v>
       </c>
-      <c r="S55" t="s"/>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
@@ -5522,7 +6371,7 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>435</v>
+        <v>480</v>
       </c>
     </row>
     <row r="56">
@@ -5538,7 +6387,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>436</v>
+        <v>482</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5547,45 +6396,39 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>437</v>
+        <v>483</v>
       </c>
       <c r="J56" t="s">
-        <v>438</v>
+        <v>484</v>
       </c>
       <c r="K56" t="s">
-        <v>439</v>
+        <v>485</v>
       </c>
       <c r="L56" t="s">
-        <v>440</v>
+        <v>486</v>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N56" t="s">
         <v>441</v>
       </c>
       <c r="O56" t="s">
-        <v>71</v>
-      </c>
-      <c r="P56" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
       <c r="R56" t="s"/>
-      <c r="S56" t="n">
-        <v>5</v>
-      </c>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
-      <c r="U56" t="n">
-        <v>5</v>
-      </c>
+      <c r="U56" t="s"/>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>442</v>
+        <v>486</v>
       </c>
     </row>
     <row r="57">
@@ -5601,7 +6444,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>443</v>
+        <v>487</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5610,25 +6453,25 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>444</v>
+        <v>488</v>
       </c>
       <c r="J57" t="s">
-        <v>445</v>
+        <v>489</v>
       </c>
       <c r="K57" t="s">
-        <v>446</v>
+        <v>490</v>
       </c>
       <c r="L57" t="s">
-        <v>447</v>
+        <v>491</v>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>448</v>
+        <v>492</v>
       </c>
       <c r="O57" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -5642,7 +6485,7 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>447</v>
+        <v>491</v>
       </c>
     </row>
     <row r="58">
@@ -5658,7 +6501,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>449</v>
+        <v>493</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5667,31 +6510,31 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>450</v>
+        <v>494</v>
       </c>
       <c r="J58" t="s">
-        <v>451</v>
+        <v>495</v>
       </c>
       <c r="K58" t="s">
-        <v>452</v>
+        <v>496</v>
       </c>
       <c r="L58" t="s">
-        <v>453</v>
+        <v>497</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>454</v>
+        <v>492</v>
       </c>
       <c r="O58" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
       </c>
       <c r="Q58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R58" t="n">
         <v>5</v>
@@ -5709,7 +6552,7 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>455</v>
+        <v>498</v>
       </c>
     </row>
     <row r="59">
@@ -5725,7 +6568,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5734,53 +6577,39 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="J59" t="s">
-        <v>458</v>
+        <v>501</v>
       </c>
       <c r="K59" t="s">
-        <v>459</v>
+        <v>502</v>
       </c>
       <c r="L59" t="s">
-        <v>460</v>
+        <v>503</v>
       </c>
       <c r="M59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>454</v>
+        <v>504</v>
       </c>
       <c r="O59" t="s">
-        <v>71</v>
-      </c>
-      <c r="P59" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>2</v>
-      </c>
-      <c r="R59" t="n">
-        <v>5</v>
-      </c>
-      <c r="S59" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
       <c r="T59" t="s"/>
-      <c r="U59" t="n">
-        <v>4</v>
-      </c>
+      <c r="U59" t="s"/>
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s">
-        <v>461</v>
-      </c>
-      <c r="X59" t="s">
-        <v>462</v>
-      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>463</v>
+        <v>505</v>
       </c>
     </row>
     <row r="60">
@@ -5796,7 +6625,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>464</v>
+        <v>506</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5805,41 +6634,41 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>465</v>
+        <v>507</v>
       </c>
       <c r="J60" t="s">
-        <v>466</v>
+        <v>508</v>
       </c>
       <c r="K60" t="s">
-        <v>467</v>
+        <v>509</v>
       </c>
       <c r="L60" t="s">
-        <v>468</v>
+        <v>510</v>
       </c>
       <c r="M60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>469</v>
+        <v>511</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>302</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
       </c>
       <c r="Q60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S60" t="n">
         <v>4</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -5847,7 +6676,7 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>470</v>
+        <v>510</v>
       </c>
     </row>
     <row r="61">
@@ -5863,7 +6692,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>471</v>
+        <v>512</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5872,26 +6701,22 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>472</v>
+        <v>513</v>
       </c>
       <c r="J61" t="s">
-        <v>473</v>
+        <v>514</v>
       </c>
       <c r="K61" t="s">
-        <v>474</v>
+        <v>515</v>
       </c>
       <c r="L61" t="s">
-        <v>475</v>
+        <v>516</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
-      <c r="N61" t="s">
-        <v>476</v>
-      </c>
-      <c r="O61" t="s">
-        <v>143</v>
-      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
       <c r="P61" t="n">
         <v>5</v>
       </c>
@@ -5914,7 +6739,7 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>475</v>
+        <v>516</v>
       </c>
     </row>
     <row r="62">
@@ -5930,7 +6755,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>477</v>
+        <v>517</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -5939,35 +6764,49 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>478</v>
+        <v>518</v>
       </c>
       <c r="J62" t="s">
-        <v>479</v>
+        <v>519</v>
       </c>
       <c r="K62" t="s">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="L62" t="s">
-        <v>481</v>
+        <v>521</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
-      <c r="N62" t="s"/>
-      <c r="O62" t="s"/>
-      <c r="P62" t="s"/>
-      <c r="Q62" t="s"/>
-      <c r="R62" t="s"/>
-      <c r="S62" t="s"/>
+      <c r="N62" t="s">
+        <v>435</v>
+      </c>
+      <c r="O62" t="s">
+        <v>302</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
       <c r="T62" t="s"/>
-      <c r="U62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>481</v>
+        <v>521</v>
       </c>
     </row>
     <row r="63">
@@ -5983,7 +6822,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>482</v>
+        <v>522</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -5992,35 +6831,41 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>483</v>
+        <v>523</v>
       </c>
       <c r="J63" t="s">
-        <v>484</v>
+        <v>519</v>
       </c>
       <c r="K63" t="s">
-        <v>485</v>
+        <v>524</v>
       </c>
       <c r="L63" t="s">
-        <v>486</v>
+        <v>525</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
-      <c r="N63" t="s"/>
-      <c r="O63" t="s"/>
+      <c r="N63" t="s">
+        <v>511</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
       <c r="P63" t="n">
         <v>5</v>
       </c>
       <c r="Q63" t="n">
-        <v>4</v>
-      </c>
-      <c r="R63" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
       <c r="S63" t="n">
         <v>5</v>
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -6028,7 +6873,7 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>487</v>
+        <v>526</v>
       </c>
     </row>
     <row r="64">
@@ -6044,7 +6889,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>488</v>
+        <v>527</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6053,35 +6898,2834 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>489</v>
+        <v>528</v>
       </c>
       <c r="J64" t="s">
-        <v>490</v>
+        <v>519</v>
       </c>
       <c r="K64" t="s">
-        <v>491</v>
+        <v>529</v>
       </c>
       <c r="L64" t="s">
-        <v>492</v>
+        <v>530</v>
       </c>
       <c r="M64" t="n">
-        <v>4</v>
-      </c>
-      <c r="N64" t="s"/>
-      <c r="O64" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>531</v>
+      </c>
+      <c r="O64" t="s">
+        <v>63</v>
+      </c>
       <c r="P64" t="s"/>
-      <c r="Q64" t="s"/>
-      <c r="R64" t="s"/>
-      <c r="S64" t="s"/>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
       <c r="T64" t="s"/>
-      <c r="U64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
       <c r="V64" t="n">
         <v>0</v>
       </c>
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>492</v>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>533</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>534</v>
+      </c>
+      <c r="J65" t="s">
+        <v>535</v>
+      </c>
+      <c r="K65" t="s">
+        <v>536</v>
+      </c>
+      <c r="L65" t="s">
+        <v>537</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>538</v>
+      </c>
+      <c r="O65" t="s">
+        <v>63</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>539</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>540</v>
+      </c>
+      <c r="J66" t="s">
+        <v>541</v>
+      </c>
+      <c r="K66" t="s">
+        <v>542</v>
+      </c>
+      <c r="L66" t="s">
+        <v>543</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>435</v>
+      </c>
+      <c r="O66" t="s">
+        <v>63</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>2</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>545</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>546</v>
+      </c>
+      <c r="J67" t="s">
+        <v>547</v>
+      </c>
+      <c r="K67" t="s">
+        <v>548</v>
+      </c>
+      <c r="L67" t="s">
+        <v>549</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>551</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>552</v>
+      </c>
+      <c r="J68" t="s">
+        <v>553</v>
+      </c>
+      <c r="K68" t="s">
+        <v>554</v>
+      </c>
+      <c r="L68" t="s">
+        <v>555</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>435</v>
+      </c>
+      <c r="O68" t="s">
+        <v>63</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>556</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>557</v>
+      </c>
+      <c r="J69" t="s">
+        <v>558</v>
+      </c>
+      <c r="K69" t="s">
+        <v>559</v>
+      </c>
+      <c r="L69" t="s">
+        <v>560</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>435</v>
+      </c>
+      <c r="O69" t="s">
+        <v>63</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>561</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>562</v>
+      </c>
+      <c r="J70" t="s">
+        <v>563</v>
+      </c>
+      <c r="K70" t="s">
+        <v>564</v>
+      </c>
+      <c r="L70" t="s">
+        <v>565</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>435</v>
+      </c>
+      <c r="O70" t="s">
+        <v>63</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>566</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>567</v>
+      </c>
+      <c r="J71" t="s">
+        <v>568</v>
+      </c>
+      <c r="K71" t="s">
+        <v>569</v>
+      </c>
+      <c r="L71" t="s">
+        <v>570</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>531</v>
+      </c>
+      <c r="O71" t="s">
+        <v>63</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>571</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>572</v>
+      </c>
+      <c r="J72" t="s">
+        <v>573</v>
+      </c>
+      <c r="K72" t="s">
+        <v>574</v>
+      </c>
+      <c r="L72" t="s">
+        <v>575</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>576</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>577</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>578</v>
+      </c>
+      <c r="J73" t="s">
+        <v>579</v>
+      </c>
+      <c r="K73" t="s">
+        <v>580</v>
+      </c>
+      <c r="L73" t="s">
+        <v>581</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>582</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>584</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>585</v>
+      </c>
+      <c r="J74" t="s">
+        <v>586</v>
+      </c>
+      <c r="K74" t="s">
+        <v>587</v>
+      </c>
+      <c r="L74" t="s">
+        <v>588</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>589</v>
+      </c>
+      <c r="O74" t="s">
+        <v>63</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>590</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>591</v>
+      </c>
+      <c r="J75" t="s">
+        <v>592</v>
+      </c>
+      <c r="K75" t="s">
+        <v>593</v>
+      </c>
+      <c r="L75" t="s">
+        <v>594</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>589</v>
+      </c>
+      <c r="O75" t="s">
+        <v>193</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>596</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>597</v>
+      </c>
+      <c r="J76" t="s">
+        <v>598</v>
+      </c>
+      <c r="K76" t="s">
+        <v>599</v>
+      </c>
+      <c r="L76" t="s">
+        <v>600</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>538</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>601</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>602</v>
+      </c>
+      <c r="J77" t="s">
+        <v>603</v>
+      </c>
+      <c r="K77" t="s">
+        <v>604</v>
+      </c>
+      <c r="L77" t="s">
+        <v>605</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>606</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>607</v>
+      </c>
+      <c r="J78" t="s">
+        <v>608</v>
+      </c>
+      <c r="K78" t="s">
+        <v>609</v>
+      </c>
+      <c r="L78" t="s">
+        <v>610</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>612</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>613</v>
+      </c>
+      <c r="J79" t="s">
+        <v>614</v>
+      </c>
+      <c r="K79" t="s">
+        <v>615</v>
+      </c>
+      <c r="L79" t="s">
+        <v>616</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>617</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>618</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>619</v>
+      </c>
+      <c r="J80" t="s">
+        <v>620</v>
+      </c>
+      <c r="K80" t="s">
+        <v>621</v>
+      </c>
+      <c r="L80" t="s">
+        <v>622</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>623</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>624</v>
+      </c>
+      <c r="J81" t="s">
+        <v>625</v>
+      </c>
+      <c r="K81" t="s">
+        <v>626</v>
+      </c>
+      <c r="L81" t="s">
+        <v>627</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>628</v>
+      </c>
+      <c r="O81" t="s">
+        <v>193</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>629</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>630</v>
+      </c>
+      <c r="J82" t="s">
+        <v>631</v>
+      </c>
+      <c r="K82" t="s">
+        <v>632</v>
+      </c>
+      <c r="L82" t="s">
+        <v>633</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>634</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>636</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>637</v>
+      </c>
+      <c r="J83" t="s">
+        <v>638</v>
+      </c>
+      <c r="K83" t="s">
+        <v>639</v>
+      </c>
+      <c r="L83" t="s">
+        <v>640</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>634</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>2</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>642</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>643</v>
+      </c>
+      <c r="J84" t="s">
+        <v>644</v>
+      </c>
+      <c r="K84" t="s">
+        <v>645</v>
+      </c>
+      <c r="L84" t="s">
+        <v>646</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>647</v>
+      </c>
+      <c r="O84" t="s">
+        <v>302</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>648</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>649</v>
+      </c>
+      <c r="J85" t="s">
+        <v>650</v>
+      </c>
+      <c r="K85" t="s">
+        <v>651</v>
+      </c>
+      <c r="L85" t="s">
+        <v>652</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>653</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>655</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>656</v>
+      </c>
+      <c r="J86" t="s">
+        <v>650</v>
+      </c>
+      <c r="K86" t="s">
+        <v>657</v>
+      </c>
+      <c r="L86" t="s">
+        <v>658</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>653</v>
+      </c>
+      <c r="O86" t="s">
+        <v>193</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>659</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>660</v>
+      </c>
+      <c r="J87" t="s">
+        <v>661</v>
+      </c>
+      <c r="K87" t="s">
+        <v>662</v>
+      </c>
+      <c r="L87" t="s">
+        <v>663</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>664</v>
+      </c>
+      <c r="O87" t="s">
+        <v>63</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>665</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>666</v>
+      </c>
+      <c r="J88" t="s">
+        <v>667</v>
+      </c>
+      <c r="K88" t="s">
+        <v>668</v>
+      </c>
+      <c r="L88" t="s">
+        <v>669</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>670</v>
+      </c>
+      <c r="O88" t="s">
+        <v>63</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>671</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>672</v>
+      </c>
+      <c r="J89" t="s">
+        <v>673</v>
+      </c>
+      <c r="K89" t="s">
+        <v>674</v>
+      </c>
+      <c r="L89" t="s">
+        <v>675</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>676</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>677</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>678</v>
+      </c>
+      <c r="J90" t="s">
+        <v>679</v>
+      </c>
+      <c r="K90" t="s">
+        <v>680</v>
+      </c>
+      <c r="L90" t="s">
+        <v>681</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>682</v>
+      </c>
+      <c r="O90" t="s">
+        <v>302</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>683</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>684</v>
+      </c>
+      <c r="J91" t="s">
+        <v>685</v>
+      </c>
+      <c r="K91" t="s">
+        <v>686</v>
+      </c>
+      <c r="L91" t="s">
+        <v>687</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>682</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>689</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>690</v>
+      </c>
+      <c r="J92" t="s">
+        <v>691</v>
+      </c>
+      <c r="K92" t="s">
+        <v>692</v>
+      </c>
+      <c r="L92" t="s">
+        <v>693</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>694</v>
+      </c>
+      <c r="O92" t="s">
+        <v>63</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="n">
+        <v>3</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>695</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>696</v>
+      </c>
+      <c r="J93" t="s">
+        <v>697</v>
+      </c>
+      <c r="K93" t="s">
+        <v>698</v>
+      </c>
+      <c r="L93" t="s">
+        <v>699</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>700</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>701</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>702</v>
+      </c>
+      <c r="J94" t="s">
+        <v>703</v>
+      </c>
+      <c r="K94" t="s">
+        <v>704</v>
+      </c>
+      <c r="L94" t="s">
+        <v>705</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>700</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>707</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>708</v>
+      </c>
+      <c r="J95" t="s">
+        <v>709</v>
+      </c>
+      <c r="K95" t="s">
+        <v>710</v>
+      </c>
+      <c r="L95" t="s">
+        <v>711</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>712</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="s"/>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>713</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>714</v>
+      </c>
+      <c r="J96" t="s">
+        <v>715</v>
+      </c>
+      <c r="K96" t="s">
+        <v>716</v>
+      </c>
+      <c r="L96" t="s">
+        <v>717</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>718</v>
+      </c>
+      <c r="O96" t="s">
+        <v>63</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>720</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>721</v>
+      </c>
+      <c r="J97" t="s">
+        <v>722</v>
+      </c>
+      <c r="K97" t="s">
+        <v>723</v>
+      </c>
+      <c r="L97" t="s">
+        <v>724</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>725</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>726</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>727</v>
+      </c>
+      <c r="J98" t="s">
+        <v>728</v>
+      </c>
+      <c r="K98" t="s">
+        <v>729</v>
+      </c>
+      <c r="L98" t="s">
+        <v>730</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>725</v>
+      </c>
+      <c r="O98" t="s">
+        <v>63</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>732</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>733</v>
+      </c>
+      <c r="J99" t="s">
+        <v>734</v>
+      </c>
+      <c r="K99" t="s">
+        <v>735</v>
+      </c>
+      <c r="L99" t="s">
+        <v>736</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3</v>
+      </c>
+      <c r="N99" t="s">
+        <v>718</v>
+      </c>
+      <c r="O99" t="s">
+        <v>53</v>
+      </c>
+      <c r="P99" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>2</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>737</v>
+      </c>
+      <c r="X99" t="s">
+        <v>738</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>740</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>741</v>
+      </c>
+      <c r="J100" t="s">
+        <v>742</v>
+      </c>
+      <c r="K100" t="s">
+        <v>743</v>
+      </c>
+      <c r="L100" t="s">
+        <v>744</v>
+      </c>
+      <c r="M100" t="n">
+        <v>3</v>
+      </c>
+      <c r="N100" t="s">
+        <v>745</v>
+      </c>
+      <c r="O100" t="s">
+        <v>73</v>
+      </c>
+      <c r="P100" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>2</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>747</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>748</v>
+      </c>
+      <c r="J101" t="s">
+        <v>749</v>
+      </c>
+      <c r="K101" t="s">
+        <v>750</v>
+      </c>
+      <c r="L101" t="s">
+        <v>751</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>752</v>
+      </c>
+      <c r="O101" t="s">
+        <v>193</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>753</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>754</v>
+      </c>
+      <c r="J102" t="s">
+        <v>755</v>
+      </c>
+      <c r="K102" t="s">
+        <v>756</v>
+      </c>
+      <c r="L102" t="s">
+        <v>757</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>758</v>
+      </c>
+      <c r="O102" t="s">
+        <v>193</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>759</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>760</v>
+      </c>
+      <c r="J103" t="s">
+        <v>761</v>
+      </c>
+      <c r="K103" t="s">
+        <v>762</v>
+      </c>
+      <c r="L103" t="s">
+        <v>763</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>764</v>
+      </c>
+      <c r="O103" t="s">
+        <v>63</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>766</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>767</v>
+      </c>
+      <c r="J104" t="s">
+        <v>768</v>
+      </c>
+      <c r="K104" t="s">
+        <v>769</v>
+      </c>
+      <c r="L104" t="s">
+        <v>770</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s"/>
+      <c r="O104" t="s"/>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="s"/>
+      <c r="T104" t="s"/>
+      <c r="U104" t="s"/>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>771</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>772</v>
+      </c>
+      <c r="J105" t="s">
+        <v>773</v>
+      </c>
+      <c r="K105" t="s">
+        <v>774</v>
+      </c>
+      <c r="L105" t="s">
+        <v>775</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s"/>
+      <c r="O105" t="s"/>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="s"/>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>4</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>777</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>778</v>
+      </c>
+      <c r="J106" t="s">
+        <v>779</v>
+      </c>
+      <c r="K106" t="s">
+        <v>780</v>
+      </c>
+      <c r="L106" t="s">
+        <v>781</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s"/>
+      <c r="O106" t="s"/>
+      <c r="P106" t="s"/>
+      <c r="Q106" t="s"/>
+      <c r="R106" t="s"/>
+      <c r="S106" t="s"/>
+      <c r="T106" t="s"/>
+      <c r="U106" t="s"/>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>782</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>783</v>
+      </c>
+      <c r="J107" t="s">
+        <v>784</v>
+      </c>
+      <c r="K107" t="s">
+        <v>785</v>
+      </c>
+      <c r="L107" t="s">
+        <v>786</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s"/>
+      <c r="O107" t="s"/>
+      <c r="P107" t="s"/>
+      <c r="Q107" t="s"/>
+      <c r="R107" t="s"/>
+      <c r="S107" t="s"/>
+      <c r="T107" t="s"/>
+      <c r="U107" t="s"/>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>787</v>
       </c>
     </row>
   </sheetData>
